--- a/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9984280369821316</v>
+        <v>0.9984280369821303</v>
       </c>
       <c r="D2">
-        <v>1.017570005390164</v>
+        <v>1.017570005390163</v>
       </c>
       <c r="E2">
-        <v>1.008441579097408</v>
+        <v>1.008441579097406</v>
       </c>
       <c r="F2">
-        <v>1.011697426186897</v>
+        <v>1.011697426186896</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045060978717428</v>
+        <v>1.045060978717427</v>
       </c>
       <c r="J2">
-        <v>1.020655867066399</v>
+        <v>1.020655867066398</v>
       </c>
       <c r="K2">
         <v>1.028789870889901</v>
       </c>
       <c r="L2">
-        <v>1.019784548839273</v>
+        <v>1.019784548839271</v>
       </c>
       <c r="M2">
-        <v>1.022996167637618</v>
+        <v>1.022996167637617</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008317016818472</v>
+        <v>1.008317016818473</v>
       </c>
       <c r="D3">
-        <v>1.025379845110138</v>
+        <v>1.025379845110139</v>
       </c>
       <c r="E3">
-        <v>1.017849078219531</v>
+        <v>1.017849078219532</v>
       </c>
       <c r="F3">
-        <v>1.021454203688363</v>
+        <v>1.021454203688364</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049108019561421</v>
+        <v>1.049108019561422</v>
       </c>
       <c r="J3">
         <v>1.028583491097274</v>
       </c>
       <c r="K3">
-        <v>1.03569796680768</v>
+        <v>1.035697966807681</v>
       </c>
       <c r="L3">
-        <v>1.028258559091857</v>
+        <v>1.028258559091858</v>
       </c>
       <c r="M3">
-        <v>1.031819740330588</v>
+        <v>1.031819740330589</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,10 +503,10 @@
         <v>1.030225217387517</v>
       </c>
       <c r="E4">
-        <v>1.02368804009839</v>
+        <v>1.023688040098391</v>
       </c>
       <c r="F4">
-        <v>1.027514443356891</v>
+        <v>1.027514443356892</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,10 +518,10 @@
         <v>1.033490000293546</v>
       </c>
       <c r="K4">
-        <v>1.039972039158575</v>
+        <v>1.039972039158576</v>
       </c>
       <c r="L4">
-        <v>1.0335087364379</v>
+        <v>1.033508736437901</v>
       </c>
       <c r="M4">
         <v>1.037291758162733</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017387166766359</v>
+        <v>1.017387166766358</v>
       </c>
       <c r="D6">
-        <v>1.032547739602592</v>
+        <v>1.032547739602591</v>
       </c>
       <c r="E6">
-        <v>1.026487634602156</v>
+        <v>1.026487634602154</v>
       </c>
       <c r="F6">
-        <v>1.030421444100376</v>
+        <v>1.030421444100374</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052791116641082</v>
+        <v>1.052791116641081</v>
       </c>
       <c r="J6">
-        <v>1.035838444871509</v>
+        <v>1.035838444871507</v>
       </c>
       <c r="K6">
-        <v>1.042017304456687</v>
+        <v>1.042017304456686</v>
       </c>
       <c r="L6">
-        <v>1.03602328453546</v>
+        <v>1.036023284535459</v>
       </c>
       <c r="M6">
-        <v>1.039914087448325</v>
+        <v>1.039914087448323</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,7 +629,7 @@
         <v>1.051614964010597</v>
       </c>
       <c r="J7">
-        <v>1.033517090518239</v>
+        <v>1.03351709051824</v>
       </c>
       <c r="K7">
         <v>1.039995633934075</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001828503376478</v>
+        <v>1.001828503376477</v>
       </c>
       <c r="D8">
-        <v>1.020254836598175</v>
+        <v>1.020254836598174</v>
       </c>
       <c r="E8">
-        <v>1.011675204105928</v>
+        <v>1.011675204105926</v>
       </c>
       <c r="F8">
-        <v>1.01505014758747</v>
+        <v>1.015050147587468</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.046456020138191</v>
       </c>
       <c r="J8">
-        <v>1.02338379727415</v>
+        <v>1.023383797274148</v>
       </c>
       <c r="K8">
-        <v>1.031167258633121</v>
+        <v>1.03116725863312</v>
       </c>
       <c r="L8">
-        <v>1.022699316057204</v>
+        <v>1.022699316057202</v>
       </c>
       <c r="M8">
-        <v>1.026030042259953</v>
+        <v>1.026030042259951</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9772263274875866</v>
+        <v>0.9772263274875888</v>
       </c>
       <c r="D9">
-        <v>1.000850332090262</v>
+        <v>1.000850332090264</v>
       </c>
       <c r="E9">
-        <v>0.988310145267656</v>
+        <v>0.9883101452676584</v>
       </c>
       <c r="F9">
-        <v>0.9908448441381746</v>
+        <v>0.9908448441381768</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036294162317004</v>
+        <v>1.036294162317006</v>
       </c>
       <c r="J9">
-        <v>1.003609732829854</v>
+        <v>1.003609732829856</v>
       </c>
       <c r="K9">
-        <v>1.013929628298302</v>
+        <v>1.013929628298304</v>
       </c>
       <c r="L9">
-        <v>1.001595772929579</v>
+        <v>1.001595772929581</v>
       </c>
       <c r="M9">
-        <v>1.004088224547534</v>
+        <v>1.004088224547536</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9588347414746003</v>
+        <v>0.958834741474603</v>
       </c>
       <c r="D10">
-        <v>0.9863812305764086</v>
+        <v>0.9863812305764112</v>
       </c>
       <c r="E10">
-        <v>0.9708889982991538</v>
+        <v>0.9708889982991572</v>
       </c>
       <c r="F10">
-        <v>0.9728241537281067</v>
+        <v>0.9728241537281097</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02861233456804</v>
+        <v>1.028612334568042</v>
       </c>
       <c r="J10">
-        <v>0.9887824791500384</v>
+        <v>0.9887824791500411</v>
       </c>
       <c r="K10">
-        <v>1.001000808126283</v>
+        <v>1.001000808126286</v>
       </c>
       <c r="L10">
-        <v>0.9858045348384497</v>
+        <v>0.9858045348384529</v>
       </c>
       <c r="M10">
-        <v>0.9877020462876921</v>
+        <v>0.9877020462876952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9502689395832921</v>
+        <v>0.9502689395832926</v>
       </c>
       <c r="D11">
-        <v>0.9796553574189052</v>
+        <v>0.9796553574189056</v>
       </c>
       <c r="E11">
-        <v>0.9627886675448376</v>
+        <v>0.9627886675448379</v>
       </c>
       <c r="F11">
-        <v>0.9644516977614385</v>
+        <v>0.9644516977614391</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.025015868472108</v>
       </c>
       <c r="J11">
-        <v>0.9818676204379804</v>
+        <v>0.9818676204379808</v>
       </c>
       <c r="K11">
-        <v>0.9949714203411244</v>
+        <v>0.9949714203411247</v>
       </c>
       <c r="L11">
-        <v>0.9784481921610988</v>
+        <v>0.9784481921610994</v>
       </c>
       <c r="M11">
-        <v>0.9800766523936661</v>
+        <v>0.9800766523936668</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9469824499073991</v>
+        <v>0.9469824499073975</v>
       </c>
       <c r="D12">
-        <v>0.9770772132007444</v>
+        <v>0.9770772132007429</v>
       </c>
       <c r="E12">
-        <v>0.959683074282053</v>
+        <v>0.9596830742820517</v>
       </c>
       <c r="F12">
-        <v>0.9612427946304213</v>
+        <v>0.9612427946304203</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023633357135713</v>
+        <v>1.023633357135712</v>
       </c>
       <c r="J12">
-        <v>0.9792133593602975</v>
+        <v>0.979213359360296</v>
       </c>
       <c r="K12">
-        <v>0.9926571608105674</v>
+        <v>0.9926571608105661</v>
       </c>
       <c r="L12">
-        <v>0.9756257071957813</v>
+        <v>0.9756257071957801</v>
       </c>
       <c r="M12">
-        <v>0.9771521961360369</v>
+        <v>0.9771521961360358</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9476924212805965</v>
+        <v>0.9476924212805925</v>
       </c>
       <c r="D13">
-        <v>0.9776340459855347</v>
+        <v>0.9776340459855311</v>
       </c>
       <c r="E13">
-        <v>0.9603538581472268</v>
+        <v>0.960353858147223</v>
       </c>
       <c r="F13">
-        <v>0.9619358462762149</v>
+        <v>0.9619358462762113</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02393213277543</v>
+        <v>1.023932132775427</v>
       </c>
       <c r="J13">
-        <v>0.9797868028653396</v>
+        <v>0.9797868028653357</v>
       </c>
       <c r="K13">
-        <v>0.9931571413117666</v>
+        <v>0.993157141311763</v>
       </c>
       <c r="L13">
-        <v>0.9762354386103256</v>
+        <v>0.9762354386103218</v>
       </c>
       <c r="M13">
-        <v>0.977783898642804</v>
+        <v>0.9777838986428004</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9499995095115243</v>
+        <v>0.949999509511528</v>
       </c>
       <c r="D14">
-        <v>0.9794439467734732</v>
+        <v>0.9794439467734762</v>
       </c>
       <c r="E14">
-        <v>0.9625340192076904</v>
+        <v>0.9625340192076941</v>
       </c>
       <c r="F14">
-        <v>0.9641885576193223</v>
+        <v>0.9641885576193259</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024902580723465</v>
+        <v>1.024902580723467</v>
       </c>
       <c r="J14">
-        <v>0.9816500442172588</v>
+        <v>0.9816500442172622</v>
       </c>
       <c r="K14">
-        <v>0.9947817119436044</v>
+        <v>0.9947817119436072</v>
       </c>
       <c r="L14">
-        <v>0.9782168010507238</v>
+        <v>0.9782168010507275</v>
       </c>
       <c r="M14">
-        <v>0.9798368758790579</v>
+        <v>0.9798368758790615</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9514066141968489</v>
+        <v>0.9514066141968504</v>
       </c>
       <c r="D15">
-        <v>0.9805481439332584</v>
+        <v>0.9805481439332597</v>
       </c>
       <c r="E15">
-        <v>0.9638640209442129</v>
+        <v>0.9638640209442146</v>
       </c>
       <c r="F15">
-        <v>0.9655629525543262</v>
+        <v>0.9655629525543277</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.025494123215126</v>
       </c>
       <c r="J15">
-        <v>0.9827862936986521</v>
+        <v>0.9827862936986534</v>
       </c>
       <c r="K15">
-        <v>0.9957724323848079</v>
+        <v>0.9957724323848088</v>
       </c>
       <c r="L15">
-        <v>0.979425246333151</v>
+        <v>0.9794252463331526</v>
       </c>
       <c r="M15">
-        <v>0.9810891652356472</v>
+        <v>0.9810891652356488</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9593893921578933</v>
+        <v>0.9593893921578971</v>
       </c>
       <c r="D16">
-        <v>0.9868170446859468</v>
+        <v>0.98681704468595</v>
       </c>
       <c r="E16">
-        <v>0.971413806621011</v>
+        <v>0.9714138066210153</v>
       </c>
       <c r="F16">
-        <v>0.9733667303125768</v>
+        <v>0.9733667303125807</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028844843687884</v>
+        <v>1.028844843687886</v>
       </c>
       <c r="J16">
-        <v>0.9892300553323243</v>
+        <v>0.989230055332328</v>
       </c>
       <c r="K16">
-        <v>1.00139108070617</v>
+        <v>1.001391080706173</v>
       </c>
       <c r="L16">
-        <v>0.986280853906691</v>
+        <v>0.9862808539066951</v>
       </c>
       <c r="M16">
-        <v>0.9881959551093424</v>
+        <v>0.9881959551093462</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9642264585354502</v>
+        <v>0.9642264585354514</v>
       </c>
       <c r="D17">
-        <v>0.9906192392353744</v>
+        <v>0.9906192392353758</v>
       </c>
       <c r="E17">
-        <v>0.9759921454674518</v>
+        <v>0.9759921454674528</v>
       </c>
       <c r="F17">
-        <v>0.9781008173585308</v>
+        <v>0.9781008173585319</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030870479638678</v>
       </c>
       <c r="J17">
-        <v>0.9931323357879047</v>
+        <v>0.9931323357879058</v>
       </c>
       <c r="K17">
-        <v>1.004793770966643</v>
+        <v>1.004793770966645</v>
       </c>
       <c r="L17">
-        <v>0.9904346341255701</v>
+        <v>0.990434634125571</v>
       </c>
       <c r="M17">
-        <v>0.9925040319387354</v>
+        <v>0.9925040319387364</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,13 +1032,13 @@
         <v>0.9669908602065638</v>
       </c>
       <c r="D18">
-        <v>0.9927933797887234</v>
+        <v>0.9927933797887237</v>
       </c>
       <c r="E18">
-        <v>0.9786099085761042</v>
+        <v>0.9786099085761039</v>
       </c>
       <c r="F18">
-        <v>0.9808082452092747</v>
+        <v>0.9808082452092749</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032026401073028</v>
       </c>
       <c r="J18">
-        <v>0.9953616485942757</v>
+        <v>0.9953616485942756</v>
       </c>
       <c r="K18">
         <v>1.006737679282607</v>
       </c>
       <c r="L18">
-        <v>0.9928083683498695</v>
+        <v>0.9928083683498693</v>
       </c>
       <c r="M18">
-        <v>0.9949666857572222</v>
+        <v>0.9949666857572225</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1070,13 +1070,13 @@
         <v>0.9679241682252633</v>
       </c>
       <c r="D19">
-        <v>0.9935275929586617</v>
+        <v>0.993527592958662</v>
       </c>
       <c r="E19">
-        <v>0.9794939095771419</v>
+        <v>0.9794939095771423</v>
       </c>
       <c r="F19">
-        <v>0.9817226286806033</v>
+        <v>0.9817226286806032</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032416360211709</v>
       </c>
       <c r="J19">
-        <v>0.9961141521855886</v>
+        <v>0.9961141521855887</v>
       </c>
       <c r="K19">
         <v>1.007393842781384</v>
       </c>
       <c r="L19">
-        <v>0.9936097467929166</v>
+        <v>0.9936097467929168</v>
       </c>
       <c r="M19">
-        <v>0.9957982089148686</v>
+        <v>0.9957982089148685</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9637134735135139</v>
+        <v>0.9637134735135126</v>
       </c>
       <c r="D20">
-        <v>0.990215880359241</v>
+        <v>0.9902158803592399</v>
       </c>
       <c r="E20">
-        <v>0.9755064697661913</v>
+        <v>0.9755064697661897</v>
       </c>
       <c r="F20">
-        <v>0.9775985557307373</v>
+        <v>0.9775985557307361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030655835017597</v>
+        <v>1.030655835017596</v>
       </c>
       <c r="J20">
-        <v>0.9927185756028218</v>
+        <v>0.9927185756028207</v>
       </c>
       <c r="K20">
-        <v>1.00443298149776</v>
+        <v>1.004432981497759</v>
       </c>
       <c r="L20">
-        <v>0.9899941296561063</v>
+        <v>0.989994129656105</v>
       </c>
       <c r="M20">
-        <v>0.9920470865619431</v>
+        <v>0.9920470865619418</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9493231536686583</v>
+        <v>0.9493231536686585</v>
       </c>
       <c r="D21">
-        <v>0.9789132785758216</v>
+        <v>0.9789132785758219</v>
       </c>
       <c r="E21">
-        <v>0.9618948082595487</v>
+        <v>0.9618948082595494</v>
       </c>
       <c r="F21">
-        <v>0.9635280472190509</v>
+        <v>0.9635280472190514</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.0246181505958</v>
       </c>
       <c r="J21">
-        <v>0.9811038396247278</v>
+        <v>0.9811038396247282</v>
       </c>
       <c r="K21">
-        <v>0.9943054690890126</v>
+        <v>0.9943054690890132</v>
       </c>
       <c r="L21">
-        <v>0.977635935426504</v>
+        <v>0.9776359354265045</v>
       </c>
       <c r="M21">
-        <v>0.9792349805253866</v>
+        <v>0.9792349805253869</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396594060853217</v>
+        <v>0.9396594060853198</v>
       </c>
       <c r="D22">
-        <v>0.9713375838532353</v>
+        <v>0.9713375838532337</v>
       </c>
       <c r="E22">
-        <v>0.9527677577176239</v>
+        <v>0.952767757717622</v>
       </c>
       <c r="F22">
-        <v>0.9540993565230006</v>
+        <v>0.9540993565229983</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.020548142835288</v>
       </c>
       <c r="J22">
-        <v>0.9732970710336581</v>
+        <v>0.9732970710336564</v>
       </c>
       <c r="K22">
-        <v>0.9874990659588595</v>
+        <v>0.9874990659588579</v>
       </c>
       <c r="L22">
-        <v>0.9693367854531582</v>
+        <v>0.9693367854531562</v>
       </c>
       <c r="M22">
-        <v>0.9706384563721775</v>
+        <v>0.9706384563721754</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448464622950935</v>
+        <v>0.9448464622950931</v>
       </c>
       <c r="D23">
-        <v>0.9754023446498427</v>
+        <v>0.9754023446498425</v>
       </c>
       <c r="E23">
-        <v>0.9576653475972081</v>
+        <v>0.9576653475972076</v>
       </c>
       <c r="F23">
-        <v>0.9591582376951328</v>
+        <v>0.9591582376951329</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>1.022734103337074</v>
       </c>
       <c r="J23">
-        <v>0.9774879633090513</v>
+        <v>0.9774879633090511</v>
       </c>
       <c r="K23">
-        <v>0.9911528280201518</v>
+        <v>0.9911528280201516</v>
       </c>
       <c r="L23">
-        <v>0.9737913108171834</v>
+        <v>0.9737913108171831</v>
       </c>
       <c r="M23">
         <v>0.9752518871761667</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9639454443929359</v>
+        <v>0.9639454443929358</v>
       </c>
       <c r="D24">
-        <v>0.9903982748770682</v>
+        <v>0.990398274877068</v>
       </c>
       <c r="E24">
-        <v>0.9757260876224878</v>
+        <v>0.9757260876224881</v>
       </c>
       <c r="F24">
-        <v>0.9778256716760076</v>
+        <v>0.9778256716760075</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030752902345251</v>
       </c>
       <c r="J24">
-        <v>0.9929056798719089</v>
+        <v>0.992905679871909</v>
       </c>
       <c r="K24">
         <v>1.004596132159414</v>
       </c>
       <c r="L24">
-        <v>0.9901933254984943</v>
+        <v>0.9901933254984946</v>
       </c>
       <c r="M24">
-        <v>0.9922537146540931</v>
+        <v>0.9922537146540928</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,19 +1292,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9839000830091669</v>
+        <v>0.9839000830091666</v>
       </c>
       <c r="D25">
         <v>1.00610914704308</v>
       </c>
       <c r="E25">
-        <v>0.9946414291792519</v>
+        <v>0.9946414291792517</v>
       </c>
       <c r="F25">
-        <v>0.997399382111641</v>
+        <v>0.9973993821116408</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.018613360882325</v>
       </c>
       <c r="L25">
-        <v>1.007323503541729</v>
+        <v>1.007323503541728</v>
       </c>
       <c r="M25">
-        <v>1.010038203919084</v>
+        <v>1.010038203919083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9984280369821303</v>
+        <v>0.9984280369821316</v>
       </c>
       <c r="D2">
-        <v>1.017570005390163</v>
+        <v>1.017570005390164</v>
       </c>
       <c r="E2">
-        <v>1.008441579097406</v>
+        <v>1.008441579097408</v>
       </c>
       <c r="F2">
-        <v>1.011697426186896</v>
+        <v>1.011697426186897</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045060978717427</v>
+        <v>1.045060978717428</v>
       </c>
       <c r="J2">
-        <v>1.020655867066398</v>
+        <v>1.020655867066399</v>
       </c>
       <c r="K2">
         <v>1.028789870889901</v>
       </c>
       <c r="L2">
-        <v>1.019784548839271</v>
+        <v>1.019784548839273</v>
       </c>
       <c r="M2">
-        <v>1.022996167637617</v>
+        <v>1.022996167637618</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008317016818473</v>
+        <v>1.008317016818472</v>
       </c>
       <c r="D3">
-        <v>1.025379845110139</v>
+        <v>1.025379845110138</v>
       </c>
       <c r="E3">
-        <v>1.017849078219532</v>
+        <v>1.017849078219531</v>
       </c>
       <c r="F3">
-        <v>1.021454203688364</v>
+        <v>1.021454203688363</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049108019561422</v>
+        <v>1.049108019561421</v>
       </c>
       <c r="J3">
         <v>1.028583491097274</v>
       </c>
       <c r="K3">
-        <v>1.035697966807681</v>
+        <v>1.03569796680768</v>
       </c>
       <c r="L3">
-        <v>1.028258559091858</v>
+        <v>1.028258559091857</v>
       </c>
       <c r="M3">
-        <v>1.031819740330589</v>
+        <v>1.031819740330588</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,10 +503,10 @@
         <v>1.030225217387517</v>
       </c>
       <c r="E4">
-        <v>1.023688040098391</v>
+        <v>1.02368804009839</v>
       </c>
       <c r="F4">
-        <v>1.027514443356892</v>
+        <v>1.027514443356891</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,10 +518,10 @@
         <v>1.033490000293546</v>
       </c>
       <c r="K4">
-        <v>1.039972039158576</v>
+        <v>1.039972039158575</v>
       </c>
       <c r="L4">
-        <v>1.033508736437901</v>
+        <v>1.0335087364379</v>
       </c>
       <c r="M4">
         <v>1.037291758162733</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017387166766358</v>
+        <v>1.017387166766359</v>
       </c>
       <c r="D6">
-        <v>1.032547739602591</v>
+        <v>1.032547739602592</v>
       </c>
       <c r="E6">
-        <v>1.026487634602154</v>
+        <v>1.026487634602156</v>
       </c>
       <c r="F6">
-        <v>1.030421444100374</v>
+        <v>1.030421444100376</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052791116641081</v>
+        <v>1.052791116641082</v>
       </c>
       <c r="J6">
-        <v>1.035838444871507</v>
+        <v>1.035838444871509</v>
       </c>
       <c r="K6">
-        <v>1.042017304456686</v>
+        <v>1.042017304456687</v>
       </c>
       <c r="L6">
-        <v>1.036023284535459</v>
+        <v>1.03602328453546</v>
       </c>
       <c r="M6">
-        <v>1.039914087448323</v>
+        <v>1.039914087448325</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,7 +629,7 @@
         <v>1.051614964010597</v>
       </c>
       <c r="J7">
-        <v>1.03351709051824</v>
+        <v>1.033517090518239</v>
       </c>
       <c r="K7">
         <v>1.039995633934075</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001828503376477</v>
+        <v>1.001828503376478</v>
       </c>
       <c r="D8">
-        <v>1.020254836598174</v>
+        <v>1.020254836598175</v>
       </c>
       <c r="E8">
-        <v>1.011675204105926</v>
+        <v>1.011675204105928</v>
       </c>
       <c r="F8">
-        <v>1.015050147587468</v>
+        <v>1.01505014758747</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.046456020138191</v>
       </c>
       <c r="J8">
-        <v>1.023383797274148</v>
+        <v>1.02338379727415</v>
       </c>
       <c r="K8">
-        <v>1.03116725863312</v>
+        <v>1.031167258633121</v>
       </c>
       <c r="L8">
-        <v>1.022699316057202</v>
+        <v>1.022699316057204</v>
       </c>
       <c r="M8">
-        <v>1.026030042259951</v>
+        <v>1.026030042259953</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9772263274875888</v>
+        <v>0.9772263274875866</v>
       </c>
       <c r="D9">
-        <v>1.000850332090264</v>
+        <v>1.000850332090262</v>
       </c>
       <c r="E9">
-        <v>0.9883101452676584</v>
+        <v>0.988310145267656</v>
       </c>
       <c r="F9">
-        <v>0.9908448441381768</v>
+        <v>0.9908448441381746</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036294162317006</v>
+        <v>1.036294162317004</v>
       </c>
       <c r="J9">
-        <v>1.003609732829856</v>
+        <v>1.003609732829854</v>
       </c>
       <c r="K9">
-        <v>1.013929628298304</v>
+        <v>1.013929628298302</v>
       </c>
       <c r="L9">
-        <v>1.001595772929581</v>
+        <v>1.001595772929579</v>
       </c>
       <c r="M9">
-        <v>1.004088224547536</v>
+        <v>1.004088224547534</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.958834741474603</v>
+        <v>0.9588347414746003</v>
       </c>
       <c r="D10">
-        <v>0.9863812305764112</v>
+        <v>0.9863812305764086</v>
       </c>
       <c r="E10">
-        <v>0.9708889982991572</v>
+        <v>0.9708889982991538</v>
       </c>
       <c r="F10">
-        <v>0.9728241537281097</v>
+        <v>0.9728241537281067</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028612334568042</v>
+        <v>1.02861233456804</v>
       </c>
       <c r="J10">
-        <v>0.9887824791500411</v>
+        <v>0.9887824791500384</v>
       </c>
       <c r="K10">
-        <v>1.001000808126286</v>
+        <v>1.001000808126283</v>
       </c>
       <c r="L10">
-        <v>0.9858045348384529</v>
+        <v>0.9858045348384497</v>
       </c>
       <c r="M10">
-        <v>0.9877020462876952</v>
+        <v>0.9877020462876921</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9502689395832926</v>
+        <v>0.9502689395832921</v>
       </c>
       <c r="D11">
-        <v>0.9796553574189056</v>
+        <v>0.9796553574189052</v>
       </c>
       <c r="E11">
-        <v>0.9627886675448379</v>
+        <v>0.9627886675448376</v>
       </c>
       <c r="F11">
-        <v>0.9644516977614391</v>
+        <v>0.9644516977614385</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.025015868472108</v>
       </c>
       <c r="J11">
-        <v>0.9818676204379808</v>
+        <v>0.9818676204379804</v>
       </c>
       <c r="K11">
-        <v>0.9949714203411247</v>
+        <v>0.9949714203411244</v>
       </c>
       <c r="L11">
-        <v>0.9784481921610994</v>
+        <v>0.9784481921610988</v>
       </c>
       <c r="M11">
-        <v>0.9800766523936668</v>
+        <v>0.9800766523936661</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9469824499073975</v>
+        <v>0.9469824499073991</v>
       </c>
       <c r="D12">
-        <v>0.9770772132007429</v>
+        <v>0.9770772132007444</v>
       </c>
       <c r="E12">
-        <v>0.9596830742820517</v>
+        <v>0.959683074282053</v>
       </c>
       <c r="F12">
-        <v>0.9612427946304203</v>
+        <v>0.9612427946304213</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023633357135712</v>
+        <v>1.023633357135713</v>
       </c>
       <c r="J12">
-        <v>0.979213359360296</v>
+        <v>0.9792133593602975</v>
       </c>
       <c r="K12">
-        <v>0.9926571608105661</v>
+        <v>0.9926571608105674</v>
       </c>
       <c r="L12">
-        <v>0.9756257071957801</v>
+        <v>0.9756257071957813</v>
       </c>
       <c r="M12">
-        <v>0.9771521961360358</v>
+        <v>0.9771521961360369</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9476924212805925</v>
+        <v>0.9476924212805965</v>
       </c>
       <c r="D13">
-        <v>0.9776340459855311</v>
+        <v>0.9776340459855347</v>
       </c>
       <c r="E13">
-        <v>0.960353858147223</v>
+        <v>0.9603538581472268</v>
       </c>
       <c r="F13">
-        <v>0.9619358462762113</v>
+        <v>0.9619358462762149</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023932132775427</v>
+        <v>1.02393213277543</v>
       </c>
       <c r="J13">
-        <v>0.9797868028653357</v>
+        <v>0.9797868028653396</v>
       </c>
       <c r="K13">
-        <v>0.993157141311763</v>
+        <v>0.9931571413117666</v>
       </c>
       <c r="L13">
-        <v>0.9762354386103218</v>
+        <v>0.9762354386103256</v>
       </c>
       <c r="M13">
-        <v>0.9777838986428004</v>
+        <v>0.977783898642804</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.949999509511528</v>
+        <v>0.9499995095115243</v>
       </c>
       <c r="D14">
-        <v>0.9794439467734762</v>
+        <v>0.9794439467734732</v>
       </c>
       <c r="E14">
-        <v>0.9625340192076941</v>
+        <v>0.9625340192076904</v>
       </c>
       <c r="F14">
-        <v>0.9641885576193259</v>
+        <v>0.9641885576193223</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024902580723467</v>
+        <v>1.024902580723465</v>
       </c>
       <c r="J14">
-        <v>0.9816500442172622</v>
+        <v>0.9816500442172588</v>
       </c>
       <c r="K14">
-        <v>0.9947817119436072</v>
+        <v>0.9947817119436044</v>
       </c>
       <c r="L14">
-        <v>0.9782168010507275</v>
+        <v>0.9782168010507238</v>
       </c>
       <c r="M14">
-        <v>0.9798368758790615</v>
+        <v>0.9798368758790579</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9514066141968504</v>
+        <v>0.9514066141968489</v>
       </c>
       <c r="D15">
-        <v>0.9805481439332597</v>
+        <v>0.9805481439332584</v>
       </c>
       <c r="E15">
-        <v>0.9638640209442146</v>
+        <v>0.9638640209442129</v>
       </c>
       <c r="F15">
-        <v>0.9655629525543277</v>
+        <v>0.9655629525543262</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.025494123215126</v>
       </c>
       <c r="J15">
-        <v>0.9827862936986534</v>
+        <v>0.9827862936986521</v>
       </c>
       <c r="K15">
-        <v>0.9957724323848088</v>
+        <v>0.9957724323848079</v>
       </c>
       <c r="L15">
-        <v>0.9794252463331526</v>
+        <v>0.979425246333151</v>
       </c>
       <c r="M15">
-        <v>0.9810891652356488</v>
+        <v>0.9810891652356472</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9593893921578971</v>
+        <v>0.9593893921578933</v>
       </c>
       <c r="D16">
-        <v>0.98681704468595</v>
+        <v>0.9868170446859468</v>
       </c>
       <c r="E16">
-        <v>0.9714138066210153</v>
+        <v>0.971413806621011</v>
       </c>
       <c r="F16">
-        <v>0.9733667303125807</v>
+        <v>0.9733667303125768</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028844843687886</v>
+        <v>1.028844843687884</v>
       </c>
       <c r="J16">
-        <v>0.989230055332328</v>
+        <v>0.9892300553323243</v>
       </c>
       <c r="K16">
-        <v>1.001391080706173</v>
+        <v>1.00139108070617</v>
       </c>
       <c r="L16">
-        <v>0.9862808539066951</v>
+        <v>0.986280853906691</v>
       </c>
       <c r="M16">
-        <v>0.9881959551093462</v>
+        <v>0.9881959551093424</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9642264585354514</v>
+        <v>0.9642264585354502</v>
       </c>
       <c r="D17">
-        <v>0.9906192392353758</v>
+        <v>0.9906192392353744</v>
       </c>
       <c r="E17">
-        <v>0.9759921454674528</v>
+        <v>0.9759921454674518</v>
       </c>
       <c r="F17">
-        <v>0.9781008173585319</v>
+        <v>0.9781008173585308</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030870479638678</v>
       </c>
       <c r="J17">
-        <v>0.9931323357879058</v>
+        <v>0.9931323357879047</v>
       </c>
       <c r="K17">
-        <v>1.004793770966645</v>
+        <v>1.004793770966643</v>
       </c>
       <c r="L17">
-        <v>0.990434634125571</v>
+        <v>0.9904346341255701</v>
       </c>
       <c r="M17">
-        <v>0.9925040319387364</v>
+        <v>0.9925040319387354</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,13 +1032,13 @@
         <v>0.9669908602065638</v>
       </c>
       <c r="D18">
-        <v>0.9927933797887237</v>
+        <v>0.9927933797887234</v>
       </c>
       <c r="E18">
-        <v>0.9786099085761039</v>
+        <v>0.9786099085761042</v>
       </c>
       <c r="F18">
-        <v>0.9808082452092749</v>
+        <v>0.9808082452092747</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032026401073028</v>
       </c>
       <c r="J18">
-        <v>0.9953616485942756</v>
+        <v>0.9953616485942757</v>
       </c>
       <c r="K18">
         <v>1.006737679282607</v>
       </c>
       <c r="L18">
-        <v>0.9928083683498693</v>
+        <v>0.9928083683498695</v>
       </c>
       <c r="M18">
-        <v>0.9949666857572225</v>
+        <v>0.9949666857572222</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1070,13 +1070,13 @@
         <v>0.9679241682252633</v>
       </c>
       <c r="D19">
-        <v>0.993527592958662</v>
+        <v>0.9935275929586617</v>
       </c>
       <c r="E19">
-        <v>0.9794939095771423</v>
+        <v>0.9794939095771419</v>
       </c>
       <c r="F19">
-        <v>0.9817226286806032</v>
+        <v>0.9817226286806033</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032416360211709</v>
       </c>
       <c r="J19">
-        <v>0.9961141521855887</v>
+        <v>0.9961141521855886</v>
       </c>
       <c r="K19">
         <v>1.007393842781384</v>
       </c>
       <c r="L19">
-        <v>0.9936097467929168</v>
+        <v>0.9936097467929166</v>
       </c>
       <c r="M19">
-        <v>0.9957982089148685</v>
+        <v>0.9957982089148686</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9637134735135126</v>
+        <v>0.9637134735135139</v>
       </c>
       <c r="D20">
-        <v>0.9902158803592399</v>
+        <v>0.990215880359241</v>
       </c>
       <c r="E20">
-        <v>0.9755064697661897</v>
+        <v>0.9755064697661913</v>
       </c>
       <c r="F20">
-        <v>0.9775985557307361</v>
+        <v>0.9775985557307373</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030655835017596</v>
+        <v>1.030655835017597</v>
       </c>
       <c r="J20">
-        <v>0.9927185756028207</v>
+        <v>0.9927185756028218</v>
       </c>
       <c r="K20">
-        <v>1.004432981497759</v>
+        <v>1.00443298149776</v>
       </c>
       <c r="L20">
-        <v>0.989994129656105</v>
+        <v>0.9899941296561063</v>
       </c>
       <c r="M20">
-        <v>0.9920470865619418</v>
+        <v>0.9920470865619431</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9493231536686585</v>
+        <v>0.9493231536686583</v>
       </c>
       <c r="D21">
-        <v>0.9789132785758219</v>
+        <v>0.9789132785758216</v>
       </c>
       <c r="E21">
-        <v>0.9618948082595494</v>
+        <v>0.9618948082595487</v>
       </c>
       <c r="F21">
-        <v>0.9635280472190514</v>
+        <v>0.9635280472190509</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.0246181505958</v>
       </c>
       <c r="J21">
-        <v>0.9811038396247282</v>
+        <v>0.9811038396247278</v>
       </c>
       <c r="K21">
-        <v>0.9943054690890132</v>
+        <v>0.9943054690890126</v>
       </c>
       <c r="L21">
-        <v>0.9776359354265045</v>
+        <v>0.977635935426504</v>
       </c>
       <c r="M21">
-        <v>0.9792349805253869</v>
+        <v>0.9792349805253866</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396594060853198</v>
+        <v>0.9396594060853217</v>
       </c>
       <c r="D22">
-        <v>0.9713375838532337</v>
+        <v>0.9713375838532353</v>
       </c>
       <c r="E22">
-        <v>0.952767757717622</v>
+        <v>0.9527677577176239</v>
       </c>
       <c r="F22">
-        <v>0.9540993565229983</v>
+        <v>0.9540993565230006</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.020548142835288</v>
       </c>
       <c r="J22">
-        <v>0.9732970710336564</v>
+        <v>0.9732970710336581</v>
       </c>
       <c r="K22">
-        <v>0.9874990659588579</v>
+        <v>0.9874990659588595</v>
       </c>
       <c r="L22">
-        <v>0.9693367854531562</v>
+        <v>0.9693367854531582</v>
       </c>
       <c r="M22">
-        <v>0.9706384563721754</v>
+        <v>0.9706384563721775</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448464622950931</v>
+        <v>0.9448464622950935</v>
       </c>
       <c r="D23">
-        <v>0.9754023446498425</v>
+        <v>0.9754023446498427</v>
       </c>
       <c r="E23">
-        <v>0.9576653475972076</v>
+        <v>0.9576653475972081</v>
       </c>
       <c r="F23">
-        <v>0.9591582376951329</v>
+        <v>0.9591582376951328</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>1.022734103337074</v>
       </c>
       <c r="J23">
-        <v>0.9774879633090511</v>
+        <v>0.9774879633090513</v>
       </c>
       <c r="K23">
-        <v>0.9911528280201516</v>
+        <v>0.9911528280201518</v>
       </c>
       <c r="L23">
-        <v>0.9737913108171831</v>
+        <v>0.9737913108171834</v>
       </c>
       <c r="M23">
         <v>0.9752518871761667</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9639454443929358</v>
+        <v>0.9639454443929359</v>
       </c>
       <c r="D24">
-        <v>0.990398274877068</v>
+        <v>0.9903982748770682</v>
       </c>
       <c r="E24">
-        <v>0.9757260876224881</v>
+        <v>0.9757260876224878</v>
       </c>
       <c r="F24">
-        <v>0.9778256716760075</v>
+        <v>0.9778256716760076</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030752902345251</v>
       </c>
       <c r="J24">
-        <v>0.992905679871909</v>
+        <v>0.9929056798719089</v>
       </c>
       <c r="K24">
         <v>1.004596132159414</v>
       </c>
       <c r="L24">
-        <v>0.9901933254984946</v>
+        <v>0.9901933254984943</v>
       </c>
       <c r="M24">
-        <v>0.9922537146540928</v>
+        <v>0.9922537146540931</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,19 +1292,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9839000830091666</v>
+        <v>0.9839000830091669</v>
       </c>
       <c r="D25">
         <v>1.00610914704308</v>
       </c>
       <c r="E25">
-        <v>0.9946414291792517</v>
+        <v>0.9946414291792519</v>
       </c>
       <c r="F25">
-        <v>0.9973993821116408</v>
+        <v>0.997399382111641</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.018613360882325</v>
       </c>
       <c r="L25">
-        <v>1.007323503541728</v>
+        <v>1.007323503541729</v>
       </c>
       <c r="M25">
-        <v>1.010038203919083</v>
+        <v>1.010038203919084</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9984280369821316</v>
+        <v>0.998489418820924</v>
       </c>
       <c r="D2">
-        <v>1.017570005390164</v>
+        <v>1.017620519066896</v>
       </c>
       <c r="E2">
-        <v>1.008441579097408</v>
+        <v>1.008502074021565</v>
       </c>
       <c r="F2">
-        <v>1.011697426186897</v>
+        <v>1.01175300864574</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045060978717428</v>
+        <v>1.045090569029196</v>
       </c>
       <c r="J2">
-        <v>1.020655867066399</v>
+        <v>1.020715405176648</v>
       </c>
       <c r="K2">
-        <v>1.028789870889901</v>
+        <v>1.028839711064667</v>
       </c>
       <c r="L2">
-        <v>1.019784548839273</v>
+        <v>1.019844218706652</v>
       </c>
       <c r="M2">
-        <v>1.022996167637618</v>
+        <v>1.023050998157782</v>
+      </c>
+      <c r="N2">
+        <v>1.008764015288082</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008317016818472</v>
+        <v>1.008363957018335</v>
       </c>
       <c r="D3">
-        <v>1.025379845110138</v>
+        <v>1.025418537966723</v>
       </c>
       <c r="E3">
-        <v>1.017849078219531</v>
+        <v>1.017895391609531</v>
       </c>
       <c r="F3">
-        <v>1.021454203688363</v>
+        <v>1.021496673202887</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049108019561421</v>
+        <v>1.049130710668234</v>
       </c>
       <c r="J3">
-        <v>1.028583491097274</v>
+        <v>1.02862918024654</v>
       </c>
       <c r="K3">
-        <v>1.03569796680768</v>
+        <v>1.03573619456381</v>
       </c>
       <c r="L3">
-        <v>1.028258559091857</v>
+        <v>1.028304305496297</v>
       </c>
       <c r="M3">
-        <v>1.031819740330588</v>
+        <v>1.031861694464705</v>
+      </c>
+      <c r="N3">
+        <v>1.015124118401928</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014448811788621</v>
+        <v>1.014487160651961</v>
       </c>
       <c r="D4">
-        <v>1.030225217387517</v>
+        <v>1.030256859443073</v>
       </c>
       <c r="E4">
-        <v>1.02368804009839</v>
+        <v>1.023725901621197</v>
       </c>
       <c r="F4">
-        <v>1.027514443356891</v>
+        <v>1.027549121745078</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051601224982313</v>
+        <v>1.051619794362018</v>
       </c>
       <c r="J4">
-        <v>1.033490000293546</v>
+        <v>1.033527405488883</v>
       </c>
       <c r="K4">
-        <v>1.039972039158575</v>
+        <v>1.040003326444644</v>
       </c>
       <c r="L4">
-        <v>1.0335087364379</v>
+        <v>1.033546166749562</v>
       </c>
       <c r="M4">
-        <v>1.037291758162733</v>
+        <v>1.037326045207919</v>
+      </c>
+      <c r="N4">
+        <v>1.019041563786155</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01696758433657</v>
+        <v>1.017002480005945</v>
       </c>
       <c r="D5">
-        <v>1.032216072935706</v>
+        <v>1.032244877079776</v>
       </c>
       <c r="E5">
-        <v>1.026087804082352</v>
+        <v>1.026122265281056</v>
       </c>
       <c r="F5">
-        <v>1.030006220332991</v>
+        <v>1.030037769312365</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052621407300253</v>
+        <v>1.052638316224571</v>
       </c>
       <c r="J5">
-        <v>1.03550321334351</v>
+        <v>1.035537279208824</v>
       </c>
       <c r="K5">
-        <v>1.041725370859718</v>
+        <v>1.041753861582487</v>
       </c>
       <c r="L5">
-        <v>1.035664276153034</v>
+        <v>1.035698356853164</v>
       </c>
       <c r="M5">
-        <v>1.039539628090659</v>
+        <v>1.039570831972045</v>
+      </c>
+      <c r="N5">
+        <v>1.020644409117176</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017387166766359</v>
+        <v>1.017421491366492</v>
       </c>
       <c r="D6">
-        <v>1.032547739602592</v>
+        <v>1.03257607421256</v>
       </c>
       <c r="E6">
-        <v>1.026487634602156</v>
+        <v>1.026521533299584</v>
       </c>
       <c r="F6">
-        <v>1.030421444100376</v>
+        <v>1.030452475677546</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052791116641082</v>
+        <v>1.052807750757143</v>
       </c>
       <c r="J6">
-        <v>1.035838444871509</v>
+        <v>1.035871957957952</v>
       </c>
       <c r="K6">
-        <v>1.042017304456687</v>
+        <v>1.042045332314096</v>
       </c>
       <c r="L6">
-        <v>1.03602328453546</v>
+        <v>1.036056810904081</v>
       </c>
       <c r="M6">
-        <v>1.039914087448325</v>
+        <v>1.039944781373011</v>
+      </c>
+      <c r="N6">
+        <v>1.020911040620024</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014482693690569</v>
+        <v>1.014520995814919</v>
       </c>
       <c r="D7">
-        <v>1.030251996052969</v>
+        <v>1.030283599712396</v>
       </c>
       <c r="E7">
-        <v>1.023720316165671</v>
+        <v>1.02375813167725</v>
       </c>
       <c r="F7">
-        <v>1.027547952735905</v>
+        <v>1.027582588759186</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051614964010597</v>
+        <v>1.051633510930629</v>
       </c>
       <c r="J7">
-        <v>1.033517090518239</v>
+        <v>1.033554450553033</v>
       </c>
       <c r="K7">
-        <v>1.039995633934075</v>
+        <v>1.040026883395306</v>
       </c>
       <c r="L7">
-        <v>1.033537736628611</v>
+        <v>1.033575121630383</v>
       </c>
       <c r="M7">
-        <v>1.037321995599129</v>
+        <v>1.037356240919287</v>
+      </c>
+      <c r="N7">
+        <v>1.019063150045058</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001828503376478</v>
+        <v>1.001884834232909</v>
       </c>
       <c r="D8">
-        <v>1.020254836598175</v>
+        <v>1.020301220371795</v>
       </c>
       <c r="E8">
-        <v>1.011675204105928</v>
+        <v>1.011730742689176</v>
       </c>
       <c r="F8">
-        <v>1.01505014758747</v>
+        <v>1.015101141508536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046456020138191</v>
+        <v>1.046483201525295</v>
       </c>
       <c r="J8">
-        <v>1.02338379727415</v>
+        <v>1.023438502379595</v>
       </c>
       <c r="K8">
-        <v>1.031167258633121</v>
+        <v>1.031213044966708</v>
       </c>
       <c r="L8">
-        <v>1.022699316057204</v>
+        <v>1.022754124001268</v>
       </c>
       <c r="M8">
-        <v>1.026030042259953</v>
+        <v>1.026080370901569</v>
+      </c>
+      <c r="N8">
+        <v>1.010956581452355</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9772263274875866</v>
+        <v>0.9773214346905781</v>
       </c>
       <c r="D9">
-        <v>1.000850332090262</v>
+        <v>1.00092829990587</v>
       </c>
       <c r="E9">
-        <v>0.988310145267656</v>
+        <v>0.9884036326469351</v>
       </c>
       <c r="F9">
-        <v>0.9908448441381746</v>
+        <v>0.9909311215354625</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036294162317004</v>
+        <v>1.036339730142745</v>
       </c>
       <c r="J9">
-        <v>1.003609732829854</v>
+        <v>1.003701257597629</v>
       </c>
       <c r="K9">
-        <v>1.013929628298302</v>
+        <v>1.014006334024901</v>
       </c>
       <c r="L9">
-        <v>1.001595772929579</v>
+        <v>1.001687697142725</v>
       </c>
       <c r="M9">
-        <v>1.004088224547534</v>
+        <v>1.004173068808635</v>
+      </c>
+      <c r="N9">
+        <v>0.9949792017123413</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9588347414746003</v>
+        <v>0.9589627279071063</v>
       </c>
       <c r="D10">
-        <v>0.9863812305764086</v>
+        <v>0.9864857655800218</v>
       </c>
       <c r="E10">
-        <v>0.9708889982991538</v>
+        <v>0.9710144840627846</v>
       </c>
       <c r="F10">
-        <v>0.9728241537281067</v>
+        <v>0.9729404398190757</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02861233456804</v>
+        <v>1.028673312547254</v>
       </c>
       <c r="J10">
-        <v>0.9887824791500384</v>
+        <v>0.9889047429040054</v>
       </c>
       <c r="K10">
-        <v>1.001000808126283</v>
+        <v>1.001103387337631</v>
       </c>
       <c r="L10">
-        <v>0.9858045348384497</v>
+        <v>0.9859275735996088</v>
       </c>
       <c r="M10">
-        <v>0.9877020462876921</v>
+        <v>0.9878160765531266</v>
+      </c>
+      <c r="N10">
+        <v>0.9828897633972125</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9502689395832921</v>
+        <v>0.9504136031069126</v>
       </c>
       <c r="D11">
-        <v>0.9796553574189052</v>
+        <v>0.9797732957469053</v>
       </c>
       <c r="E11">
-        <v>0.9627886675448376</v>
+        <v>0.9629303228355777</v>
       </c>
       <c r="F11">
-        <v>0.9644516977614385</v>
+        <v>0.9645832317417109</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025015868472108</v>
+        <v>1.02508460488096</v>
       </c>
       <c r="J11">
-        <v>0.9818676204379804</v>
+        <v>0.9820053204947351</v>
       </c>
       <c r="K11">
-        <v>0.9949714203411244</v>
+        <v>0.9950870117786095</v>
       </c>
       <c r="L11">
-        <v>0.9784481921610988</v>
+        <v>0.9785868966664304</v>
       </c>
       <c r="M11">
-        <v>0.9800766523936661</v>
+        <v>0.9802054588501836</v>
+      </c>
+      <c r="N11">
+        <v>0.9772258699782165</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9469824499073991</v>
+        <v>0.947133769213373</v>
       </c>
       <c r="D12">
-        <v>0.9770772132007444</v>
+        <v>0.9772004875851339</v>
       </c>
       <c r="E12">
-        <v>0.959683074282053</v>
+        <v>0.9598311716860409</v>
       </c>
       <c r="F12">
-        <v>0.9612427946304213</v>
+        <v>0.9613804184845219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023633357135713</v>
+        <v>1.023705179588922</v>
       </c>
       <c r="J12">
-        <v>0.9792133593602975</v>
+        <v>0.9793571924241657</v>
       </c>
       <c r="K12">
-        <v>0.9926571608105674</v>
+        <v>0.9927779255229201</v>
       </c>
       <c r="L12">
-        <v>0.9756257071957813</v>
+        <v>0.9757706430864533</v>
       </c>
       <c r="M12">
-        <v>0.9771521961360369</v>
+        <v>0.9772868946323522</v>
+      </c>
+      <c r="N12">
+        <v>0.9750479356698856</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9476924212805965</v>
+        <v>0.9478422901565543</v>
       </c>
       <c r="D13">
-        <v>0.9776340459855347</v>
+        <v>0.9777561581677635</v>
       </c>
       <c r="E13">
-        <v>0.9603538581472268</v>
+        <v>0.9605005522172029</v>
       </c>
       <c r="F13">
-        <v>0.9619358462762149</v>
+        <v>0.9620721428151287</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02393213277543</v>
+        <v>1.024003283208687</v>
       </c>
       <c r="J13">
-        <v>0.9797868028653396</v>
+        <v>0.9799293007340565</v>
       </c>
       <c r="K13">
-        <v>0.9931571413117666</v>
+        <v>0.9932767796089338</v>
       </c>
       <c r="L13">
-        <v>0.9762354386103256</v>
+        <v>0.9763790175454315</v>
       </c>
       <c r="M13">
-        <v>0.977783898642804</v>
+        <v>0.9779173133900947</v>
+      </c>
+      <c r="N13">
+        <v>0.9755186434292121</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9499995095115243</v>
+        <v>0.9501447131341063</v>
       </c>
       <c r="D14">
-        <v>0.9794439467734732</v>
+        <v>0.9795623183857661</v>
       </c>
       <c r="E14">
-        <v>0.9625340192076904</v>
+        <v>0.962676197492594</v>
       </c>
       <c r="F14">
-        <v>0.9641885576193223</v>
+        <v>0.9643205856846478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024902580723465</v>
+        <v>1.024971567772637</v>
       </c>
       <c r="J14">
-        <v>0.9816500442172588</v>
+        <v>0.9817882425276531</v>
       </c>
       <c r="K14">
-        <v>0.9947817119436044</v>
+        <v>0.9948977235943706</v>
       </c>
       <c r="L14">
-        <v>0.9782168010507238</v>
+        <v>0.978356011651193</v>
       </c>
       <c r="M14">
-        <v>0.9798368758790579</v>
+        <v>0.9799661605666672</v>
+      </c>
+      <c r="N14">
+        <v>0.9770474169883353</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9514066141968489</v>
+        <v>0.9515490078842265</v>
       </c>
       <c r="D15">
-        <v>0.9805481439332584</v>
+        <v>0.9806642607889259</v>
       </c>
       <c r="E15">
-        <v>0.9638640209442129</v>
+        <v>0.9640034778299552</v>
       </c>
       <c r="F15">
-        <v>0.9655629525543262</v>
+        <v>0.9656924102586668</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025494123215126</v>
+        <v>1.025561805854688</v>
       </c>
       <c r="J15">
-        <v>0.9827862936986521</v>
+        <v>0.9829218986563492</v>
       </c>
       <c r="K15">
-        <v>0.9957724323848079</v>
+        <v>0.9958862570115334</v>
       </c>
       <c r="L15">
-        <v>0.979425246333151</v>
+        <v>0.9795618230611415</v>
       </c>
       <c r="M15">
-        <v>0.9810891652356472</v>
+        <v>0.9812159616548922</v>
+      </c>
+      <c r="N15">
+        <v>0.9779791974789569</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9593893921578933</v>
+        <v>0.9595163305810833</v>
       </c>
       <c r="D16">
-        <v>0.9868170446859468</v>
+        <v>0.9869207358113021</v>
       </c>
       <c r="E16">
-        <v>0.971413806621011</v>
+        <v>0.9715382749258883</v>
       </c>
       <c r="F16">
-        <v>0.9733667303125768</v>
+        <v>0.973482058770796</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028844843687884</v>
+        <v>1.028905332854246</v>
       </c>
       <c r="J16">
-        <v>0.9892300553323243</v>
+        <v>0.9893513456694742</v>
       </c>
       <c r="K16">
-        <v>1.00139108070617</v>
+        <v>1.001492839781824</v>
       </c>
       <c r="L16">
-        <v>0.986280853906691</v>
+        <v>0.986402905672851</v>
       </c>
       <c r="M16">
-        <v>0.9881959551093424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9883090562055941</v>
+      </c>
+      <c r="N16">
+        <v>0.98325584265201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9642264585354502</v>
+        <v>0.9643444132322679</v>
       </c>
       <c r="D17">
-        <v>0.9906192392353744</v>
+        <v>0.990715688631052</v>
       </c>
       <c r="E17">
-        <v>0.9759921454674518</v>
+        <v>0.9761078853153486</v>
       </c>
       <c r="F17">
-        <v>0.9781008173585308</v>
+        <v>0.9782079397026265</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030870479638678</v>
+        <v>1.030926772327137</v>
       </c>
       <c r="J17">
-        <v>0.9931323357879047</v>
+        <v>0.9932452649821609</v>
       </c>
       <c r="K17">
-        <v>1.004793770966643</v>
+        <v>1.004888487602338</v>
       </c>
       <c r="L17">
-        <v>0.9904346341255701</v>
+        <v>0.9905482125712758</v>
       </c>
       <c r="M17">
-        <v>0.9925040319387354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9926091650202443</v>
+      </c>
+      <c r="N17">
+        <v>0.9864447093710955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9669908602065638</v>
+        <v>0.9671038025554691</v>
       </c>
       <c r="D18">
-        <v>0.9927933797887234</v>
+        <v>0.9928857826030844</v>
       </c>
       <c r="E18">
-        <v>0.9786099085761042</v>
+        <v>0.9787207733139406</v>
       </c>
       <c r="F18">
-        <v>0.9808082452092747</v>
+        <v>0.9809107913812968</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032026401073028</v>
+        <v>1.032080347430824</v>
       </c>
       <c r="J18">
-        <v>0.9953616485942757</v>
+        <v>0.9954698995020949</v>
       </c>
       <c r="K18">
-        <v>1.006737679282607</v>
+        <v>1.006828457145224</v>
       </c>
       <c r="L18">
-        <v>0.9928083683498695</v>
+        <v>0.9929172092671881</v>
       </c>
       <c r="M18">
-        <v>0.9949666857572222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9950673708418974</v>
+      </c>
+      <c r="N18">
+        <v>0.9882640738046128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9679241682252633</v>
+        <v>0.968035437721647</v>
       </c>
       <c r="D19">
-        <v>0.9935275929586617</v>
+        <v>0.993618644252804</v>
       </c>
       <c r="E19">
-        <v>0.9794939095771419</v>
+        <v>0.9796031464324882</v>
       </c>
       <c r="F19">
-        <v>0.9817226286806033</v>
+        <v>0.9818236479534358</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032416360211709</v>
+        <v>1.032469522687331</v>
       </c>
       <c r="J19">
-        <v>0.9961141521855886</v>
+        <v>0.996220839579969</v>
       </c>
       <c r="K19">
-        <v>1.007393842781384</v>
+        <v>1.007483304550627</v>
       </c>
       <c r="L19">
-        <v>0.9936097467929166</v>
+        <v>0.9937170049690607</v>
       </c>
       <c r="M19">
-        <v>0.9957982089148686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9958974091206162</v>
+      </c>
+      <c r="N19">
+        <v>0.9888777941584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9637134735135139</v>
+        <v>0.9638323679396895</v>
       </c>
       <c r="D20">
-        <v>0.990215880359241</v>
+        <v>0.9903130879268227</v>
       </c>
       <c r="E20">
-        <v>0.9755064697661913</v>
+        <v>0.9756231231986727</v>
       </c>
       <c r="F20">
-        <v>0.9775985557307373</v>
+        <v>0.9777065362164841</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030655835017597</v>
+        <v>1.030712567204139</v>
       </c>
       <c r="J20">
-        <v>0.9927185756028218</v>
+        <v>0.9928323808268725</v>
       </c>
       <c r="K20">
-        <v>1.00443298149776</v>
+        <v>1.004528435819767</v>
       </c>
       <c r="L20">
-        <v>0.9899941296561063</v>
+        <v>0.9901085955079533</v>
       </c>
       <c r="M20">
-        <v>0.9920470865619431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9921530533787446</v>
+      </c>
+      <c r="N20">
+        <v>0.98610684132557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9493231536686583</v>
+        <v>0.9494697174405988</v>
       </c>
       <c r="D21">
-        <v>0.9789132785758216</v>
+        <v>0.9790327411247308</v>
       </c>
       <c r="E21">
-        <v>0.9618948082595487</v>
+        <v>0.9620383034347221</v>
       </c>
       <c r="F21">
-        <v>0.9635280472190509</v>
+        <v>0.9636613196280227</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0246181505958</v>
+        <v>1.024687768671094</v>
       </c>
       <c r="J21">
-        <v>0.9811038396247278</v>
+        <v>0.9812432922507377</v>
       </c>
       <c r="K21">
-        <v>0.9943054690890126</v>
+        <v>0.9944225386501599</v>
       </c>
       <c r="L21">
-        <v>0.977635935426504</v>
+        <v>0.9777764202015995</v>
       </c>
       <c r="M21">
-        <v>0.9792349805253866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9793654694739261</v>
+      </c>
+      <c r="N21">
+        <v>0.9765993659506956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396594060853217</v>
+        <v>0.9398261082971229</v>
       </c>
       <c r="D22">
-        <v>0.9713375838532353</v>
+        <v>0.9714731628402363</v>
       </c>
       <c r="E22">
-        <v>0.9527677577176239</v>
+        <v>0.9529307204874456</v>
       </c>
       <c r="F22">
-        <v>0.9540993565230006</v>
+        <v>0.954251064373735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020548142835288</v>
+        <v>1.020627076044216</v>
       </c>
       <c r="J22">
-        <v>0.9732970710336581</v>
+        <v>0.9734550208606471</v>
       </c>
       <c r="K22">
-        <v>0.9874990659588595</v>
+        <v>0.9876317453620961</v>
       </c>
       <c r="L22">
-        <v>0.9693367854531582</v>
+        <v>0.9694960796219729</v>
       </c>
       <c r="M22">
-        <v>0.9706384563721775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9707867616281782</v>
+      </c>
+      <c r="N22">
+        <v>0.9701862594490989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448464622950935</v>
+        <v>0.9450021880589276</v>
       </c>
       <c r="D23">
-        <v>0.9754023446498427</v>
+        <v>0.9755291476962044</v>
       </c>
       <c r="E23">
-        <v>0.9576653475972081</v>
+        <v>0.9578177065688613</v>
       </c>
       <c r="F23">
-        <v>0.9591582376951328</v>
+        <v>0.9592998946749747</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022734103337074</v>
+        <v>1.022807965747127</v>
       </c>
       <c r="J23">
-        <v>0.9774879633090513</v>
+        <v>0.9776358483099494</v>
       </c>
       <c r="K23">
-        <v>0.9911528280201518</v>
+        <v>0.9912770116203325</v>
       </c>
       <c r="L23">
-        <v>0.9737913108171834</v>
+        <v>0.9739403658382616</v>
       </c>
       <c r="M23">
-        <v>0.9752518871761667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9753904849100897</v>
+      </c>
+      <c r="N23">
+        <v>0.9736310923142041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9639454443929359</v>
+        <v>0.9640639134989647</v>
       </c>
       <c r="D24">
-        <v>0.9903982748770682</v>
+        <v>0.9904951393163685</v>
       </c>
       <c r="E24">
-        <v>0.9757260876224878</v>
+        <v>0.9758423275841032</v>
       </c>
       <c r="F24">
-        <v>0.9778256716760076</v>
+        <v>0.9779332637608215</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030752902345251</v>
+        <v>1.030809435631111</v>
       </c>
       <c r="J24">
-        <v>0.9929056798719089</v>
+        <v>0.9930190886477248</v>
       </c>
       <c r="K24">
-        <v>1.004596132159414</v>
+        <v>1.004691252635483</v>
       </c>
       <c r="L24">
-        <v>0.9901933254984943</v>
+        <v>0.9903073897427205</v>
       </c>
       <c r="M24">
-        <v>0.9922537146540931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9923593041308471</v>
+      </c>
+      <c r="N24">
+        <v>0.9862596342579364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9839000830091669</v>
+        <v>0.9839841334910104</v>
       </c>
       <c r="D25">
-        <v>1.00610914704308</v>
+        <v>1.006178137178815</v>
       </c>
       <c r="E25">
-        <v>0.9946414291792519</v>
+        <v>0.9947241193986578</v>
       </c>
       <c r="F25">
-        <v>0.997399382111641</v>
+        <v>0.99747558587476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039065371807054</v>
+        <v>1.039105721365275</v>
       </c>
       <c r="J25">
-        <v>1.008981692925911</v>
+        <v>1.009062784009224</v>
       </c>
       <c r="K25">
-        <v>1.018613360882325</v>
+        <v>1.018681296652284</v>
       </c>
       <c r="L25">
-        <v>1.007323503541729</v>
+        <v>1.00740489247986</v>
       </c>
       <c r="M25">
-        <v>1.010038203919084</v>
+        <v>1.010113216932151</v>
+      </c>
+      <c r="N25">
+        <v>0.9993378810448483</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.998489418820924</v>
+        <v>1.04911480495703</v>
       </c>
       <c r="D2">
-        <v>1.017620519066896</v>
+        <v>1.065014261415197</v>
       </c>
       <c r="E2">
-        <v>1.008502074021565</v>
+        <v>1.066971762391987</v>
       </c>
       <c r="F2">
-        <v>1.01175300864574</v>
+        <v>1.073992868061109</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045090569029196</v>
+        <v>1.071984082049489</v>
       </c>
       <c r="J2">
-        <v>1.020715405176648</v>
+        <v>1.069919563618753</v>
       </c>
       <c r="K2">
-        <v>1.028839711064667</v>
+        <v>1.075636481318093</v>
       </c>
       <c r="L2">
-        <v>1.019844218706652</v>
+        <v>1.077570739394523</v>
       </c>
       <c r="M2">
-        <v>1.023050998157782</v>
+        <v>1.084509340174949</v>
       </c>
       <c r="N2">
-        <v>1.008764015288082</v>
+        <v>1.071438972120581</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008363957018335</v>
+        <v>1.05900799434633</v>
       </c>
       <c r="D3">
-        <v>1.025418537966723</v>
+        <v>1.073038309097303</v>
       </c>
       <c r="E3">
-        <v>1.017895391609531</v>
+        <v>1.07623943293195</v>
       </c>
       <c r="F3">
-        <v>1.021496673202887</v>
+        <v>1.082872863115053</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049130710668234</v>
+        <v>1.075819064106428</v>
       </c>
       <c r="J3">
-        <v>1.02862918024654</v>
+        <v>1.078009807855432</v>
       </c>
       <c r="K3">
-        <v>1.03573619456381</v>
+        <v>1.082814756816022</v>
       </c>
       <c r="L3">
-        <v>1.028304305496297</v>
+        <v>1.085981604394066</v>
       </c>
       <c r="M3">
-        <v>1.031861694464705</v>
+        <v>1.092544795387457</v>
       </c>
       <c r="N3">
-        <v>1.015124118401928</v>
+        <v>1.07954070543204</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014487160651961</v>
+        <v>1.065165500269741</v>
       </c>
       <c r="D4">
-        <v>1.030256859443073</v>
+        <v>1.078034797086193</v>
       </c>
       <c r="E4">
-        <v>1.023725901621197</v>
+        <v>1.082012800283994</v>
       </c>
       <c r="F4">
-        <v>1.027549121745078</v>
+        <v>1.088405580564038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051619794362018</v>
+        <v>1.078190389506702</v>
       </c>
       <c r="J4">
-        <v>1.033527405488883</v>
+        <v>1.083037382946738</v>
       </c>
       <c r="K4">
-        <v>1.040003326444644</v>
+        <v>1.087274514516031</v>
       </c>
       <c r="L4">
-        <v>1.033546166749562</v>
+        <v>1.091212779807695</v>
       </c>
       <c r="M4">
-        <v>1.037326045207919</v>
+        <v>1.097542438315493</v>
       </c>
       <c r="N4">
-        <v>1.019041563786155</v>
+        <v>1.084575420256647</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017002480005945</v>
+        <v>1.067699895279243</v>
       </c>
       <c r="D5">
-        <v>1.032244877079776</v>
+        <v>1.080091751895458</v>
       </c>
       <c r="E5">
-        <v>1.026122265281056</v>
+        <v>1.084390234592392</v>
       </c>
       <c r="F5">
-        <v>1.030037769312365</v>
+        <v>1.090684089466859</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052638316224571</v>
+        <v>1.079162615917222</v>
       </c>
       <c r="J5">
-        <v>1.035537279208824</v>
+        <v>1.085104783506884</v>
       </c>
       <c r="K5">
-        <v>1.041753861582487</v>
+        <v>1.089108126154856</v>
       </c>
       <c r="L5">
-        <v>1.035698356853164</v>
+        <v>1.093364933014586</v>
       </c>
       <c r="M5">
-        <v>1.039570831972045</v>
+        <v>1.099598482715487</v>
       </c>
       <c r="N5">
-        <v>1.020644409117176</v>
+        <v>1.086645756762722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017421491366492</v>
+        <v>1.068122365340442</v>
       </c>
       <c r="D6">
-        <v>1.03257607421256</v>
+        <v>1.080434656834615</v>
       </c>
       <c r="E6">
-        <v>1.026521533299584</v>
+        <v>1.084786605133502</v>
       </c>
       <c r="F6">
-        <v>1.030452475677546</v>
+        <v>1.091063976230527</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052807750757143</v>
+        <v>1.079324455607744</v>
       </c>
       <c r="J6">
-        <v>1.035871957957952</v>
+        <v>1.085449293565669</v>
       </c>
       <c r="K6">
-        <v>1.042045332314096</v>
+        <v>1.089413659456228</v>
       </c>
       <c r="L6">
-        <v>1.036056810904081</v>
+        <v>1.093723626374912</v>
       </c>
       <c r="M6">
-        <v>1.039944781373011</v>
+        <v>1.099941155470228</v>
       </c>
       <c r="N6">
-        <v>1.020911040620024</v>
+        <v>1.086990756065307</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014520995814919</v>
+        <v>1.06519957282309</v>
       </c>
       <c r="D7">
-        <v>1.030283599712396</v>
+        <v>1.078062449372928</v>
       </c>
       <c r="E7">
-        <v>1.02375813167725</v>
+        <v>1.082044758213684</v>
       </c>
       <c r="F7">
-        <v>1.027582588759186</v>
+        <v>1.088436208076133</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051633510930629</v>
+        <v>1.078203475314447</v>
       </c>
       <c r="J7">
-        <v>1.033554450553033</v>
+        <v>1.083065184885441</v>
       </c>
       <c r="K7">
-        <v>1.040026883395306</v>
+        <v>1.087299173729794</v>
       </c>
       <c r="L7">
-        <v>1.033575121630383</v>
+        <v>1.091241717415552</v>
       </c>
       <c r="M7">
-        <v>1.037356240919287</v>
+        <v>1.097570083805986</v>
       </c>
       <c r="N7">
-        <v>1.019063150045058</v>
+        <v>1.084603261677291</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001884834232909</v>
+        <v>1.052511476186321</v>
       </c>
       <c r="D8">
-        <v>1.020301220371795</v>
+        <v>1.067768611209613</v>
       </c>
       <c r="E8">
-        <v>1.011730742689176</v>
+        <v>1.070152508860218</v>
       </c>
       <c r="F8">
-        <v>1.015101141508536</v>
+        <v>1.0770403580997</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046483201525295</v>
+        <v>1.073304025753605</v>
       </c>
       <c r="J8">
-        <v>1.023438502379595</v>
+        <v>1.072698838486169</v>
       </c>
       <c r="K8">
-        <v>1.031213044966708</v>
+        <v>1.078102672309173</v>
       </c>
       <c r="L8">
-        <v>1.022754124001268</v>
+        <v>1.080459222796681</v>
       </c>
       <c r="M8">
-        <v>1.026080370901569</v>
+        <v>1.087268895349722</v>
       </c>
       <c r="N8">
-        <v>1.010956581452355</v>
+        <v>1.074222193877096</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9773214346905781</v>
+        <v>1.028065372849106</v>
       </c>
       <c r="D9">
-        <v>1.00092829990587</v>
+        <v>1.047962037913667</v>
       </c>
       <c r="E9">
-        <v>0.9884036326469351</v>
+        <v>1.047287949267654</v>
       </c>
       <c r="F9">
-        <v>0.9909311215354625</v>
+        <v>1.055139051469506</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036339730142745</v>
+        <v>1.063738754541488</v>
       </c>
       <c r="J9">
-        <v>1.003701257597629</v>
+        <v>1.052664561984951</v>
       </c>
       <c r="K9">
-        <v>1.014006334024901</v>
+        <v>1.060322103013384</v>
       </c>
       <c r="L9">
-        <v>1.001687697142725</v>
+        <v>1.059657727048473</v>
       </c>
       <c r="M9">
-        <v>1.004173068808635</v>
+        <v>1.067396678639877</v>
       </c>
       <c r="N9">
-        <v>0.9949792017123413</v>
+        <v>1.054159466405282</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9589627279071063</v>
+        <v>1.009998304688597</v>
       </c>
       <c r="D10">
-        <v>0.9864857655800218</v>
+        <v>1.033354169637835</v>
       </c>
       <c r="E10">
-        <v>0.9710144840627846</v>
+        <v>1.030431781464817</v>
       </c>
       <c r="F10">
-        <v>0.9729404398190757</v>
+        <v>1.039002075580317</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028673312547254</v>
+        <v>1.056588567437259</v>
       </c>
       <c r="J10">
-        <v>0.9889047429040054</v>
+        <v>1.037820774339858</v>
       </c>
       <c r="K10">
-        <v>1.001103387337631</v>
+        <v>1.047146232753449</v>
       </c>
       <c r="L10">
-        <v>0.9859275735996088</v>
+        <v>1.044272491704219</v>
       </c>
       <c r="M10">
-        <v>0.9878160765531266</v>
+        <v>1.052701118495609</v>
       </c>
       <c r="N10">
-        <v>0.9828897633972125</v>
+        <v>1.039294598879128</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9504136031069126</v>
+        <v>1.001650710999186</v>
       </c>
       <c r="D11">
-        <v>0.9797732957469053</v>
+        <v>1.026615421425668</v>
       </c>
       <c r="E11">
-        <v>0.9629303228355777</v>
+        <v>1.022656170351923</v>
       </c>
       <c r="F11">
-        <v>0.9645832317417109</v>
+        <v>1.031561204038587</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02508460488096</v>
+        <v>1.053267170463071</v>
       </c>
       <c r="J11">
-        <v>0.9820053204947351</v>
+        <v>1.030954979337021</v>
       </c>
       <c r="K11">
-        <v>0.9950870117786095</v>
+        <v>1.04105227861234</v>
       </c>
       <c r="L11">
-        <v>0.9785868966664304</v>
+        <v>1.037163109155907</v>
       </c>
       <c r="M11">
-        <v>0.9802054588501836</v>
+        <v>1.045911495601898</v>
       </c>
       <c r="N11">
-        <v>0.9772258699782165</v>
+        <v>1.032419053659869</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.947133769213373</v>
+        <v>0.9984600626860279</v>
       </c>
       <c r="D12">
-        <v>0.9772004875851339</v>
+        <v>1.024041648250851</v>
       </c>
       <c r="E12">
-        <v>0.9598311716860409</v>
+        <v>1.019686284860873</v>
       </c>
       <c r="F12">
-        <v>0.9613804184845219</v>
+        <v>1.028719704774517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023705179588922</v>
+        <v>1.051995139059996</v>
       </c>
       <c r="J12">
-        <v>0.9793571924241657</v>
+        <v>1.028329738716849</v>
       </c>
       <c r="K12">
-        <v>0.9927779255229201</v>
+        <v>1.038722301424143</v>
       </c>
       <c r="L12">
-        <v>0.9757706430864533</v>
+        <v>1.034445801693878</v>
       </c>
       <c r="M12">
-        <v>0.9772868946323522</v>
+        <v>1.043316616624109</v>
       </c>
       <c r="N12">
-        <v>0.9750479356698856</v>
+        <v>1.029790084896896</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9478422901565543</v>
+        <v>0.99914874477737</v>
       </c>
       <c r="D13">
-        <v>0.9777561581677635</v>
+        <v>1.02459708812548</v>
       </c>
       <c r="E13">
-        <v>0.9605005522172029</v>
+        <v>1.020327215678077</v>
       </c>
       <c r="F13">
-        <v>0.9620721428151287</v>
+        <v>1.02933290303973</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024003283208687</v>
+        <v>1.052269809849725</v>
       </c>
       <c r="J13">
-        <v>0.9799293007340565</v>
+        <v>1.028896421995066</v>
       </c>
       <c r="K13">
-        <v>0.9932767796089338</v>
+        <v>1.039225241558241</v>
       </c>
       <c r="L13">
-        <v>0.9763790175454315</v>
+        <v>1.035032309388413</v>
       </c>
       <c r="M13">
-        <v>0.9779173133900947</v>
+        <v>1.043876688712231</v>
       </c>
       <c r="N13">
-        <v>0.9755186434292121</v>
+        <v>1.030357572930368</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501447131341063</v>
+        <v>1.001388879677049</v>
       </c>
       <c r="D14">
-        <v>0.9795623183857661</v>
+        <v>1.026404170841444</v>
       </c>
       <c r="E14">
-        <v>0.962676197492594</v>
+        <v>1.022412410446104</v>
       </c>
       <c r="F14">
-        <v>0.9643205856846478</v>
+        <v>1.031327970406556</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024971567772637</v>
+        <v>1.053162834720604</v>
       </c>
       <c r="J14">
-        <v>0.9817882425276531</v>
+        <v>1.030739565212786</v>
       </c>
       <c r="K14">
-        <v>0.9948977235943706</v>
+        <v>1.040861089009437</v>
       </c>
       <c r="L14">
-        <v>0.978356011651193</v>
+        <v>1.036940118541158</v>
       </c>
       <c r="M14">
-        <v>0.9799661605666672</v>
+        <v>1.045698547239788</v>
       </c>
       <c r="N14">
-        <v>0.9770474169883353</v>
+        <v>1.032203333622869</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9515490078842265</v>
+        <v>1.002756803065408</v>
       </c>
       <c r="D15">
-        <v>0.9806642607889259</v>
+        <v>1.027507918513023</v>
       </c>
       <c r="E15">
-        <v>0.9640034778299552</v>
+        <v>1.023686008872661</v>
       </c>
       <c r="F15">
-        <v>0.9656924102586668</v>
+        <v>1.032546593197453</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025561805854688</v>
+        <v>1.053707830299536</v>
       </c>
       <c r="J15">
-        <v>0.9829218986563492</v>
+        <v>1.031864946169258</v>
       </c>
       <c r="K15">
-        <v>0.9958862570115334</v>
+        <v>1.041859920718908</v>
       </c>
       <c r="L15">
-        <v>0.9795618230611415</v>
+        <v>1.038105124785275</v>
       </c>
       <c r="M15">
-        <v>0.9812159616548922</v>
+        <v>1.04681109700374</v>
       </c>
       <c r="N15">
-        <v>0.9779791974789569</v>
+        <v>1.033330312749381</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9595163305810833</v>
+        <v>1.01054035377231</v>
       </c>
       <c r="D16">
-        <v>0.9869207358113021</v>
+        <v>1.033791993225144</v>
       </c>
       <c r="E16">
-        <v>0.9715382749258883</v>
+        <v>1.030936966002218</v>
       </c>
       <c r="F16">
-        <v>0.973482058770796</v>
+        <v>1.039485579906024</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028905332854246</v>
+        <v>1.05680388943789</v>
       </c>
       <c r="J16">
-        <v>0.9893513456694742</v>
+        <v>1.038266461945389</v>
       </c>
       <c r="K16">
-        <v>1.001492839781824</v>
+        <v>1.047541831096015</v>
       </c>
       <c r="L16">
-        <v>0.986402905672851</v>
+        <v>1.044734135512884</v>
       </c>
       <c r="M16">
-        <v>0.9883090562055941</v>
+        <v>1.053142024869936</v>
       </c>
       <c r="N16">
-        <v>0.98325584265201</v>
+        <v>1.039740919412179</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9643444132322679</v>
+        <v>1.015275149538007</v>
       </c>
       <c r="D17">
-        <v>0.990715688631052</v>
+        <v>1.037617594678141</v>
       </c>
       <c r="E17">
-        <v>0.9761078853153486</v>
+        <v>1.035351170961001</v>
       </c>
       <c r="F17">
-        <v>0.9782079397026265</v>
+        <v>1.043710688859278</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030926772327137</v>
+        <v>1.058682759364037</v>
       </c>
       <c r="J17">
-        <v>0.9932452649821609</v>
+        <v>1.04215872274907</v>
       </c>
       <c r="K17">
-        <v>1.004888487602338</v>
+        <v>1.050996703925691</v>
       </c>
       <c r="L17">
-        <v>0.9905482125712758</v>
+        <v>1.048766512647362</v>
       </c>
       <c r="M17">
-        <v>0.9926091650202443</v>
+        <v>1.056993388404803</v>
       </c>
       <c r="N17">
-        <v>0.9864447093710955</v>
+        <v>1.043638707672649</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9671038025554691</v>
+        <v>1.017987139146689</v>
       </c>
       <c r="D18">
-        <v>0.9928857826030844</v>
+        <v>1.03980977366935</v>
       </c>
       <c r="E18">
-        <v>0.9787207733139406</v>
+        <v>1.037880674447059</v>
       </c>
       <c r="F18">
-        <v>0.9809107913812968</v>
+        <v>1.046132104137799</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032080347430824</v>
+        <v>1.059757276528531</v>
       </c>
       <c r="J18">
-        <v>0.9954698995020949</v>
+        <v>1.044387423025496</v>
       </c>
       <c r="K18">
-        <v>1.006828457145224</v>
+        <v>1.052974985017643</v>
       </c>
       <c r="L18">
-        <v>0.9929172092671881</v>
+        <v>1.051076075318651</v>
       </c>
       <c r="M18">
-        <v>0.9950673708418974</v>
+        <v>1.059199369985236</v>
       </c>
       <c r="N18">
-        <v>0.9882640738046128</v>
+        <v>1.045870572959104</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.968035437721647</v>
+        <v>1.018903725252408</v>
       </c>
       <c r="D19">
-        <v>0.993618644252804</v>
+        <v>1.040550829565231</v>
       </c>
       <c r="E19">
-        <v>0.9796031464324882</v>
+        <v>1.03873577150213</v>
       </c>
       <c r="F19">
-        <v>0.9818236479534358</v>
+        <v>1.046950705733314</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032469522687331</v>
+        <v>1.060120151453528</v>
       </c>
       <c r="J19">
-        <v>0.996220839579969</v>
+        <v>1.045140545912253</v>
       </c>
       <c r="K19">
-        <v>1.007483304550627</v>
+        <v>1.053643488770839</v>
       </c>
       <c r="L19">
-        <v>0.9937170049690607</v>
+        <v>1.05185662931803</v>
       </c>
       <c r="M19">
-        <v>0.9958974091206162</v>
+        <v>1.059944931874663</v>
       </c>
       <c r="N19">
-        <v>0.9888777941584</v>
+        <v>1.046624765366745</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9638323679396895</v>
+        <v>1.014772368919436</v>
       </c>
       <c r="D20">
-        <v>0.9903130879268227</v>
+        <v>1.037211258138176</v>
       </c>
       <c r="E20">
-        <v>0.9756231231986727</v>
+        <v>1.034882312829948</v>
       </c>
       <c r="F20">
-        <v>0.9777065362164841</v>
+        <v>1.043261886951585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030712567204139</v>
+        <v>1.058483416907049</v>
       </c>
       <c r="J20">
-        <v>0.9928323808268725</v>
+        <v>1.041745481907543</v>
       </c>
       <c r="K20">
-        <v>1.004528435819767</v>
+        <v>1.050629897028723</v>
       </c>
       <c r="L20">
-        <v>0.9901085955079533</v>
+        <v>1.0483383295492</v>
       </c>
       <c r="M20">
-        <v>0.9921530533787446</v>
+        <v>1.056584416207271</v>
       </c>
       <c r="N20">
-        <v>0.98610684132557</v>
+        <v>1.043224879981728</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9494697174405988</v>
+        <v>1.00073180130793</v>
       </c>
       <c r="D21">
-        <v>0.9790327411247308</v>
+        <v>1.025874059620231</v>
       </c>
       <c r="E21">
-        <v>0.9620383034347221</v>
+        <v>1.021800718412351</v>
       </c>
       <c r="F21">
-        <v>0.9636613196280227</v>
+        <v>1.030742701905352</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024687768671094</v>
+        <v>1.052900959373059</v>
       </c>
       <c r="J21">
-        <v>0.9812432922507377</v>
+        <v>1.030198958041086</v>
       </c>
       <c r="K21">
-        <v>0.9944225386501599</v>
+        <v>1.040381278658585</v>
       </c>
       <c r="L21">
-        <v>0.9777764202015995</v>
+        <v>1.036380514631009</v>
       </c>
       <c r="M21">
-        <v>0.9793654694739261</v>
+        <v>1.04516414835286</v>
       </c>
       <c r="N21">
-        <v>0.9765993659506956</v>
+        <v>1.031661958726976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9398261082971229</v>
+        <v>0.9913759398580908</v>
       </c>
       <c r="D22">
-        <v>0.9714731628402363</v>
+        <v>1.018331191594338</v>
       </c>
       <c r="E22">
-        <v>0.9529307204874456</v>
+        <v>1.013096610275825</v>
       </c>
       <c r="F22">
-        <v>0.954251064373735</v>
+        <v>1.022415992967784</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020627076044216</v>
+        <v>1.049166415291661</v>
       </c>
       <c r="J22">
-        <v>0.9734550208606471</v>
+        <v>1.022499374447785</v>
       </c>
       <c r="K22">
-        <v>0.9876317453620961</v>
+        <v>1.033548045668606</v>
       </c>
       <c r="L22">
-        <v>0.9694960796219729</v>
+        <v>1.028413010083601</v>
       </c>
       <c r="M22">
-        <v>0.9707867616281782</v>
+        <v>1.037556090778888</v>
       </c>
       <c r="N22">
-        <v>0.9701862594490989</v>
+        <v>1.023951440841818</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9450021880589276</v>
+        <v>0.9963900958101337</v>
       </c>
       <c r="D23">
-        <v>0.9755291476962044</v>
+        <v>1.022372480791232</v>
       </c>
       <c r="E23">
-        <v>0.9578177065688613</v>
+        <v>1.017760179743989</v>
       </c>
       <c r="F23">
-        <v>0.9592998946749747</v>
+        <v>1.026877026170942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022807965747127</v>
+        <v>1.051169207864818</v>
       </c>
       <c r="J23">
-        <v>0.9776358483099494</v>
+        <v>1.026626333831391</v>
       </c>
       <c r="K23">
-        <v>0.9912770116203325</v>
+        <v>1.03721053084018</v>
       </c>
       <c r="L23">
-        <v>0.9739403658382616</v>
+        <v>1.03268296719554</v>
       </c>
       <c r="M23">
-        <v>0.9753904849100897</v>
+        <v>1.041633273723831</v>
       </c>
       <c r="N23">
-        <v>0.9736310923142041</v>
+        <v>1.028084260981118</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9640639134989647</v>
+        <v>1.014999706716494</v>
       </c>
       <c r="D24">
-        <v>0.9904951393163685</v>
+        <v>1.037394984729131</v>
       </c>
       <c r="E24">
-        <v>0.9758423275841032</v>
+        <v>1.035094308664813</v>
       </c>
       <c r="F24">
-        <v>0.9779332637608215</v>
+        <v>1.043464813458227</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030809435631111</v>
+        <v>1.058573556973506</v>
       </c>
       <c r="J24">
-        <v>0.9930190886477248</v>
+        <v>1.041932335508617</v>
       </c>
       <c r="K24">
-        <v>1.004691252635483</v>
+        <v>1.050795754680818</v>
       </c>
       <c r="L24">
-        <v>0.9903073897427205</v>
+        <v>1.048531937570486</v>
       </c>
       <c r="M24">
-        <v>0.9923593041308471</v>
+        <v>1.056769337501001</v>
       </c>
       <c r="N24">
-        <v>0.9862596342579364</v>
+        <v>1.043411998936348</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9839841334910104</v>
+        <v>1.03466668264357</v>
       </c>
       <c r="D25">
-        <v>1.006178137178815</v>
+        <v>1.053306370070073</v>
       </c>
       <c r="E25">
-        <v>0.9947241193986578</v>
+        <v>1.053455837791267</v>
       </c>
       <c r="F25">
-        <v>0.99747558587476</v>
+        <v>1.061045806130134</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039105721365275</v>
+        <v>1.066335682465046</v>
       </c>
       <c r="J25">
-        <v>1.009062784009224</v>
+        <v>1.058081161697011</v>
       </c>
       <c r="K25">
-        <v>1.018681296652284</v>
+        <v>1.065129924701396</v>
       </c>
       <c r="L25">
-        <v>1.00740489247986</v>
+        <v>1.065277358833569</v>
       </c>
       <c r="M25">
-        <v>1.010113216932151</v>
+        <v>1.072765007695568</v>
       </c>
       <c r="N25">
-        <v>0.9993378810448483</v>
+        <v>1.059583758310226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04911480495703</v>
+        <v>1.032692804586778</v>
       </c>
       <c r="D2">
-        <v>1.065014261415197</v>
+        <v>1.05001121373994</v>
       </c>
       <c r="E2">
-        <v>1.066971762391987</v>
+        <v>1.050781854068387</v>
       </c>
       <c r="F2">
-        <v>1.073992868061109</v>
+        <v>1.058336394923435</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.071984082049489</v>
+        <v>1.05933172682084</v>
       </c>
       <c r="J2">
-        <v>1.069919563618753</v>
+        <v>1.053937790821839</v>
       </c>
       <c r="K2">
-        <v>1.075636481318093</v>
+        <v>1.060815155848289</v>
       </c>
       <c r="L2">
-        <v>1.077570739394523</v>
+        <v>1.061576304628689</v>
       </c>
       <c r="M2">
-        <v>1.084509340174949</v>
+        <v>1.069038709423954</v>
       </c>
       <c r="N2">
-        <v>1.071438972120581</v>
+        <v>1.05543450337316</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05900799434633</v>
+        <v>1.037083433451186</v>
       </c>
       <c r="D3">
-        <v>1.073038309097303</v>
+        <v>1.05342970589329</v>
       </c>
       <c r="E3">
-        <v>1.07623943293195</v>
+        <v>1.05470957014865</v>
       </c>
       <c r="F3">
-        <v>1.082872863115053</v>
+        <v>1.062264236460434</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.075819064106428</v>
+        <v>1.060747933465226</v>
       </c>
       <c r="J3">
-        <v>1.078009807855432</v>
+        <v>1.056611796277419</v>
       </c>
       <c r="K3">
-        <v>1.082814756816022</v>
+        <v>1.063421710084238</v>
       </c>
       <c r="L3">
-        <v>1.085981604394066</v>
+        <v>1.064687203885102</v>
       </c>
       <c r="M3">
-        <v>1.092544795387457</v>
+        <v>1.072157912676426</v>
       </c>
       <c r="N3">
-        <v>1.07954070543204</v>
+        <v>1.0581123062232</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065165500269741</v>
+        <v>1.039870874222649</v>
       </c>
       <c r="D4">
-        <v>1.078034797086193</v>
+        <v>1.055602818955837</v>
       </c>
       <c r="E4">
-        <v>1.082012800283994</v>
+        <v>1.057208143822419</v>
       </c>
       <c r="F4">
-        <v>1.088405580564038</v>
+        <v>1.06476275524138</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.078190389506702</v>
+        <v>1.061639165743801</v>
       </c>
       <c r="J4">
-        <v>1.083037382946738</v>
+        <v>1.058306886259003</v>
       </c>
       <c r="K4">
-        <v>1.087274514516031</v>
+        <v>1.065073470338872</v>
       </c>
       <c r="L4">
-        <v>1.091212779807695</v>
+        <v>1.066661870704219</v>
       </c>
       <c r="M4">
-        <v>1.097542438315493</v>
+        <v>1.074137672209834</v>
       </c>
       <c r="N4">
-        <v>1.084575420256647</v>
+        <v>1.059809803426988</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.067699895279243</v>
+        <v>1.041030317102012</v>
       </c>
       <c r="D5">
-        <v>1.080091751895458</v>
+        <v>1.056507371174674</v>
       </c>
       <c r="E5">
-        <v>1.084390234592392</v>
+        <v>1.058248602760045</v>
       </c>
       <c r="F5">
-        <v>1.090684089466859</v>
+        <v>1.065803155761107</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.079162615917222</v>
+        <v>1.062007958811494</v>
       </c>
       <c r="J5">
-        <v>1.085104783506884</v>
+        <v>1.059011326165454</v>
       </c>
       <c r="K5">
-        <v>1.089108126154856</v>
+        <v>1.065759759975434</v>
       </c>
       <c r="L5">
-        <v>1.093364933014586</v>
+        <v>1.067483128393829</v>
       </c>
       <c r="M5">
-        <v>1.099598482715487</v>
+        <v>1.074961002344955</v>
       </c>
       <c r="N5">
-        <v>1.086645756762722</v>
+        <v>1.060515243718905</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068122365340442</v>
+        <v>1.04122427788401</v>
       </c>
       <c r="D6">
-        <v>1.080434656834615</v>
+        <v>1.05665872827998</v>
       </c>
       <c r="E6">
-        <v>1.084786605133502</v>
+        <v>1.05842272686161</v>
       </c>
       <c r="F6">
-        <v>1.091063976230527</v>
+        <v>1.065977267904378</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.079324455607744</v>
+        <v>1.062069539864023</v>
       </c>
       <c r="J6">
-        <v>1.085449293565669</v>
+        <v>1.059129132172818</v>
       </c>
       <c r="K6">
-        <v>1.089413659456228</v>
+        <v>1.065874522033851</v>
       </c>
       <c r="L6">
-        <v>1.093723626374912</v>
+        <v>1.067620507500811</v>
       </c>
       <c r="M6">
-        <v>1.099941155470228</v>
+        <v>1.075098725367801</v>
       </c>
       <c r="N6">
-        <v>1.086990756065307</v>
+        <v>1.060633217024312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.06519957282309</v>
+        <v>1.039886414909228</v>
       </c>
       <c r="D7">
-        <v>1.078062449372928</v>
+        <v>1.055614940720017</v>
       </c>
       <c r="E7">
-        <v>1.082044758213684</v>
+        <v>1.057222085116406</v>
       </c>
       <c r="F7">
-        <v>1.088436208076133</v>
+        <v>1.064776695897158</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.078203475314447</v>
+        <v>1.061644116502425</v>
       </c>
       <c r="J7">
-        <v>1.083065184885441</v>
+        <v>1.058316330829683</v>
       </c>
       <c r="K7">
-        <v>1.087299173729794</v>
+        <v>1.065082672140082</v>
       </c>
       <c r="L7">
-        <v>1.091241717415552</v>
+        <v>1.066672878973968</v>
       </c>
       <c r="M7">
-        <v>1.097570083805986</v>
+        <v>1.074148708442703</v>
       </c>
       <c r="N7">
-        <v>1.084603261677291</v>
+        <v>1.059819261410041</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052511476186321</v>
+        <v>1.03418800095796</v>
       </c>
       <c r="D8">
-        <v>1.067768611209613</v>
+        <v>1.051174734208004</v>
       </c>
       <c r="E8">
-        <v>1.070152508860218</v>
+        <v>1.052118337108954</v>
       </c>
       <c r="F8">
-        <v>1.0770403580997</v>
+        <v>1.059672946817857</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.073304025753605</v>
+        <v>1.059815633665126</v>
       </c>
       <c r="J8">
-        <v>1.072698838486169</v>
+        <v>1.054848916186939</v>
       </c>
       <c r="K8">
-        <v>1.078102672309173</v>
+        <v>1.06170341417938</v>
       </c>
       <c r="L8">
-        <v>1.080459222796681</v>
+        <v>1.062635746097802</v>
       </c>
       <c r="M8">
-        <v>1.087268895349722</v>
+        <v>1.070101014494573</v>
       </c>
       <c r="N8">
-        <v>1.074222193877096</v>
+        <v>1.056346922640786</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028065372849106</v>
+        <v>1.023715767642105</v>
       </c>
       <c r="D9">
-        <v>1.047962037913667</v>
+        <v>1.043039362885225</v>
       </c>
       <c r="E9">
-        <v>1.047287949267654</v>
+        <v>1.042780378779758</v>
       </c>
       <c r="F9">
-        <v>1.055139051469506</v>
+        <v>1.050334077991034</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063738754541488</v>
+        <v>1.056394401387275</v>
       </c>
       <c r="J9">
-        <v>1.052664561984951</v>
+        <v>1.048457986058669</v>
       </c>
       <c r="K9">
-        <v>1.060322103013384</v>
+        <v>1.055470723338675</v>
       </c>
       <c r="L9">
-        <v>1.059657727048473</v>
+        <v>1.055215513755711</v>
       </c>
       <c r="M9">
-        <v>1.067396678639877</v>
+        <v>1.062660090767537</v>
       </c>
       <c r="N9">
-        <v>1.054159466405282</v>
+        <v>1.049946916658684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009998304688597</v>
+        <v>1.016414259952146</v>
       </c>
       <c r="D10">
-        <v>1.033354169637835</v>
+        <v>1.03738681213071</v>
       </c>
       <c r="E10">
-        <v>1.030431781464817</v>
+        <v>1.036300152571725</v>
       </c>
       <c r="F10">
-        <v>1.039002075580317</v>
+        <v>1.043852836252706</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056588567437259</v>
+        <v>1.053969859342808</v>
       </c>
       <c r="J10">
-        <v>1.037820774339858</v>
+        <v>1.043991435618038</v>
       </c>
       <c r="K10">
-        <v>1.047146232753449</v>
+        <v>1.051112325213138</v>
       </c>
       <c r="L10">
-        <v>1.044272491704219</v>
+        <v>1.05004353303795</v>
       </c>
       <c r="M10">
-        <v>1.052701118495609</v>
+        <v>1.057473019301812</v>
       </c>
       <c r="N10">
-        <v>1.039294598879128</v>
+        <v>1.045474023204108</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001650710999186</v>
+        <v>1.013169433012814</v>
       </c>
       <c r="D11">
-        <v>1.026615421425668</v>
+        <v>1.034880152729287</v>
       </c>
       <c r="E11">
-        <v>1.022656170351923</v>
+        <v>1.033428097046835</v>
       </c>
       <c r="F11">
-        <v>1.031561204038587</v>
+        <v>1.040980294359231</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053267170463071</v>
+        <v>1.052883566697603</v>
       </c>
       <c r="J11">
-        <v>1.030954979337021</v>
+        <v>1.042004428454559</v>
       </c>
       <c r="K11">
-        <v>1.04105227861234</v>
+        <v>1.049172953006531</v>
       </c>
       <c r="L11">
-        <v>1.037163109155907</v>
+        <v>1.047745991242903</v>
       </c>
       <c r="M11">
-        <v>1.045911495601898</v>
+        <v>1.055168661542207</v>
       </c>
       <c r="N11">
-        <v>1.032419053659869</v>
+        <v>1.043484194262543</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9984600626860279</v>
+        <v>1.01195098881839</v>
       </c>
       <c r="D12">
-        <v>1.024041648250851</v>
+        <v>1.033939761704422</v>
       </c>
       <c r="E12">
-        <v>1.019686284860873</v>
+        <v>1.032350851342404</v>
       </c>
       <c r="F12">
-        <v>1.028719704774517</v>
+        <v>1.039902865708504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051995139059996</v>
+        <v>1.052474378039783</v>
       </c>
       <c r="J12">
-        <v>1.028329738716849</v>
+        <v>1.041258034165859</v>
       </c>
       <c r="K12">
-        <v>1.038722301424143</v>
+        <v>1.048444389256377</v>
       </c>
       <c r="L12">
-        <v>1.034445801693878</v>
+        <v>1.046883440806403</v>
       </c>
       <c r="M12">
-        <v>1.043316616624109</v>
+        <v>1.054303539521893</v>
       </c>
       <c r="N12">
-        <v>1.029790084896896</v>
+        <v>1.04273674000834</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.99914874477737</v>
+        <v>1.012212956446397</v>
       </c>
       <c r="D13">
-        <v>1.02459708812548</v>
+        <v>1.034141907125411</v>
       </c>
       <c r="E13">
-        <v>1.020327215678077</v>
+        <v>1.032582405005658</v>
       </c>
       <c r="F13">
-        <v>1.02933290303973</v>
+        <v>1.040134458637442</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052269809849725</v>
+        <v>1.052562411538965</v>
       </c>
       <c r="J13">
-        <v>1.028896421995066</v>
+        <v>1.04141852156378</v>
       </c>
       <c r="K13">
-        <v>1.039225241558241</v>
+        <v>1.048601045483806</v>
       </c>
       <c r="L13">
-        <v>1.035032309388413</v>
+        <v>1.047068881516991</v>
       </c>
       <c r="M13">
-        <v>1.043876688712231</v>
+        <v>1.054489533605932</v>
       </c>
       <c r="N13">
-        <v>1.030357572930368</v>
+        <v>1.042897455316774</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001388879677049</v>
+        <v>1.013068988732753</v>
       </c>
       <c r="D14">
-        <v>1.026404170841444</v>
+        <v>1.034802612148155</v>
       </c>
       <c r="E14">
-        <v>1.022412410446104</v>
+        <v>1.03333926753903</v>
       </c>
       <c r="F14">
-        <v>1.031327970406556</v>
+        <v>1.040891449746893</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053162834720604</v>
+        <v>1.05284986042605</v>
       </c>
       <c r="J14">
-        <v>1.030739565212786</v>
+        <v>1.041942903477021</v>
       </c>
       <c r="K14">
-        <v>1.040861089009437</v>
+        <v>1.049112899019852</v>
       </c>
       <c r="L14">
-        <v>1.036940118541158</v>
+        <v>1.047674881560901</v>
       </c>
       <c r="M14">
-        <v>1.045698547239788</v>
+        <v>1.055097340089635</v>
       </c>
       <c r="N14">
-        <v>1.032203333622869</v>
+        <v>1.043422581912479</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002756803065408</v>
+        <v>1.013594652496039</v>
       </c>
       <c r="D15">
-        <v>1.027507918513023</v>
+        <v>1.035208447795605</v>
       </c>
       <c r="E15">
-        <v>1.023686008872661</v>
+        <v>1.033804196823229</v>
       </c>
       <c r="F15">
-        <v>1.032546593197453</v>
+        <v>1.041356458096301</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053707830299536</v>
+        <v>1.053026206369996</v>
       </c>
       <c r="J15">
-        <v>1.031864946169258</v>
+        <v>1.042264876889202</v>
       </c>
       <c r="K15">
-        <v>1.041859920718908</v>
+        <v>1.04942717190921</v>
       </c>
       <c r="L15">
-        <v>1.038105124785275</v>
+        <v>1.048047033851092</v>
       </c>
       <c r="M15">
-        <v>1.04681109700374</v>
+        <v>1.055470600187208</v>
       </c>
       <c r="N15">
-        <v>1.033330312749381</v>
+        <v>1.043745012563837</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01054035377231</v>
+        <v>1.016627798987386</v>
       </c>
       <c r="D16">
-        <v>1.033791993225144</v>
+        <v>1.037551890117447</v>
       </c>
       <c r="E16">
-        <v>1.030936966002218</v>
+        <v>1.036489326557862</v>
       </c>
       <c r="F16">
-        <v>1.039485579906024</v>
+        <v>1.044042041928253</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05680388943789</v>
+        <v>1.054041167006663</v>
       </c>
       <c r="J16">
-        <v>1.038266461945389</v>
+        <v>1.044122159476649</v>
       </c>
       <c r="K16">
-        <v>1.047541831096015</v>
+        <v>1.051239905977781</v>
       </c>
       <c r="L16">
-        <v>1.044734135512884</v>
+        <v>1.050194755128141</v>
       </c>
       <c r="M16">
-        <v>1.053142024869936</v>
+        <v>1.057624688018075</v>
       </c>
       <c r="N16">
-        <v>1.039740919412179</v>
+        <v>1.045604932705591</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015275149538007</v>
+        <v>1.018507672145237</v>
       </c>
       <c r="D17">
-        <v>1.037617594678141</v>
+        <v>1.039005758927425</v>
       </c>
       <c r="E17">
-        <v>1.035351170961001</v>
+        <v>1.038155597650755</v>
       </c>
       <c r="F17">
-        <v>1.043710688859278</v>
+        <v>1.045708588580188</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058682759364037</v>
+        <v>1.054667918763268</v>
       </c>
       <c r="J17">
-        <v>1.04215872274907</v>
+        <v>1.045272747505173</v>
       </c>
       <c r="K17">
-        <v>1.050996703925691</v>
+        <v>1.052362776133701</v>
       </c>
       <c r="L17">
-        <v>1.048766512647362</v>
+        <v>1.05152613582589</v>
       </c>
       <c r="M17">
-        <v>1.056993388404803</v>
+        <v>1.058959988570122</v>
       </c>
       <c r="N17">
-        <v>1.043638707672649</v>
+        <v>1.046757154701091</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017987139146689</v>
+        <v>1.019596187563574</v>
       </c>
       <c r="D18">
-        <v>1.03980977366935</v>
+        <v>1.039848107387308</v>
       </c>
       <c r="E18">
-        <v>1.037880674447059</v>
+        <v>1.039121166171606</v>
       </c>
       <c r="F18">
-        <v>1.046132104137799</v>
+        <v>1.046674312989817</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059757276528531</v>
+        <v>1.055029990796001</v>
       </c>
       <c r="J18">
-        <v>1.044387423025496</v>
+        <v>1.045938782554685</v>
       </c>
       <c r="K18">
-        <v>1.052974985017643</v>
+        <v>1.053012720281597</v>
       </c>
       <c r="L18">
-        <v>1.051076075318651</v>
+        <v>1.052297137461872</v>
       </c>
       <c r="M18">
-        <v>1.059199369985236</v>
+        <v>1.059733249243505</v>
       </c>
       <c r="N18">
-        <v>1.045870572959104</v>
+        <v>1.047424135596768</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018903725252408</v>
+        <v>1.019966008726632</v>
       </c>
       <c r="D19">
-        <v>1.040550829565231</v>
+        <v>1.040134377625526</v>
       </c>
       <c r="E19">
-        <v>1.03873577150213</v>
+        <v>1.039449339794357</v>
       </c>
       <c r="F19">
-        <v>1.046950705733314</v>
+        <v>1.047002538809087</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060120151453528</v>
+        <v>1.055152860366234</v>
       </c>
       <c r="J19">
-        <v>1.045140545912253</v>
+        <v>1.046165032033642</v>
       </c>
       <c r="K19">
-        <v>1.053643488770839</v>
+        <v>1.053233495682902</v>
       </c>
       <c r="L19">
-        <v>1.05185662931803</v>
+        <v>1.052559096652847</v>
       </c>
       <c r="M19">
-        <v>1.059944931874663</v>
+        <v>1.059995973998223</v>
       </c>
       <c r="N19">
-        <v>1.046624765366745</v>
+        <v>1.047650706375936</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014772368919436</v>
+        <v>1.018306809927547</v>
       </c>
       <c r="D20">
-        <v>1.037211258138176</v>
+        <v>1.038850361931389</v>
       </c>
       <c r="E20">
-        <v>1.034882312829948</v>
+        <v>1.037977481807245</v>
       </c>
       <c r="F20">
-        <v>1.043261886951585</v>
+        <v>1.045530443639687</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058483416907049</v>
+        <v>1.054601037935383</v>
       </c>
       <c r="J20">
-        <v>1.041745481907543</v>
+        <v>1.045149828738201</v>
       </c>
       <c r="K20">
-        <v>1.050629897028723</v>
+        <v>1.052242823211464</v>
       </c>
       <c r="L20">
-        <v>1.0483383295492</v>
+        <v>1.051383870389183</v>
       </c>
       <c r="M20">
-        <v>1.056584416207271</v>
+        <v>1.058817305381752</v>
       </c>
       <c r="N20">
-        <v>1.043224879981728</v>
+        <v>1.04663406137537</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00073180130793</v>
+        <v>1.012817277723544</v>
       </c>
       <c r="D21">
-        <v>1.025874059620231</v>
+        <v>1.034608311485265</v>
       </c>
       <c r="E21">
-        <v>1.021800718412351</v>
+        <v>1.033116682735697</v>
       </c>
       <c r="F21">
-        <v>1.030742701905352</v>
+        <v>1.040668827104219</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052900959373059</v>
+        <v>1.052765372794315</v>
       </c>
       <c r="J21">
-        <v>1.030198958041086</v>
+        <v>1.041788719188013</v>
       </c>
       <c r="K21">
-        <v>1.040381278658585</v>
+        <v>1.048962400115376</v>
       </c>
       <c r="L21">
-        <v>1.036380514631009</v>
+        <v>1.047496685509447</v>
       </c>
       <c r="M21">
-        <v>1.04516414835286</v>
+        <v>1.054918613165102</v>
       </c>
       <c r="N21">
-        <v>1.031661958726976</v>
+        <v>1.043268178664096</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9913759398580908</v>
+        <v>1.00928922462455</v>
       </c>
       <c r="D22">
-        <v>1.018331191594338</v>
+        <v>1.031887089775727</v>
       </c>
       <c r="E22">
-        <v>1.013096610275825</v>
+        <v>1.029999847525564</v>
       </c>
       <c r="F22">
-        <v>1.022415992967784</v>
+        <v>1.037551467343692</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049166415291661</v>
+        <v>1.051578173037525</v>
       </c>
       <c r="J22">
-        <v>1.022499374447785</v>
+        <v>1.039627050291339</v>
       </c>
       <c r="K22">
-        <v>1.033548045668606</v>
+        <v>1.046852262229044</v>
       </c>
       <c r="L22">
-        <v>1.028413010083601</v>
+        <v>1.04499954194188</v>
       </c>
       <c r="M22">
-        <v>1.037556090778888</v>
+        <v>1.052414005441748</v>
       </c>
       <c r="N22">
-        <v>1.023951440841818</v>
+        <v>1.041103439949641</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9963900958101337</v>
+        <v>1.011167004374777</v>
       </c>
       <c r="D23">
-        <v>1.022372480791232</v>
+        <v>1.03333493806849</v>
       </c>
       <c r="E23">
-        <v>1.017760179743989</v>
+        <v>1.0316580691272</v>
       </c>
       <c r="F23">
-        <v>1.026877026170942</v>
+        <v>1.039209966332728</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051169207864818</v>
+        <v>1.052210737746283</v>
       </c>
       <c r="J23">
-        <v>1.026626333831391</v>
+        <v>1.04077771161147</v>
       </c>
       <c r="K23">
-        <v>1.03721053084018</v>
+        <v>1.047975524489659</v>
       </c>
       <c r="L23">
-        <v>1.03268296719554</v>
+        <v>1.046328507555693</v>
       </c>
       <c r="M23">
-        <v>1.041633273723831</v>
+        <v>1.053746948762684</v>
       </c>
       <c r="N23">
-        <v>1.028084260981118</v>
+        <v>1.04225573534083</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014999706716494</v>
+        <v>1.018397595538492</v>
       </c>
       <c r="D24">
-        <v>1.037394984729131</v>
+        <v>1.038920596631615</v>
       </c>
       <c r="E24">
-        <v>1.035094308664813</v>
+        <v>1.038057984243437</v>
       </c>
       <c r="F24">
-        <v>1.043464813458227</v>
+        <v>1.045610959238874</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058573556973506</v>
+        <v>1.054631269308239</v>
       </c>
       <c r="J24">
-        <v>1.041932335508617</v>
+        <v>1.045205386120433</v>
       </c>
       <c r="K24">
-        <v>1.050795754680818</v>
+        <v>1.052297040221004</v>
       </c>
       <c r="L24">
-        <v>1.048531937570486</v>
+        <v>1.051448171199484</v>
       </c>
       <c r="M24">
-        <v>1.056769337501001</v>
+        <v>1.058881795040751</v>
       </c>
       <c r="N24">
-        <v>1.043411998936348</v>
+        <v>1.046689697655458</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03466668264357</v>
+        <v>1.026477162546542</v>
       </c>
       <c r="D25">
-        <v>1.053306370070073</v>
+        <v>1.045181390099824</v>
       </c>
       <c r="E25">
-        <v>1.053455837791267</v>
+        <v>1.045237605681159</v>
       </c>
       <c r="F25">
-        <v>1.061045806130134</v>
+        <v>1.052791628130324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.066335682465046</v>
+        <v>1.057303450748814</v>
       </c>
       <c r="J25">
-        <v>1.058081161697011</v>
+        <v>1.050145178176284</v>
       </c>
       <c r="K25">
-        <v>1.065129924701396</v>
+        <v>1.057116593204337</v>
       </c>
       <c r="L25">
-        <v>1.065277358833569</v>
+        <v>1.057172028784598</v>
       </c>
       <c r="M25">
-        <v>1.072765007695568</v>
+        <v>1.064622191665145</v>
       </c>
       <c r="N25">
-        <v>1.059583758310226</v>
+        <v>1.051636504782629</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.032692804586778</v>
+        <v>1.058280065418936</v>
       </c>
       <c r="D2">
-        <v>1.05001121373994</v>
+        <v>1.064895205961293</v>
       </c>
       <c r="E2">
-        <v>1.050781854068387</v>
+        <v>1.0715832656905</v>
       </c>
       <c r="F2">
-        <v>1.058336394923435</v>
+        <v>1.078129124377686</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05933172682084</v>
+        <v>1.051649635205988</v>
       </c>
       <c r="J2">
-        <v>1.053937790821839</v>
+        <v>1.063272107644488</v>
       </c>
       <c r="K2">
-        <v>1.060815155848289</v>
+        <v>1.06760990966836</v>
       </c>
       <c r="L2">
-        <v>1.061576304628689</v>
+        <v>1.074280052769532</v>
       </c>
       <c r="M2">
-        <v>1.069038709423954</v>
+        <v>1.080808608342185</v>
       </c>
       <c r="N2">
-        <v>1.05543450337316</v>
+        <v>1.064782075996358</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.037083433451186</v>
+        <v>1.059221215800529</v>
       </c>
       <c r="D3">
-        <v>1.05342970589329</v>
+        <v>1.065651726856674</v>
       </c>
       <c r="E3">
-        <v>1.05470957014865</v>
+        <v>1.072475833959087</v>
       </c>
       <c r="F3">
-        <v>1.062264236460434</v>
+        <v>1.079019839379666</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060747933465226</v>
+        <v>1.051906294985497</v>
       </c>
       <c r="J3">
-        <v>1.056611796277419</v>
+        <v>1.063866100710597</v>
       </c>
       <c r="K3">
-        <v>1.063421710084238</v>
+        <v>1.068181871349442</v>
       </c>
       <c r="L3">
-        <v>1.064687203885102</v>
+        <v>1.074989014390848</v>
       </c>
       <c r="M3">
-        <v>1.072157912676426</v>
+        <v>1.081516968823583</v>
       </c>
       <c r="N3">
-        <v>1.0581123062232</v>
+        <v>1.065376912600753</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.039870874222649</v>
+        <v>1.059830865535453</v>
       </c>
       <c r="D4">
-        <v>1.055602818955837</v>
+        <v>1.066141817454895</v>
       </c>
       <c r="E4">
-        <v>1.057208143822419</v>
+        <v>1.073054350186506</v>
       </c>
       <c r="F4">
-        <v>1.06476275524138</v>
+        <v>1.079597122554772</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061639165743801</v>
+        <v>1.052071553652995</v>
       </c>
       <c r="J4">
-        <v>1.058306886259003</v>
+        <v>1.064250455460134</v>
       </c>
       <c r="K4">
-        <v>1.065073470338872</v>
+        <v>1.06855187261569</v>
       </c>
       <c r="L4">
-        <v>1.066661870704219</v>
+        <v>1.075448083754015</v>
       </c>
       <c r="M4">
-        <v>1.074137672209834</v>
+        <v>1.081975614049876</v>
       </c>
       <c r="N4">
-        <v>1.059809803426988</v>
+        <v>1.065761813178121</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.041030317102012</v>
+        <v>1.060087319666385</v>
       </c>
       <c r="D5">
-        <v>1.056507371174674</v>
+        <v>1.066347986744831</v>
       </c>
       <c r="E5">
-        <v>1.058248602760045</v>
+        <v>1.073297787858388</v>
       </c>
       <c r="F5">
-        <v>1.065803155761107</v>
+        <v>1.07984003370735</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062007958811494</v>
+        <v>1.052140832098165</v>
       </c>
       <c r="J5">
-        <v>1.059011326165454</v>
+        <v>1.064412037470876</v>
       </c>
       <c r="K5">
-        <v>1.065759759975434</v>
+        <v>1.068707396993616</v>
       </c>
       <c r="L5">
-        <v>1.067483128393829</v>
+        <v>1.075641152749419</v>
       </c>
       <c r="M5">
-        <v>1.074961002344955</v>
+        <v>1.082168496288153</v>
       </c>
       <c r="N5">
-        <v>1.060515243718905</v>
+        <v>1.065923624653852</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.04122427788401</v>
+        <v>1.060130388636979</v>
       </c>
       <c r="D6">
-        <v>1.05665872827998</v>
+        <v>1.066382611360722</v>
       </c>
       <c r="E6">
-        <v>1.05842272686161</v>
+        <v>1.073338675524924</v>
       </c>
       <c r="F6">
-        <v>1.065977267904378</v>
+        <v>1.079880832490332</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062069539864023</v>
+        <v>1.052152452724993</v>
       </c>
       <c r="J6">
-        <v>1.059129132172818</v>
+        <v>1.064439167727298</v>
       </c>
       <c r="K6">
-        <v>1.065874522033851</v>
+        <v>1.06873350877187</v>
       </c>
       <c r="L6">
-        <v>1.067620507500811</v>
+        <v>1.075673574316591</v>
       </c>
       <c r="M6">
-        <v>1.075098725367801</v>
+        <v>1.082200886001515</v>
       </c>
       <c r="N6">
-        <v>1.060633217024312</v>
+        <v>1.065950793438349</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.039886414909228</v>
+        <v>1.059834291671217</v>
       </c>
       <c r="D7">
-        <v>1.055614940720017</v>
+        <v>1.066144571769658</v>
       </c>
       <c r="E7">
-        <v>1.057222085116406</v>
+        <v>1.073057602112942</v>
       </c>
       <c r="F7">
-        <v>1.064776695897158</v>
+        <v>1.079600367477878</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061644116502425</v>
+        <v>1.052072480127056</v>
       </c>
       <c r="J7">
-        <v>1.058316330829683</v>
+        <v>1.064252614531083</v>
       </c>
       <c r="K7">
-        <v>1.065082672140082</v>
+        <v>1.068553950836359</v>
       </c>
       <c r="L7">
-        <v>1.066672878973968</v>
+        <v>1.07545066325343</v>
       </c>
       <c r="M7">
-        <v>1.074148708442703</v>
+        <v>1.081978191087077</v>
       </c>
       <c r="N7">
-        <v>1.059819261410041</v>
+        <v>1.065763975315198</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.03418800095796</v>
+        <v>1.058597993684032</v>
       </c>
       <c r="D8">
-        <v>1.051174734208004</v>
+        <v>1.065150756613654</v>
       </c>
       <c r="E8">
-        <v>1.052118337108954</v>
+        <v>1.071884712604269</v>
       </c>
       <c r="F8">
-        <v>1.059672946817857</v>
+        <v>1.078429951961195</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059815633665126</v>
+        <v>1.051736543450046</v>
       </c>
       <c r="J8">
-        <v>1.054848916186939</v>
+        <v>1.063472849412765</v>
       </c>
       <c r="K8">
-        <v>1.06170341417938</v>
+        <v>1.067803226034447</v>
       </c>
       <c r="L8">
-        <v>1.062635746097802</v>
+        <v>1.074519581856131</v>
       </c>
       <c r="M8">
-        <v>1.070101014494573</v>
+        <v>1.081047941530954</v>
       </c>
       <c r="N8">
-        <v>1.056346922640786</v>
+        <v>1.064983102840972</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.023715767642105</v>
+        <v>1.056424606821709</v>
       </c>
       <c r="D9">
-        <v>1.043039362885225</v>
+        <v>1.063403966509844</v>
       </c>
       <c r="E9">
-        <v>1.042780378779758</v>
+        <v>1.069825389451866</v>
       </c>
       <c r="F9">
-        <v>1.050334077991034</v>
+        <v>1.076374730560487</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056394401387275</v>
+        <v>1.051138347406468</v>
       </c>
       <c r="J9">
-        <v>1.048457986058669</v>
+        <v>1.062098863443554</v>
       </c>
       <c r="K9">
-        <v>1.055470723338675</v>
+        <v>1.06647966619317</v>
       </c>
       <c r="L9">
-        <v>1.055215513755711</v>
+        <v>1.072881433930723</v>
       </c>
       <c r="M9">
-        <v>1.062660090767537</v>
+        <v>1.079410991591309</v>
       </c>
       <c r="N9">
-        <v>1.049946916658684</v>
+        <v>1.063607165654087</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.016414259952146</v>
+        <v>1.05497920233662</v>
       </c>
       <c r="D10">
-        <v>1.03738681213071</v>
+        <v>1.062242513195333</v>
       </c>
       <c r="E10">
-        <v>1.036300152571725</v>
+        <v>1.06845761329232</v>
       </c>
       <c r="F10">
-        <v>1.043852836252706</v>
+        <v>1.075009517832128</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053969859342808</v>
+        <v>1.050735396275777</v>
       </c>
       <c r="J10">
-        <v>1.043991435618038</v>
+        <v>1.061182977574536</v>
       </c>
       <c r="K10">
-        <v>1.051112325213138</v>
+        <v>1.065596898071863</v>
       </c>
       <c r="L10">
-        <v>1.05004353303795</v>
+        <v>1.071791116644473</v>
       </c>
       <c r="M10">
-        <v>1.057473019301812</v>
+        <v>1.078321294872038</v>
       </c>
       <c r="N10">
-        <v>1.045474023204108</v>
+        <v>1.062689979122081</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.013169433012814</v>
+        <v>1.054354176117638</v>
       </c>
       <c r="D11">
-        <v>1.034880152729287</v>
+        <v>1.061740338688256</v>
       </c>
       <c r="E11">
-        <v>1.033428097046835</v>
+        <v>1.067866581361724</v>
       </c>
       <c r="F11">
-        <v>1.040980294359231</v>
+        <v>1.074419555796281</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052883566697603</v>
+        <v>1.050559936438386</v>
       </c>
       <c r="J11">
-        <v>1.042004428454559</v>
+        <v>1.060786427218124</v>
       </c>
       <c r="K11">
-        <v>1.049172953006531</v>
+        <v>1.065214570055811</v>
       </c>
       <c r="L11">
-        <v>1.047745991242903</v>
+        <v>1.071319435617077</v>
       </c>
       <c r="M11">
-        <v>1.055168661542207</v>
+        <v>1.077849840740717</v>
       </c>
       <c r="N11">
-        <v>1.043484194262543</v>
+        <v>1.062292865618678</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.01195098881839</v>
+        <v>1.054122141442156</v>
       </c>
       <c r="D12">
-        <v>1.033939761704422</v>
+        <v>1.061553921751551</v>
       </c>
       <c r="E12">
-        <v>1.032350851342404</v>
+        <v>1.067647231239413</v>
       </c>
       <c r="F12">
-        <v>1.039902865708504</v>
+        <v>1.074200597096852</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052474378039783</v>
+        <v>1.050494616302898</v>
       </c>
       <c r="J12">
-        <v>1.041258034165859</v>
+        <v>1.060639136973045</v>
       </c>
       <c r="K12">
-        <v>1.048444389256377</v>
+        <v>1.065072544955579</v>
       </c>
       <c r="L12">
-        <v>1.046883440806403</v>
+        <v>1.071144298680205</v>
       </c>
       <c r="M12">
-        <v>1.054303539521893</v>
+        <v>1.077674781835775</v>
       </c>
       <c r="N12">
-        <v>1.04273674000834</v>
+        <v>1.062145366204557</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.012212956446397</v>
+        <v>1.054171907861482</v>
       </c>
       <c r="D13">
-        <v>1.034141907125411</v>
+        <v>1.061593903678283</v>
       </c>
       <c r="E13">
-        <v>1.032582405005658</v>
+        <v>1.067694274168482</v>
       </c>
       <c r="F13">
-        <v>1.040134458637442</v>
+        <v>1.07424755633453</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052562411538965</v>
+        <v>1.050508634315332</v>
       </c>
       <c r="J13">
-        <v>1.04141852156378</v>
+        <v>1.060670730932291</v>
       </c>
       <c r="K13">
-        <v>1.048601045483806</v>
+        <v>1.065103010322117</v>
       </c>
       <c r="L13">
-        <v>1.047068881516991</v>
+        <v>1.071181863122731</v>
       </c>
       <c r="M13">
-        <v>1.054489533605932</v>
+        <v>1.077712329822339</v>
       </c>
       <c r="N13">
-        <v>1.042897455316774</v>
+        <v>1.062177005030848</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.013068988732753</v>
+        <v>1.054334993443236</v>
       </c>
       <c r="D14">
-        <v>1.034802612148155</v>
+        <v>1.061724927091619</v>
       </c>
       <c r="E14">
-        <v>1.03333926753903</v>
+        <v>1.067848446020134</v>
       </c>
       <c r="F14">
-        <v>1.040891449746893</v>
+        <v>1.074401452931666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05284986042605</v>
+        <v>1.050554540041519</v>
       </c>
       <c r="J14">
-        <v>1.041942903477021</v>
+        <v>1.060774252027591</v>
       </c>
       <c r="K14">
-        <v>1.049112899019852</v>
+        <v>1.065202830443924</v>
       </c>
       <c r="L14">
-        <v>1.047674881560901</v>
+        <v>1.071304957381429</v>
       </c>
       <c r="M14">
-        <v>1.055097340089635</v>
+        <v>1.077835369082457</v>
       </c>
       <c r="N14">
-        <v>1.043422581912479</v>
+        <v>1.062280673137978</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013594652496039</v>
+        <v>1.054435492834668</v>
       </c>
       <c r="D15">
-        <v>1.035208447795605</v>
+        <v>1.061805669963682</v>
       </c>
       <c r="E15">
-        <v>1.033804196823229</v>
+        <v>1.067943461006428</v>
       </c>
       <c r="F15">
-        <v>1.041356458096301</v>
+        <v>1.074496297532843</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053026206369996</v>
+        <v>1.050582804674449</v>
       </c>
       <c r="J15">
-        <v>1.042264876889202</v>
+        <v>1.060838035646319</v>
       </c>
       <c r="K15">
-        <v>1.04942717190921</v>
+        <v>1.065264331431121</v>
       </c>
       <c r="L15">
-        <v>1.048047033851092</v>
+        <v>1.071380808653048</v>
       </c>
       <c r="M15">
-        <v>1.055470600187208</v>
+        <v>1.077911185640833</v>
       </c>
       <c r="N15">
-        <v>1.043745012563837</v>
+        <v>1.06234454733676</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.016627798987386</v>
+        <v>1.055020701138871</v>
       </c>
       <c r="D16">
-        <v>1.037551890117447</v>
+        <v>1.06227585663315</v>
       </c>
       <c r="E16">
-        <v>1.036489326557862</v>
+        <v>1.068496864057861</v>
       </c>
       <c r="F16">
-        <v>1.044042041928253</v>
+        <v>1.075048696751012</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054041167006663</v>
+        <v>1.050747020384499</v>
       </c>
       <c r="J16">
-        <v>1.044122159476649</v>
+        <v>1.06120929612855</v>
       </c>
       <c r="K16">
-        <v>1.051239905977781</v>
+        <v>1.065622270256338</v>
       </c>
       <c r="L16">
-        <v>1.050194755128141</v>
+        <v>1.071822429802929</v>
       </c>
       <c r="M16">
-        <v>1.057624688018075</v>
+        <v>1.078352592094144</v>
       </c>
       <c r="N16">
-        <v>1.045604932705591</v>
+        <v>1.06271633505146</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.018507672145237</v>
+        <v>1.055388013490382</v>
       </c>
       <c r="D17">
-        <v>1.039005758927425</v>
+        <v>1.062570992133915</v>
       </c>
       <c r="E17">
-        <v>1.038155597650755</v>
+        <v>1.068844327999502</v>
       </c>
       <c r="F17">
-        <v>1.045708588580188</v>
+        <v>1.075395520309539</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054667918763268</v>
+        <v>1.050849766783187</v>
       </c>
       <c r="J17">
-        <v>1.045272747505173</v>
+        <v>1.061442187946347</v>
       </c>
       <c r="K17">
-        <v>1.052362776133701</v>
+        <v>1.065846774225096</v>
       </c>
       <c r="L17">
-        <v>1.05152613582589</v>
+        <v>1.072099564047165</v>
       </c>
       <c r="M17">
-        <v>1.058959988570122</v>
+        <v>1.078629580494697</v>
       </c>
       <c r="N17">
-        <v>1.046757154701091</v>
+        <v>1.062949557602351</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.019596187563574</v>
+        <v>1.055602341873504</v>
       </c>
       <c r="D18">
-        <v>1.039848107387308</v>
+        <v>1.062743211213117</v>
       </c>
       <c r="E18">
-        <v>1.039121166171606</v>
+        <v>1.069047115849912</v>
       </c>
       <c r="F18">
-        <v>1.046674312989817</v>
+        <v>1.075597930764801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055029990796001</v>
+        <v>1.050909602487147</v>
       </c>
       <c r="J18">
-        <v>1.045938782554685</v>
+        <v>1.061578033038311</v>
       </c>
       <c r="K18">
-        <v>1.053012720281597</v>
+        <v>1.065977715451762</v>
       </c>
       <c r="L18">
-        <v>1.052297137461872</v>
+        <v>1.072261253509855</v>
       </c>
       <c r="M18">
-        <v>1.059733249243505</v>
+        <v>1.078791180852516</v>
       </c>
       <c r="N18">
-        <v>1.047424135596768</v>
+        <v>1.063085595609927</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.019966008726632</v>
+        <v>1.055675436068256</v>
       </c>
       <c r="D19">
-        <v>1.040134377625526</v>
+        <v>1.062801945556799</v>
       </c>
       <c r="E19">
-        <v>1.039449339794357</v>
+        <v>1.069116281236606</v>
       </c>
       <c r="F19">
-        <v>1.047002538809087</v>
+        <v>1.075666966811806</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055152860366234</v>
+        <v>1.050929988863569</v>
       </c>
       <c r="J19">
-        <v>1.046165032033642</v>
+        <v>1.06162435322044</v>
       </c>
       <c r="K19">
-        <v>1.053233495682902</v>
+        <v>1.066022361611896</v>
       </c>
       <c r="L19">
-        <v>1.052559096652847</v>
+        <v>1.072316392480823</v>
       </c>
       <c r="M19">
-        <v>1.059995973998223</v>
+        <v>1.078846288755274</v>
       </c>
       <c r="N19">
-        <v>1.047650706375936</v>
+        <v>1.063131981572028</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.018306809927547</v>
+        <v>1.05534859593326</v>
       </c>
       <c r="D20">
-        <v>1.038850361931389</v>
+        <v>1.062539319477858</v>
       </c>
       <c r="E20">
-        <v>1.037977481807245</v>
+        <v>1.068807036189323</v>
       </c>
       <c r="F20">
-        <v>1.045530443639687</v>
+        <v>1.075358297606472</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054601037935383</v>
+        <v>1.050838752840588</v>
       </c>
       <c r="J20">
-        <v>1.045149828738201</v>
+        <v>1.061417200516068</v>
       </c>
       <c r="K20">
-        <v>1.052242823211464</v>
+        <v>1.065822687907892</v>
       </c>
       <c r="L20">
-        <v>1.051383870389183</v>
+        <v>1.072069825838348</v>
       </c>
       <c r="M20">
-        <v>1.058817305381752</v>
+        <v>1.078599858350815</v>
       </c>
       <c r="N20">
-        <v>1.04663406137537</v>
+        <v>1.062924534687055</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.012817277723544</v>
+        <v>1.054286965264342</v>
       </c>
       <c r="D21">
-        <v>1.034608311485265</v>
+        <v>1.061686340829778</v>
       </c>
       <c r="E21">
-        <v>1.033116682735697</v>
+        <v>1.067803041120726</v>
       </c>
       <c r="F21">
-        <v>1.040668827104219</v>
+        <v>1.074356129252719</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052765372794315</v>
+        <v>1.050541025989741</v>
       </c>
       <c r="J21">
-        <v>1.041788719188013</v>
+        <v>1.060743767465123</v>
       </c>
       <c r="K21">
-        <v>1.048962400115376</v>
+        <v>1.065173436213228</v>
       </c>
       <c r="L21">
-        <v>1.047496685509447</v>
+        <v>1.07126870734722</v>
       </c>
       <c r="M21">
-        <v>1.054918613165102</v>
+        <v>1.077799135416139</v>
       </c>
       <c r="N21">
-        <v>1.043268178664096</v>
+        <v>1.062250145283935</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.00928922462455</v>
+        <v>1.053620216452081</v>
       </c>
       <c r="D22">
-        <v>1.031887089775727</v>
+        <v>1.061150694020858</v>
       </c>
       <c r="E22">
-        <v>1.029999847525564</v>
+        <v>1.067172863304253</v>
       </c>
       <c r="F22">
-        <v>1.037551467343692</v>
+        <v>1.073727065363978</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051578173037525</v>
+        <v>1.050352985766181</v>
       </c>
       <c r="J22">
-        <v>1.039627050291339</v>
+        <v>1.060320389857331</v>
       </c>
       <c r="K22">
-        <v>1.046852262229044</v>
+        <v>1.064765160196656</v>
       </c>
       <c r="L22">
-        <v>1.04499954194188</v>
+        <v>1.070765397142188</v>
       </c>
       <c r="M22">
-        <v>1.052414005441748</v>
+        <v>1.077296037784854</v>
       </c>
       <c r="N22">
-        <v>1.041103439949641</v>
+        <v>1.061826166431377</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.011167004374777</v>
+        <v>1.053973602026852</v>
       </c>
       <c r="D23">
-        <v>1.03333493806849</v>
+        <v>1.06143458797088</v>
       </c>
       <c r="E23">
-        <v>1.0316580691272</v>
+        <v>1.067506830197847</v>
       </c>
       <c r="F23">
-        <v>1.039209966332728</v>
+        <v>1.074060445010109</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052210737746283</v>
+        <v>1.050452749583598</v>
       </c>
       <c r="J23">
-        <v>1.04077771161147</v>
+        <v>1.060544826523528</v>
       </c>
       <c r="K23">
-        <v>1.047975524489659</v>
+        <v>1.064981600895847</v>
       </c>
       <c r="L23">
-        <v>1.046328507555693</v>
+        <v>1.07103217450944</v>
       </c>
       <c r="M23">
-        <v>1.053746948762684</v>
+        <v>1.077562705875741</v>
       </c>
       <c r="N23">
-        <v>1.04225573534083</v>
+        <v>1.062050921823382</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.018397595538492</v>
+        <v>1.055366406779507</v>
       </c>
       <c r="D24">
-        <v>1.038920596631615</v>
+        <v>1.062553630766937</v>
       </c>
       <c r="E24">
-        <v>1.038057984243437</v>
+        <v>1.06882388638867</v>
       </c>
       <c r="F24">
-        <v>1.045610959238874</v>
+        <v>1.075375116591255</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054631269308239</v>
+        <v>1.050843729859307</v>
       </c>
       <c r="J24">
-        <v>1.045205386120433</v>
+        <v>1.061428491250354</v>
       </c>
       <c r="K24">
-        <v>1.052297040221004</v>
+        <v>1.065833571503122</v>
       </c>
       <c r="L24">
-        <v>1.051448171199484</v>
+        <v>1.07208326312599</v>
       </c>
       <c r="M24">
-        <v>1.058881795040751</v>
+        <v>1.078613288391882</v>
       </c>
       <c r="N24">
-        <v>1.046689697655458</v>
+        <v>1.06293584145548</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.026477162546542</v>
+        <v>1.056985864290414</v>
       </c>
       <c r="D25">
-        <v>1.045181390099824</v>
+        <v>1.063855018413424</v>
       </c>
       <c r="E25">
-        <v>1.045237605681159</v>
+        <v>1.070356880605381</v>
       </c>
       <c r="F25">
-        <v>1.052791628130324</v>
+        <v>1.076905191627113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057303450748814</v>
+        <v>1.051293730254057</v>
       </c>
       <c r="J25">
-        <v>1.050145178176284</v>
+        <v>1.062454058020433</v>
       </c>
       <c r="K25">
-        <v>1.057116593204337</v>
+        <v>1.066821912646208</v>
       </c>
       <c r="L25">
-        <v>1.057172028784598</v>
+        <v>1.07330462603446</v>
       </c>
       <c r="M25">
-        <v>1.064622191665145</v>
+        <v>1.079833905521387</v>
       </c>
       <c r="N25">
-        <v>1.051636504782629</v>
+        <v>1.063962864648006</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058280065418936</v>
+        <v>1.032692804586779</v>
       </c>
       <c r="D2">
-        <v>1.064895205961293</v>
+        <v>1.05001121373994</v>
       </c>
       <c r="E2">
-        <v>1.0715832656905</v>
+        <v>1.050781854068387</v>
       </c>
       <c r="F2">
-        <v>1.078129124377686</v>
+        <v>1.058336394923435</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051649635205988</v>
+        <v>1.05933172682084</v>
       </c>
       <c r="J2">
-        <v>1.063272107644488</v>
+        <v>1.053937790821839</v>
       </c>
       <c r="K2">
-        <v>1.06760990966836</v>
+        <v>1.060815155848289</v>
       </c>
       <c r="L2">
-        <v>1.074280052769532</v>
+        <v>1.061576304628689</v>
       </c>
       <c r="M2">
-        <v>1.080808608342185</v>
+        <v>1.069038709423955</v>
       </c>
       <c r="N2">
-        <v>1.064782075996358</v>
+        <v>1.05543450337316</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059221215800529</v>
+        <v>1.037083433451185</v>
       </c>
       <c r="D3">
-        <v>1.065651726856674</v>
+        <v>1.05342970589329</v>
       </c>
       <c r="E3">
-        <v>1.072475833959087</v>
+        <v>1.05470957014865</v>
       </c>
       <c r="F3">
-        <v>1.079019839379666</v>
+        <v>1.062264236460434</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051906294985497</v>
+        <v>1.060747933465226</v>
       </c>
       <c r="J3">
-        <v>1.063866100710597</v>
+        <v>1.056611796277418</v>
       </c>
       <c r="K3">
-        <v>1.068181871349442</v>
+        <v>1.063421710084237</v>
       </c>
       <c r="L3">
-        <v>1.074989014390848</v>
+        <v>1.064687203885102</v>
       </c>
       <c r="M3">
-        <v>1.081516968823583</v>
+        <v>1.072157912676425</v>
       </c>
       <c r="N3">
-        <v>1.065376912600753</v>
+        <v>1.058112306223199</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059830865535453</v>
+        <v>1.039870874222648</v>
       </c>
       <c r="D4">
-        <v>1.066141817454895</v>
+        <v>1.055602818955836</v>
       </c>
       <c r="E4">
-        <v>1.073054350186506</v>
+        <v>1.057208143822418</v>
       </c>
       <c r="F4">
-        <v>1.079597122554772</v>
+        <v>1.064762755241379</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052071553652995</v>
+        <v>1.0616391657438</v>
       </c>
       <c r="J4">
-        <v>1.064250455460134</v>
+        <v>1.058306886259003</v>
       </c>
       <c r="K4">
-        <v>1.06855187261569</v>
+        <v>1.065073470338871</v>
       </c>
       <c r="L4">
-        <v>1.075448083754015</v>
+        <v>1.066661870704218</v>
       </c>
       <c r="M4">
-        <v>1.081975614049876</v>
+        <v>1.074137672209833</v>
       </c>
       <c r="N4">
-        <v>1.065761813178121</v>
+        <v>1.059809803426987</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060087319666385</v>
+        <v>1.041030317102011</v>
       </c>
       <c r="D5">
-        <v>1.066347986744831</v>
+        <v>1.056507371174673</v>
       </c>
       <c r="E5">
-        <v>1.073297787858388</v>
+        <v>1.058248602760043</v>
       </c>
       <c r="F5">
-        <v>1.07984003370735</v>
+        <v>1.065803155761106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052140832098165</v>
+        <v>1.062007958811493</v>
       </c>
       <c r="J5">
-        <v>1.064412037470876</v>
+        <v>1.059011326165453</v>
       </c>
       <c r="K5">
-        <v>1.068707396993616</v>
+        <v>1.065759759975433</v>
       </c>
       <c r="L5">
-        <v>1.075641152749419</v>
+        <v>1.067483128393828</v>
       </c>
       <c r="M5">
-        <v>1.082168496288153</v>
+        <v>1.074961002344953</v>
       </c>
       <c r="N5">
-        <v>1.065923624653852</v>
+        <v>1.060515243718905</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060130388636979</v>
+        <v>1.041224277884008</v>
       </c>
       <c r="D6">
-        <v>1.066382611360722</v>
+        <v>1.056658728279979</v>
       </c>
       <c r="E6">
-        <v>1.073338675524924</v>
+        <v>1.058422726861608</v>
       </c>
       <c r="F6">
-        <v>1.079880832490332</v>
+        <v>1.065977267904376</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052152452724993</v>
+        <v>1.062069539864022</v>
       </c>
       <c r="J6">
-        <v>1.064439167727298</v>
+        <v>1.059129132172816</v>
       </c>
       <c r="K6">
-        <v>1.06873350877187</v>
+        <v>1.065874522033849</v>
       </c>
       <c r="L6">
-        <v>1.075673574316591</v>
+        <v>1.067620507500809</v>
       </c>
       <c r="M6">
-        <v>1.082200886001515</v>
+        <v>1.075098725367799</v>
       </c>
       <c r="N6">
-        <v>1.065950793438349</v>
+        <v>1.06063321702431</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.059834291671217</v>
+        <v>1.039886414909227</v>
       </c>
       <c r="D7">
-        <v>1.066144571769658</v>
+        <v>1.055614940720016</v>
       </c>
       <c r="E7">
-        <v>1.073057602112942</v>
+        <v>1.057222085116405</v>
       </c>
       <c r="F7">
-        <v>1.079600367477878</v>
+        <v>1.064776695897158</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052072480127056</v>
+        <v>1.061644116502425</v>
       </c>
       <c r="J7">
-        <v>1.064252614531083</v>
+        <v>1.058316330829683</v>
       </c>
       <c r="K7">
-        <v>1.068553950836359</v>
+        <v>1.065082672140081</v>
       </c>
       <c r="L7">
-        <v>1.07545066325343</v>
+        <v>1.066672878973967</v>
       </c>
       <c r="M7">
-        <v>1.081978191087077</v>
+        <v>1.074148708442702</v>
       </c>
       <c r="N7">
-        <v>1.065763975315198</v>
+        <v>1.059819261410041</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058597993684032</v>
+        <v>1.034188000957959</v>
       </c>
       <c r="D8">
-        <v>1.065150756613654</v>
+        <v>1.051174734208003</v>
       </c>
       <c r="E8">
-        <v>1.071884712604269</v>
+        <v>1.052118337108953</v>
       </c>
       <c r="F8">
-        <v>1.078429951961195</v>
+        <v>1.059672946817857</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051736543450046</v>
+        <v>1.059815633665126</v>
       </c>
       <c r="J8">
-        <v>1.063472849412765</v>
+        <v>1.054848916186938</v>
       </c>
       <c r="K8">
-        <v>1.067803226034447</v>
+        <v>1.061703414179379</v>
       </c>
       <c r="L8">
-        <v>1.074519581856131</v>
+        <v>1.062635746097801</v>
       </c>
       <c r="M8">
-        <v>1.081047941530954</v>
+        <v>1.070101014494572</v>
       </c>
       <c r="N8">
-        <v>1.064983102840972</v>
+        <v>1.056346922640785</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.056424606821709</v>
+        <v>1.023715767642105</v>
       </c>
       <c r="D9">
-        <v>1.063403966509844</v>
+        <v>1.043039362885226</v>
       </c>
       <c r="E9">
-        <v>1.069825389451866</v>
+        <v>1.042780378779759</v>
       </c>
       <c r="F9">
-        <v>1.076374730560487</v>
+        <v>1.050334077991035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051138347406468</v>
+        <v>1.056394401387275</v>
       </c>
       <c r="J9">
-        <v>1.062098863443554</v>
+        <v>1.048457986058669</v>
       </c>
       <c r="K9">
-        <v>1.06647966619317</v>
+        <v>1.055470723338676</v>
       </c>
       <c r="L9">
-        <v>1.072881433930723</v>
+        <v>1.055215513755712</v>
       </c>
       <c r="M9">
-        <v>1.079410991591309</v>
+        <v>1.062660090767538</v>
       </c>
       <c r="N9">
-        <v>1.063607165654087</v>
+        <v>1.049946916658684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.05497920233662</v>
+        <v>1.016414259952146</v>
       </c>
       <c r="D10">
-        <v>1.062242513195333</v>
+        <v>1.03738681213071</v>
       </c>
       <c r="E10">
-        <v>1.06845761329232</v>
+        <v>1.036300152571725</v>
       </c>
       <c r="F10">
-        <v>1.075009517832128</v>
+        <v>1.043852836252705</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050735396275777</v>
+        <v>1.053969859342808</v>
       </c>
       <c r="J10">
-        <v>1.061182977574536</v>
+        <v>1.043991435618038</v>
       </c>
       <c r="K10">
-        <v>1.065596898071863</v>
+        <v>1.051112325213138</v>
       </c>
       <c r="L10">
-        <v>1.071791116644473</v>
+        <v>1.05004353303795</v>
       </c>
       <c r="M10">
-        <v>1.078321294872038</v>
+        <v>1.057473019301812</v>
       </c>
       <c r="N10">
-        <v>1.062689979122081</v>
+        <v>1.045474023204107</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054354176117638</v>
+        <v>1.013169433012815</v>
       </c>
       <c r="D11">
-        <v>1.061740338688256</v>
+        <v>1.034880152729288</v>
       </c>
       <c r="E11">
-        <v>1.067866581361724</v>
+        <v>1.033428097046836</v>
       </c>
       <c r="F11">
-        <v>1.074419555796281</v>
+        <v>1.040980294359232</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050559936438386</v>
+        <v>1.052883566697604</v>
       </c>
       <c r="J11">
-        <v>1.060786427218124</v>
+        <v>1.04200442845456</v>
       </c>
       <c r="K11">
-        <v>1.065214570055811</v>
+        <v>1.049172953006532</v>
       </c>
       <c r="L11">
-        <v>1.071319435617077</v>
+        <v>1.047745991242904</v>
       </c>
       <c r="M11">
-        <v>1.077849840740717</v>
+        <v>1.055168661542208</v>
       </c>
       <c r="N11">
-        <v>1.062292865618678</v>
+        <v>1.043484194262544</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054122141442156</v>
+        <v>1.011950988818391</v>
       </c>
       <c r="D12">
-        <v>1.061553921751551</v>
+        <v>1.033939761704422</v>
       </c>
       <c r="E12">
-        <v>1.067647231239413</v>
+        <v>1.032350851342404</v>
       </c>
       <c r="F12">
-        <v>1.074200597096852</v>
+        <v>1.039902865708504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050494616302898</v>
+        <v>1.052474378039783</v>
       </c>
       <c r="J12">
-        <v>1.060639136973045</v>
+        <v>1.041258034165859</v>
       </c>
       <c r="K12">
-        <v>1.065072544955579</v>
+        <v>1.048444389256378</v>
       </c>
       <c r="L12">
-        <v>1.071144298680205</v>
+        <v>1.046883440806403</v>
       </c>
       <c r="M12">
-        <v>1.077674781835775</v>
+        <v>1.054303539521893</v>
       </c>
       <c r="N12">
-        <v>1.062145366204557</v>
+        <v>1.04273674000834</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054171907861482</v>
+        <v>1.012212956446397</v>
       </c>
       <c r="D13">
-        <v>1.061593903678283</v>
+        <v>1.034141907125411</v>
       </c>
       <c r="E13">
-        <v>1.067694274168482</v>
+        <v>1.032582405005659</v>
       </c>
       <c r="F13">
-        <v>1.07424755633453</v>
+        <v>1.040134458637442</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050508634315332</v>
+        <v>1.052562411538965</v>
       </c>
       <c r="J13">
-        <v>1.060670730932291</v>
+        <v>1.04141852156378</v>
       </c>
       <c r="K13">
-        <v>1.065103010322117</v>
+        <v>1.048601045483806</v>
       </c>
       <c r="L13">
-        <v>1.071181863122731</v>
+        <v>1.047068881516991</v>
       </c>
       <c r="M13">
-        <v>1.077712329822339</v>
+        <v>1.054489533605931</v>
       </c>
       <c r="N13">
-        <v>1.062177005030848</v>
+        <v>1.042897455316775</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054334993443236</v>
+        <v>1.013068988732752</v>
       </c>
       <c r="D14">
-        <v>1.061724927091619</v>
+        <v>1.034802612148154</v>
       </c>
       <c r="E14">
-        <v>1.067848446020134</v>
+        <v>1.033339267539029</v>
       </c>
       <c r="F14">
-        <v>1.074401452931666</v>
+        <v>1.040891449746892</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050554540041519</v>
+        <v>1.052849860426049</v>
       </c>
       <c r="J14">
-        <v>1.060774252027591</v>
+        <v>1.04194290347702</v>
       </c>
       <c r="K14">
-        <v>1.065202830443924</v>
+        <v>1.049112899019851</v>
       </c>
       <c r="L14">
-        <v>1.071304957381429</v>
+        <v>1.0476748815609</v>
       </c>
       <c r="M14">
-        <v>1.077835369082457</v>
+        <v>1.055097340089634</v>
       </c>
       <c r="N14">
-        <v>1.062280673137978</v>
+        <v>1.043422581912478</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054435492834668</v>
+        <v>1.013594652496039</v>
       </c>
       <c r="D15">
-        <v>1.061805669963682</v>
+        <v>1.035208447795604</v>
       </c>
       <c r="E15">
-        <v>1.067943461006428</v>
+        <v>1.033804196823229</v>
       </c>
       <c r="F15">
-        <v>1.074496297532843</v>
+        <v>1.041356458096301</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050582804674449</v>
+        <v>1.053026206369995</v>
       </c>
       <c r="J15">
-        <v>1.060838035646319</v>
+        <v>1.042264876889201</v>
       </c>
       <c r="K15">
-        <v>1.065264331431121</v>
+        <v>1.04942717190921</v>
       </c>
       <c r="L15">
-        <v>1.071380808653048</v>
+        <v>1.048047033851092</v>
       </c>
       <c r="M15">
-        <v>1.077911185640833</v>
+        <v>1.055470600187208</v>
       </c>
       <c r="N15">
-        <v>1.06234454733676</v>
+        <v>1.043745012563837</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055020701138871</v>
+        <v>1.016627798987387</v>
       </c>
       <c r="D16">
-        <v>1.06227585663315</v>
+        <v>1.037551890117448</v>
       </c>
       <c r="E16">
-        <v>1.068496864057861</v>
+        <v>1.036489326557863</v>
       </c>
       <c r="F16">
-        <v>1.075048696751012</v>
+        <v>1.044042041928254</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050747020384499</v>
+        <v>1.054041167006663</v>
       </c>
       <c r="J16">
-        <v>1.06120929612855</v>
+        <v>1.044122159476649</v>
       </c>
       <c r="K16">
-        <v>1.065622270256338</v>
+        <v>1.051239905977781</v>
       </c>
       <c r="L16">
-        <v>1.071822429802929</v>
+        <v>1.050194755128142</v>
       </c>
       <c r="M16">
-        <v>1.078352592094144</v>
+        <v>1.057624688018076</v>
       </c>
       <c r="N16">
-        <v>1.06271633505146</v>
+        <v>1.045604932705592</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.055388013490382</v>
+        <v>1.018507672145234</v>
       </c>
       <c r="D17">
-        <v>1.062570992133915</v>
+        <v>1.039005758927423</v>
       </c>
       <c r="E17">
-        <v>1.068844327999502</v>
+        <v>1.038155597650752</v>
       </c>
       <c r="F17">
-        <v>1.075395520309539</v>
+        <v>1.045708588580185</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050849766783187</v>
+        <v>1.054667918763266</v>
       </c>
       <c r="J17">
-        <v>1.061442187946347</v>
+        <v>1.045272747505171</v>
       </c>
       <c r="K17">
-        <v>1.065846774225096</v>
+        <v>1.052362776133698</v>
       </c>
       <c r="L17">
-        <v>1.072099564047165</v>
+        <v>1.051526135825887</v>
       </c>
       <c r="M17">
-        <v>1.078629580494697</v>
+        <v>1.05895998857012</v>
       </c>
       <c r="N17">
-        <v>1.062949557602351</v>
+        <v>1.046757154701089</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.055602341873504</v>
+        <v>1.019596187563573</v>
       </c>
       <c r="D18">
-        <v>1.062743211213117</v>
+        <v>1.039848107387307</v>
       </c>
       <c r="E18">
-        <v>1.069047115849912</v>
+        <v>1.039121166171604</v>
       </c>
       <c r="F18">
-        <v>1.075597930764801</v>
+        <v>1.046674312989816</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050909602487147</v>
+        <v>1.055029990796001</v>
       </c>
       <c r="J18">
-        <v>1.061578033038311</v>
+        <v>1.045938782554684</v>
       </c>
       <c r="K18">
-        <v>1.065977715451762</v>
+        <v>1.053012720281596</v>
       </c>
       <c r="L18">
-        <v>1.072261253509855</v>
+        <v>1.052297137461871</v>
       </c>
       <c r="M18">
-        <v>1.078791180852516</v>
+        <v>1.059733249243504</v>
       </c>
       <c r="N18">
-        <v>1.063085595609927</v>
+        <v>1.047424135596767</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.055675436068256</v>
+        <v>1.019966008726632</v>
       </c>
       <c r="D19">
-        <v>1.062801945556799</v>
+        <v>1.040134377625525</v>
       </c>
       <c r="E19">
-        <v>1.069116281236606</v>
+        <v>1.039449339794357</v>
       </c>
       <c r="F19">
-        <v>1.075666966811806</v>
+        <v>1.047002538809087</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050929988863569</v>
+        <v>1.055152860366234</v>
       </c>
       <c r="J19">
-        <v>1.06162435322044</v>
+        <v>1.046165032033642</v>
       </c>
       <c r="K19">
-        <v>1.066022361611896</v>
+        <v>1.053233495682902</v>
       </c>
       <c r="L19">
-        <v>1.072316392480823</v>
+        <v>1.052559096652847</v>
       </c>
       <c r="M19">
-        <v>1.078846288755274</v>
+        <v>1.059995973998222</v>
       </c>
       <c r="N19">
-        <v>1.063131981572028</v>
+        <v>1.047650706375936</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05534859593326</v>
+        <v>1.018306809927547</v>
       </c>
       <c r="D20">
-        <v>1.062539319477858</v>
+        <v>1.03885036193139</v>
       </c>
       <c r="E20">
-        <v>1.068807036189323</v>
+        <v>1.037977481807245</v>
       </c>
       <c r="F20">
-        <v>1.075358297606472</v>
+        <v>1.045530443639687</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050838752840588</v>
+        <v>1.054601037935383</v>
       </c>
       <c r="J20">
-        <v>1.061417200516068</v>
+        <v>1.045149828738202</v>
       </c>
       <c r="K20">
-        <v>1.065822687907892</v>
+        <v>1.052242823211464</v>
       </c>
       <c r="L20">
-        <v>1.072069825838348</v>
+        <v>1.051383870389184</v>
       </c>
       <c r="M20">
-        <v>1.078599858350815</v>
+        <v>1.058817305381752</v>
       </c>
       <c r="N20">
-        <v>1.062924534687055</v>
+        <v>1.046634061375371</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054286965264342</v>
+        <v>1.012817277723544</v>
       </c>
       <c r="D21">
-        <v>1.061686340829778</v>
+        <v>1.034608311485264</v>
       </c>
       <c r="E21">
-        <v>1.067803041120726</v>
+        <v>1.033116682735696</v>
       </c>
       <c r="F21">
-        <v>1.074356129252719</v>
+        <v>1.040668827104219</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050541025989741</v>
+        <v>1.052765372794315</v>
       </c>
       <c r="J21">
-        <v>1.060743767465123</v>
+        <v>1.041788719188013</v>
       </c>
       <c r="K21">
-        <v>1.065173436213228</v>
+        <v>1.048962400115376</v>
       </c>
       <c r="L21">
-        <v>1.07126870734722</v>
+        <v>1.047496685509447</v>
       </c>
       <c r="M21">
-        <v>1.077799135416139</v>
+        <v>1.054918613165102</v>
       </c>
       <c r="N21">
-        <v>1.062250145283935</v>
+        <v>1.043268178664096</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053620216452081</v>
+        <v>1.00928922462455</v>
       </c>
       <c r="D22">
-        <v>1.061150694020858</v>
+        <v>1.031887089775727</v>
       </c>
       <c r="E22">
-        <v>1.067172863304253</v>
+        <v>1.029999847525565</v>
       </c>
       <c r="F22">
-        <v>1.073727065363978</v>
+        <v>1.037551467343693</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050352985766181</v>
+        <v>1.051578173037525</v>
       </c>
       <c r="J22">
-        <v>1.060320389857331</v>
+        <v>1.039627050291339</v>
       </c>
       <c r="K22">
-        <v>1.064765160196656</v>
+        <v>1.046852262229045</v>
       </c>
       <c r="L22">
-        <v>1.070765397142188</v>
+        <v>1.044999541941881</v>
       </c>
       <c r="M22">
-        <v>1.077296037784854</v>
+        <v>1.052414005441749</v>
       </c>
       <c r="N22">
-        <v>1.061826166431377</v>
+        <v>1.041103439949642</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.053973602026852</v>
+        <v>1.011167004374776</v>
       </c>
       <c r="D23">
-        <v>1.06143458797088</v>
+        <v>1.033334938068488</v>
       </c>
       <c r="E23">
-        <v>1.067506830197847</v>
+        <v>1.031658069127199</v>
       </c>
       <c r="F23">
-        <v>1.074060445010109</v>
+        <v>1.039209966332726</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050452749583598</v>
+        <v>1.052210737746283</v>
       </c>
       <c r="J23">
-        <v>1.060544826523528</v>
+        <v>1.040777711611469</v>
       </c>
       <c r="K23">
-        <v>1.064981600895847</v>
+        <v>1.047975524489658</v>
       </c>
       <c r="L23">
-        <v>1.07103217450944</v>
+        <v>1.046328507555691</v>
       </c>
       <c r="M23">
-        <v>1.077562705875741</v>
+        <v>1.053746948762683</v>
       </c>
       <c r="N23">
-        <v>1.062050921823382</v>
+        <v>1.042255735340829</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.055366406779507</v>
+        <v>1.018397595538492</v>
       </c>
       <c r="D24">
-        <v>1.062553630766937</v>
+        <v>1.038920596631615</v>
       </c>
       <c r="E24">
-        <v>1.06882388638867</v>
+        <v>1.038057984243438</v>
       </c>
       <c r="F24">
-        <v>1.075375116591255</v>
+        <v>1.045610959238874</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050843729859307</v>
+        <v>1.054631269308239</v>
       </c>
       <c r="J24">
-        <v>1.061428491250354</v>
+        <v>1.045205386120434</v>
       </c>
       <c r="K24">
-        <v>1.065833571503122</v>
+        <v>1.052297040221005</v>
       </c>
       <c r="L24">
-        <v>1.07208326312599</v>
+        <v>1.051448171199484</v>
       </c>
       <c r="M24">
-        <v>1.078613288391882</v>
+        <v>1.058881795040751</v>
       </c>
       <c r="N24">
-        <v>1.06293584145548</v>
+        <v>1.046689697655458</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056985864290414</v>
+        <v>1.026477162546541</v>
       </c>
       <c r="D25">
-        <v>1.063855018413424</v>
+        <v>1.045181390099824</v>
       </c>
       <c r="E25">
-        <v>1.070356880605381</v>
+        <v>1.045237605681158</v>
       </c>
       <c r="F25">
-        <v>1.076905191627113</v>
+        <v>1.052791628130324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051293730254057</v>
+        <v>1.057303450748814</v>
       </c>
       <c r="J25">
-        <v>1.062454058020433</v>
+        <v>1.050145178176283</v>
       </c>
       <c r="K25">
-        <v>1.066821912646208</v>
+        <v>1.057116593204336</v>
       </c>
       <c r="L25">
-        <v>1.07330462603446</v>
+        <v>1.057172028784598</v>
       </c>
       <c r="M25">
-        <v>1.079833905521387</v>
+        <v>1.064622191665145</v>
       </c>
       <c r="N25">
-        <v>1.063962864648006</v>
+        <v>1.051636504782629</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032692804586779</v>
+        <v>1.013474174356101</v>
       </c>
       <c r="D2">
-        <v>1.05001121373994</v>
+        <v>1.035393846611121</v>
       </c>
       <c r="E2">
-        <v>1.050781854068387</v>
+        <v>1.032678725445129</v>
       </c>
       <c r="F2">
-        <v>1.058336394923435</v>
+        <v>1.042501483287517</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05933172682084</v>
+        <v>1.056066609225935</v>
       </c>
       <c r="J2">
-        <v>1.053937790821839</v>
+        <v>1.035259210749234</v>
       </c>
       <c r="K2">
-        <v>1.060815155848289</v>
+        <v>1.04638116460324</v>
       </c>
       <c r="L2">
-        <v>1.061576304628689</v>
+        <v>1.04370081947692</v>
       </c>
       <c r="M2">
-        <v>1.069038709423955</v>
+        <v>1.053398834518529</v>
       </c>
       <c r="N2">
-        <v>1.05543450337316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015546641061087</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050833913396529</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043865773109296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037083433451185</v>
+        <v>1.017111395417997</v>
       </c>
       <c r="D3">
-        <v>1.05342970589329</v>
+        <v>1.037848757060407</v>
       </c>
       <c r="E3">
-        <v>1.05470957014865</v>
+        <v>1.035682465690702</v>
       </c>
       <c r="F3">
-        <v>1.062264236460434</v>
+        <v>1.04520052953234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060747933465226</v>
+        <v>1.056875324520812</v>
       </c>
       <c r="J3">
-        <v>1.056611796277418</v>
+        <v>1.037146212084803</v>
       </c>
       <c r="K3">
-        <v>1.063421710084237</v>
+        <v>1.04801921929723</v>
       </c>
       <c r="L3">
-        <v>1.064687203885102</v>
+        <v>1.045878265772023</v>
       </c>
       <c r="M3">
-        <v>1.072157912676425</v>
+        <v>1.05528596915568</v>
       </c>
       <c r="N3">
-        <v>1.058112306223199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016185128360683</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.052327431429629</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04502135789746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039870874222648</v>
+        <v>1.019425723974874</v>
       </c>
       <c r="D4">
-        <v>1.055602818955836</v>
+        <v>1.039412758402964</v>
       </c>
       <c r="E4">
-        <v>1.057208143822418</v>
+        <v>1.03759898144886</v>
       </c>
       <c r="F4">
-        <v>1.064762755241379</v>
+        <v>1.046922465630128</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0616391657438</v>
+        <v>1.05737749022555</v>
       </c>
       <c r="J4">
-        <v>1.058306886259003</v>
+        <v>1.038345240896044</v>
       </c>
       <c r="K4">
-        <v>1.065073470338871</v>
+        <v>1.049057684626667</v>
       </c>
       <c r="L4">
-        <v>1.066661870704218</v>
+        <v>1.047263847904263</v>
       </c>
       <c r="M4">
-        <v>1.074137672209833</v>
+        <v>1.056485733439104</v>
       </c>
       <c r="N4">
-        <v>1.059809803426987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016590831126323</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.053276948568577</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045756520068656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041030317102011</v>
+        <v>1.02039233543866</v>
       </c>
       <c r="D5">
-        <v>1.056507371174673</v>
+        <v>1.040068038267548</v>
       </c>
       <c r="E5">
-        <v>1.058248602760043</v>
+        <v>1.03840107884743</v>
       </c>
       <c r="F5">
-        <v>1.065803155761106</v>
+        <v>1.047643152467885</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062007958811493</v>
+        <v>1.057585417942533</v>
       </c>
       <c r="J5">
-        <v>1.059011326165453</v>
+        <v>1.03884688783467</v>
       </c>
       <c r="K5">
-        <v>1.065759759975433</v>
+        <v>1.04949268520287</v>
       </c>
       <c r="L5">
-        <v>1.067483128393828</v>
+        <v>1.047843565899199</v>
       </c>
       <c r="M5">
-        <v>1.074961002344953</v>
+        <v>1.056987603410694</v>
       </c>
       <c r="N5">
-        <v>1.060515243718905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016760942881715</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053674138017195</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046071209765326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,81 +645,105 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041224277884008</v>
+        <v>1.020557494256385</v>
       </c>
       <c r="D6">
-        <v>1.056658728279979</v>
+        <v>1.040181992746547</v>
       </c>
       <c r="E6">
-        <v>1.058422726861608</v>
+        <v>1.038538688659598</v>
       </c>
       <c r="F6">
-        <v>1.065977267904376</v>
+        <v>1.04776688326661</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062069539864022</v>
+        <v>1.057622245808048</v>
       </c>
       <c r="J6">
-        <v>1.059129132172816</v>
+        <v>1.038934126844741</v>
       </c>
       <c r="K6">
-        <v>1.065874522033849</v>
+        <v>1.049569648491253</v>
       </c>
       <c r="L6">
-        <v>1.067620507500809</v>
+        <v>1.04794385112233</v>
       </c>
       <c r="M6">
-        <v>1.075098725367799</v>
+        <v>1.057074604009144</v>
       </c>
       <c r="N6">
-        <v>1.06063321702431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016790984403308</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053742991925634</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046134301762884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039886414909227</v>
+        <v>1.01944776804737</v>
       </c>
       <c r="D7">
-        <v>1.055614940720016</v>
+        <v>1.039432939699832</v>
       </c>
       <c r="E7">
-        <v>1.057222085116405</v>
+        <v>1.037618571790381</v>
       </c>
       <c r="F7">
-        <v>1.064776695897158</v>
+        <v>1.046940298360749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061644116502425</v>
+        <v>1.057386190579158</v>
       </c>
       <c r="J7">
-        <v>1.058316330829683</v>
+        <v>1.038360835901176</v>
       </c>
       <c r="K7">
-        <v>1.065082672140081</v>
+        <v>1.04907479479458</v>
       </c>
       <c r="L7">
-        <v>1.066672878973967</v>
+        <v>1.047280366039686</v>
       </c>
       <c r="M7">
-        <v>1.074148708442702</v>
+        <v>1.056500551352595</v>
       </c>
       <c r="N7">
-        <v>1.059819261410041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016597366401738</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.053288675750365</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045788568576091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034188000957959</v>
+        <v>1.014722952465106</v>
       </c>
       <c r="D8">
-        <v>1.051174734208003</v>
+        <v>1.036242632712964</v>
       </c>
       <c r="E8">
-        <v>1.052118337108953</v>
+        <v>1.033710508599934</v>
       </c>
       <c r="F8">
-        <v>1.059672946817857</v>
+        <v>1.043428857393337</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059815633665126</v>
+        <v>1.05635155842919</v>
       </c>
       <c r="J8">
-        <v>1.054848916186938</v>
+        <v>1.035912525861363</v>
       </c>
       <c r="K8">
-        <v>1.061703414179379</v>
+        <v>1.046953072306897</v>
       </c>
       <c r="L8">
-        <v>1.062635746097801</v>
+        <v>1.04445241894689</v>
       </c>
       <c r="M8">
-        <v>1.070101014494572</v>
+        <v>1.054051016326482</v>
       </c>
       <c r="N8">
-        <v>1.056346922640785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015769325285391</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051350064129204</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044292891404019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023715767642105</v>
+        <v>1.00607000722782</v>
       </c>
       <c r="D9">
-        <v>1.043039362885226</v>
+        <v>1.030409244904498</v>
       </c>
       <c r="E9">
-        <v>1.042780378779759</v>
+        <v>1.026594400862271</v>
       </c>
       <c r="F9">
-        <v>1.050334077991035</v>
+        <v>1.037033796376469</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056394401387275</v>
+        <v>1.054354491789262</v>
       </c>
       <c r="J9">
-        <v>1.048457986058669</v>
+        <v>1.031410223826915</v>
       </c>
       <c r="K9">
-        <v>1.055470723338676</v>
+        <v>1.043027493783969</v>
       </c>
       <c r="L9">
-        <v>1.055215513755712</v>
+        <v>1.039270250325676</v>
       </c>
       <c r="M9">
-        <v>1.062660090767538</v>
+        <v>1.049553300204382</v>
       </c>
       <c r="N9">
-        <v>1.049946916658684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014244558628306</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047790467435715</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041514130249305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016414259952146</v>
+        <v>1.000126924578619</v>
       </c>
       <c r="D10">
-        <v>1.03738681213071</v>
+        <v>1.026431686597525</v>
       </c>
       <c r="E10">
-        <v>1.036300152571725</v>
+        <v>1.021760002846769</v>
       </c>
       <c r="F10">
-        <v>1.043852836252705</v>
+        <v>1.032719422184504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053969859342808</v>
+        <v>1.052937638668904</v>
       </c>
       <c r="J10">
-        <v>1.043991435618038</v>
+        <v>1.02833550761043</v>
       </c>
       <c r="K10">
-        <v>1.051112325213138</v>
+        <v>1.040339563162847</v>
       </c>
       <c r="L10">
-        <v>1.05004353303795</v>
+        <v>1.035747182493436</v>
       </c>
       <c r="M10">
-        <v>1.057473019301812</v>
+        <v>1.046522021394673</v>
       </c>
       <c r="N10">
-        <v>1.045474023204107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013209672081341</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045442440903531</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039630327107793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013169433012815</v>
+        <v>0.9979150677369085</v>
       </c>
       <c r="D11">
-        <v>1.034880152729288</v>
+        <v>1.025061987809976</v>
       </c>
       <c r="E11">
-        <v>1.033428097046836</v>
+        <v>1.020140801613698</v>
       </c>
       <c r="F11">
-        <v>1.040980294359232</v>
+        <v>1.031515877446488</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052883566697604</v>
+        <v>1.05252215396671</v>
       </c>
       <c r="J11">
-        <v>1.04200442845456</v>
+        <v>1.027374840290383</v>
       </c>
       <c r="K11">
-        <v>1.049172953006532</v>
+        <v>1.039526258199553</v>
       </c>
       <c r="L11">
-        <v>1.047745991242904</v>
+        <v>1.034692631295071</v>
       </c>
       <c r="M11">
-        <v>1.055168661542208</v>
+        <v>1.045866957478272</v>
       </c>
       <c r="N11">
-        <v>1.043484194262544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012936807025225</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045356808679277</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039087951950554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011950988818391</v>
+        <v>0.9972287282021283</v>
       </c>
       <c r="D12">
-        <v>1.033939761704422</v>
+        <v>1.024675801736874</v>
       </c>
       <c r="E12">
-        <v>1.032350851342404</v>
+        <v>1.019709765944636</v>
       </c>
       <c r="F12">
-        <v>1.039902865708504</v>
+        <v>1.031310089570665</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052474378039783</v>
+        <v>1.05243933302209</v>
       </c>
       <c r="J12">
-        <v>1.041258034165859</v>
+        <v>1.027150838076337</v>
       </c>
       <c r="K12">
-        <v>1.048444389256378</v>
+        <v>1.039345044789826</v>
       </c>
       <c r="L12">
-        <v>1.046883440806403</v>
+        <v>1.034468855249274</v>
       </c>
       <c r="M12">
-        <v>1.054303539521893</v>
+        <v>1.045861055104632</v>
       </c>
       <c r="N12">
-        <v>1.04273674000834</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012900599998133</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045676210458022</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038959829520545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012212956446397</v>
+        <v>0.9976852645889801</v>
       </c>
       <c r="D13">
-        <v>1.034141907125411</v>
+        <v>1.025038010419389</v>
       </c>
       <c r="E13">
-        <v>1.032582405005659</v>
+        <v>1.020179656091176</v>
       </c>
       <c r="F13">
-        <v>1.040134458637442</v>
+        <v>1.03187902008633</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052562411538965</v>
+        <v>1.052621788155421</v>
       </c>
       <c r="J13">
-        <v>1.04141852156378</v>
+        <v>1.027494931579994</v>
       </c>
       <c r="K13">
-        <v>1.048601045483806</v>
+        <v>1.039658266148063</v>
       </c>
       <c r="L13">
-        <v>1.047068881516991</v>
+        <v>1.034887423702595</v>
       </c>
       <c r="M13">
-        <v>1.054489533605931</v>
+        <v>1.046377862022113</v>
       </c>
       <c r="N13">
-        <v>1.042897455316775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013051228402614</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046359760660383</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039178806036193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013068988732752</v>
+        <v>0.9985233038075785</v>
       </c>
       <c r="D14">
-        <v>1.034802612148154</v>
+        <v>1.025631838885607</v>
       </c>
       <c r="E14">
-        <v>1.033339267539029</v>
+        <v>1.020917102402765</v>
       </c>
       <c r="F14">
-        <v>1.040891449746892</v>
+        <v>1.032628823535966</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052849860426049</v>
+        <v>1.052869938043676</v>
       </c>
       <c r="J14">
-        <v>1.04194290347702</v>
+        <v>1.027993386427656</v>
       </c>
       <c r="K14">
-        <v>1.049112899019851</v>
+        <v>1.040102397838476</v>
       </c>
       <c r="L14">
-        <v>1.0476748815609</v>
+        <v>1.035471513407316</v>
       </c>
       <c r="M14">
-        <v>1.055097340089634</v>
+        <v>1.046976767222443</v>
       </c>
       <c r="N14">
-        <v>1.043422581912478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013241425155885</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047005541685244</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039494235117758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013594652496039</v>
+        <v>0.9989814325593958</v>
       </c>
       <c r="D15">
-        <v>1.035208447795604</v>
+        <v>1.025946627093854</v>
       </c>
       <c r="E15">
-        <v>1.033804196823229</v>
+        <v>1.021301069577507</v>
       </c>
       <c r="F15">
-        <v>1.041356458096301</v>
+        <v>1.032991935684141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053026206369995</v>
+        <v>1.05299231796498</v>
       </c>
       <c r="J15">
-        <v>1.042264876889201</v>
+        <v>1.028245300820061</v>
       </c>
       <c r="K15">
-        <v>1.04942717190921</v>
+        <v>1.040325967693589</v>
       </c>
       <c r="L15">
-        <v>1.048047033851092</v>
+        <v>1.035762395886869</v>
       </c>
       <c r="M15">
-        <v>1.055470600187208</v>
+        <v>1.047248759050681</v>
       </c>
       <c r="N15">
-        <v>1.043745012563837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013331287408351</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.047257869274443</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039658142131941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016627798987387</v>
+        <v>1.001414610655714</v>
       </c>
       <c r="D16">
-        <v>1.037551890117448</v>
+        <v>1.027571144083525</v>
       </c>
       <c r="E16">
-        <v>1.036489326557863</v>
+        <v>1.023266876002615</v>
       </c>
       <c r="F16">
-        <v>1.044042041928254</v>
+        <v>1.034736658480488</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054041167006663</v>
+        <v>1.053580482076679</v>
       </c>
       <c r="J16">
-        <v>1.044122159476649</v>
+        <v>1.029495609399096</v>
       </c>
       <c r="K16">
-        <v>1.051239905977781</v>
+        <v>1.041424548849683</v>
       </c>
       <c r="L16">
-        <v>1.050194755128142</v>
+        <v>1.037192891107418</v>
       </c>
       <c r="M16">
-        <v>1.057624688018076</v>
+        <v>1.048470909348392</v>
       </c>
       <c r="N16">
-        <v>1.045604932705592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013745861312009</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.048185349064945</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040438017130829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018507672145234</v>
+        <v>1.002843370487429</v>
       </c>
       <c r="D17">
-        <v>1.039005758927423</v>
+        <v>1.028506814553034</v>
       </c>
       <c r="E17">
-        <v>1.038155597650752</v>
+        <v>1.024389196682632</v>
       </c>
       <c r="F17">
-        <v>1.045708588580185</v>
+        <v>1.035678933063593</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054667918763266</v>
+        <v>1.053897989213473</v>
       </c>
       <c r="J17">
-        <v>1.045272747505171</v>
+        <v>1.030192718972804</v>
       </c>
       <c r="K17">
-        <v>1.052362776133698</v>
+        <v>1.042032819692543</v>
       </c>
       <c r="L17">
-        <v>1.051526135825887</v>
+        <v>1.037982694293843</v>
       </c>
       <c r="M17">
-        <v>1.05895998857012</v>
+        <v>1.049089022366781</v>
       </c>
       <c r="N17">
-        <v>1.046757154701089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013963900680083</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048545634480436</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04087065409039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019596187563573</v>
+        <v>1.003529671159665</v>
       </c>
       <c r="D18">
-        <v>1.039848107387307</v>
+        <v>1.028917934654906</v>
       </c>
       <c r="E18">
-        <v>1.039121166171604</v>
+        <v>1.024866883273598</v>
       </c>
       <c r="F18">
-        <v>1.046674312989816</v>
+        <v>1.035983484920171</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055029990796001</v>
+        <v>1.0540034094911</v>
       </c>
       <c r="J18">
-        <v>1.045938782554684</v>
+        <v>1.030459991779405</v>
       </c>
       <c r="K18">
-        <v>1.053012720281596</v>
+        <v>1.042255502410686</v>
       </c>
       <c r="L18">
-        <v>1.052297137461871</v>
+        <v>1.038269756375456</v>
       </c>
       <c r="M18">
-        <v>1.059733249243504</v>
+        <v>1.049208716292978</v>
       </c>
       <c r="N18">
-        <v>1.047424135596767</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01402469939736</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048404143040447</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041016531628875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019966008726632</v>
+        <v>1.003548150954413</v>
       </c>
       <c r="D19">
-        <v>1.040134377625525</v>
+        <v>1.028861830780266</v>
       </c>
       <c r="E19">
-        <v>1.039449339794357</v>
+        <v>1.024762117538196</v>
       </c>
       <c r="F19">
-        <v>1.047002538809087</v>
+        <v>1.035712041795904</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055152860366234</v>
+        <v>1.053923188272744</v>
       </c>
       <c r="J19">
-        <v>1.046165032033642</v>
+        <v>1.030343932745351</v>
       </c>
       <c r="K19">
-        <v>1.053233495682902</v>
+        <v>1.042138323037869</v>
       </c>
       <c r="L19">
-        <v>1.052559096652847</v>
+        <v>1.038104360725577</v>
       </c>
       <c r="M19">
-        <v>1.059995973998222</v>
+        <v>1.048880156804329</v>
       </c>
       <c r="N19">
-        <v>1.047650706375936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013948923481752</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.047821318925471</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040940038301244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018306809927547</v>
+        <v>1.001689752575373</v>
       </c>
       <c r="D20">
-        <v>1.03885036193139</v>
+        <v>1.027489339873683</v>
       </c>
       <c r="E20">
-        <v>1.037977481807245</v>
+        <v>1.023033321739856</v>
       </c>
       <c r="F20">
-        <v>1.045530443639687</v>
+        <v>1.033857580973114</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054601037935383</v>
+        <v>1.053324111367331</v>
       </c>
       <c r="J20">
-        <v>1.045149828738202</v>
+        <v>1.029155692134502</v>
       </c>
       <c r="K20">
-        <v>1.052242823211464</v>
+        <v>1.041065451650598</v>
       </c>
       <c r="L20">
-        <v>1.051383870389184</v>
+        <v>1.036682898537412</v>
       </c>
       <c r="M20">
-        <v>1.058817305381752</v>
+        <v>1.04733011233876</v>
       </c>
       <c r="N20">
-        <v>1.046634061375371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013489650203393</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046071493131676</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040185383327756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012817277723544</v>
+        <v>0.9971505971106792</v>
       </c>
       <c r="D21">
-        <v>1.034608311485264</v>
+        <v>1.024433801754513</v>
       </c>
       <c r="E21">
-        <v>1.033116682735696</v>
+        <v>1.019317939079038</v>
       </c>
       <c r="F21">
-        <v>1.040668827104219</v>
+        <v>1.030494911969007</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052765372794315</v>
+        <v>1.052195059009375</v>
       </c>
       <c r="J21">
-        <v>1.041788719188013</v>
+        <v>1.02676793565588</v>
       </c>
       <c r="K21">
-        <v>1.048962400115376</v>
+        <v>1.038966597131371</v>
       </c>
       <c r="L21">
-        <v>1.047496685509447</v>
+        <v>1.033942342310384</v>
       </c>
       <c r="M21">
-        <v>1.054918613165102</v>
+        <v>1.04492069845808</v>
       </c>
       <c r="N21">
-        <v>1.043268178664096</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012676427348477</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044124101235388</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038704641987113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00928922462455</v>
+        <v>0.9942594347960635</v>
       </c>
       <c r="D22">
-        <v>1.031887089775727</v>
+        <v>1.022493473166401</v>
       </c>
       <c r="E22">
-        <v>1.029999847525565</v>
+        <v>1.016968417128646</v>
       </c>
       <c r="F22">
-        <v>1.037551467343693</v>
+        <v>1.028383795930247</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051578173037525</v>
+        <v>1.051468205506249</v>
       </c>
       <c r="J22">
-        <v>1.039627050291339</v>
+        <v>1.025253671235403</v>
       </c>
       <c r="K22">
-        <v>1.046852262229045</v>
+        <v>1.037632122806054</v>
       </c>
       <c r="L22">
-        <v>1.044999541941881</v>
+        <v>1.032211058016844</v>
       </c>
       <c r="M22">
-        <v>1.052414005441749</v>
+        <v>1.043413182830415</v>
       </c>
       <c r="N22">
-        <v>1.041103439949642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01216207110519</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042931008675537</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037747684434869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011167004374776</v>
+        <v>0.9957890701964849</v>
       </c>
       <c r="D23">
-        <v>1.033334938068488</v>
+        <v>1.023515398406563</v>
       </c>
       <c r="E23">
-        <v>1.031658069127199</v>
+        <v>1.018209606194677</v>
       </c>
       <c r="F23">
-        <v>1.039209966332726</v>
+        <v>1.029499011616423</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052210737746283</v>
+        <v>1.051850922697724</v>
       </c>
       <c r="J23">
-        <v>1.040777711611469</v>
+        <v>1.026051312087637</v>
       </c>
       <c r="K23">
-        <v>1.047975524489658</v>
+        <v>1.038332604371688</v>
       </c>
       <c r="L23">
-        <v>1.046328507555691</v>
+        <v>1.03312409276404</v>
       </c>
       <c r="M23">
-        <v>1.053746948762683</v>
+        <v>1.044208072132272</v>
       </c>
       <c r="N23">
-        <v>1.042255735340829</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012431636906266</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043560107877893</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038233362872415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018397595538492</v>
+        <v>1.001710731216956</v>
       </c>
       <c r="D24">
-        <v>1.038920596631615</v>
+        <v>1.027486219732097</v>
       </c>
       <c r="E24">
-        <v>1.038057984243438</v>
+        <v>1.023031424073348</v>
       </c>
       <c r="F24">
-        <v>1.045610959238874</v>
+        <v>1.033831913426798</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054631269308239</v>
+        <v>1.053312207731675</v>
       </c>
       <c r="J24">
-        <v>1.045205386120434</v>
+        <v>1.02914308660728</v>
       </c>
       <c r="K24">
-        <v>1.052297040221005</v>
+        <v>1.041047248274609</v>
       </c>
       <c r="L24">
-        <v>1.051448171199484</v>
+        <v>1.03666580393622</v>
       </c>
       <c r="M24">
-        <v>1.058881795040751</v>
+        <v>1.047289856513733</v>
       </c>
       <c r="N24">
-        <v>1.046689697655458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013478838854728</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.045999119222123</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040145265373794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026477162546541</v>
+        <v>1.008360205218894</v>
       </c>
       <c r="D25">
-        <v>1.045181390099824</v>
+        <v>1.031958638776073</v>
       </c>
       <c r="E25">
-        <v>1.045237605681158</v>
+        <v>1.028474597889094</v>
       </c>
       <c r="F25">
-        <v>1.052791628130324</v>
+        <v>1.0387236914648</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057303450748814</v>
+        <v>1.054899718256102</v>
       </c>
       <c r="J25">
-        <v>1.050145178176283</v>
+        <v>1.032609453958669</v>
       </c>
       <c r="K25">
-        <v>1.057116593204336</v>
+        <v>1.044080298092589</v>
       </c>
       <c r="L25">
-        <v>1.057172028784598</v>
+        <v>1.040646397448444</v>
       </c>
       <c r="M25">
-        <v>1.064622191665145</v>
+        <v>1.050749206229129</v>
       </c>
       <c r="N25">
-        <v>1.051636504782629</v>
+        <v>1.014652849251375</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048736936819324</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04228691666449</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013474174356101</v>
+        <v>1.012558510581677</v>
       </c>
       <c r="D2">
-        <v>1.035393846611121</v>
+        <v>1.033857225387887</v>
       </c>
       <c r="E2">
-        <v>1.032678725445129</v>
+        <v>1.031728201928953</v>
       </c>
       <c r="F2">
-        <v>1.042501483287517</v>
+        <v>1.041475068987419</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056066609225935</v>
+        <v>1.055272304917027</v>
       </c>
       <c r="J2">
-        <v>1.035259210749234</v>
+        <v>1.034369978936963</v>
       </c>
       <c r="K2">
-        <v>1.04638116460324</v>
+        <v>1.044864196816365</v>
       </c>
       <c r="L2">
-        <v>1.04370081947692</v>
+        <v>1.042762524631041</v>
       </c>
       <c r="M2">
-        <v>1.053398834518529</v>
+        <v>1.052385317692561</v>
       </c>
       <c r="N2">
-        <v>1.015546641061087</v>
+        <v>1.016237225333085</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050833913396529</v>
+        <v>1.050031793639617</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043865773109296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042801874408344</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023958850090255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017111395417997</v>
+        <v>1.016058818101245</v>
       </c>
       <c r="D3">
-        <v>1.037848757060407</v>
+        <v>1.036141884850423</v>
       </c>
       <c r="E3">
-        <v>1.035682465690702</v>
+        <v>1.034597793057492</v>
       </c>
       <c r="F3">
-        <v>1.04520052953234</v>
+        <v>1.044048351212002</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056875324520812</v>
+        <v>1.055991604636762</v>
       </c>
       <c r="J3">
-        <v>1.037146212084803</v>
+        <v>1.036121075008649</v>
       </c>
       <c r="K3">
-        <v>1.04801921929723</v>
+        <v>1.046332300421596</v>
       </c>
       <c r="L3">
-        <v>1.045878265772023</v>
+        <v>1.044806329264447</v>
       </c>
       <c r="M3">
-        <v>1.05528596915568</v>
+        <v>1.054147017977036</v>
       </c>
       <c r="N3">
-        <v>1.016185128360683</v>
+        <v>1.016707490039754</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052327431429629</v>
+        <v>1.051426041873582</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04502135789746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043837015285281</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024250175464842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019425723974874</v>
+        <v>1.018286889250472</v>
       </c>
       <c r="D4">
-        <v>1.039412758402964</v>
+        <v>1.037598116230303</v>
       </c>
       <c r="E4">
-        <v>1.03759898144886</v>
+        <v>1.036429619282843</v>
       </c>
       <c r="F4">
-        <v>1.046922465630128</v>
+        <v>1.04569080202377</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05737749022555</v>
+        <v>1.056437057753193</v>
       </c>
       <c r="J4">
-        <v>1.038345240896044</v>
+        <v>1.037234106364767</v>
       </c>
       <c r="K4">
-        <v>1.049057684626667</v>
+        <v>1.047262992218154</v>
       </c>
       <c r="L4">
-        <v>1.047263847904263</v>
+        <v>1.046107386908607</v>
       </c>
       <c r="M4">
-        <v>1.056485733439104</v>
+        <v>1.055267363987289</v>
       </c>
       <c r="N4">
-        <v>1.016590831126323</v>
+        <v>1.017006450640033</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053276948568577</v>
+        <v>1.052312706922647</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045756520068656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044496056230098</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024432484475978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02039233543866</v>
+        <v>1.019217658263484</v>
       </c>
       <c r="D5">
-        <v>1.040068038267548</v>
+        <v>1.038208574769258</v>
       </c>
       <c r="E5">
-        <v>1.03840107884743</v>
+        <v>1.037196497752803</v>
       </c>
       <c r="F5">
-        <v>1.047643152467885</v>
+        <v>1.046378435768471</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057585417942533</v>
+        <v>1.056621371211246</v>
       </c>
       <c r="J5">
-        <v>1.03884688783467</v>
+        <v>1.037699937349414</v>
       </c>
       <c r="K5">
-        <v>1.04949268520287</v>
+        <v>1.047653126556988</v>
       </c>
       <c r="L5">
-        <v>1.047843565899199</v>
+        <v>1.046651920198291</v>
       </c>
       <c r="M5">
-        <v>1.056987603410694</v>
+        <v>1.055736177248235</v>
       </c>
       <c r="N5">
-        <v>1.016760942881715</v>
+        <v>1.017131870318779</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053674138017195</v>
+        <v>1.052683735142077</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046071209765326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044779733343603</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024508746736118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020557494256385</v>
+        <v>1.019376689883132</v>
       </c>
       <c r="D6">
-        <v>1.040181992746547</v>
+        <v>1.03831495232006</v>
       </c>
       <c r="E6">
-        <v>1.038538688659598</v>
+        <v>1.037328097524131</v>
       </c>
       <c r="F6">
-        <v>1.04776688326661</v>
+        <v>1.046496552630638</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057622245808048</v>
+        <v>1.056654204631474</v>
       </c>
       <c r="J6">
-        <v>1.038934126844741</v>
+        <v>1.037781051875558</v>
       </c>
       <c r="K6">
-        <v>1.049569648491253</v>
+        <v>1.047722503576001</v>
       </c>
       <c r="L6">
-        <v>1.04794385112233</v>
+        <v>1.04674620031499</v>
       </c>
       <c r="M6">
-        <v>1.057074604009144</v>
+        <v>1.055817562305807</v>
       </c>
       <c r="N6">
-        <v>1.016790984403308</v>
+        <v>1.017154057688312</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053742991925634</v>
+        <v>1.052748144890657</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046134301762884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044838330008026</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024522782716494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01944776804737</v>
+        <v>1.018315702876268</v>
       </c>
       <c r="D7">
-        <v>1.039432939699832</v>
+        <v>1.037622668482599</v>
       </c>
       <c r="E7">
-        <v>1.037618571790381</v>
+        <v>1.036455251647637</v>
       </c>
       <c r="F7">
-        <v>1.046940298360749</v>
+        <v>1.045713177416992</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057386190579158</v>
+        <v>1.056448105324008</v>
       </c>
       <c r="J7">
-        <v>1.038360835901176</v>
+        <v>1.037256294391227</v>
       </c>
       <c r="K7">
-        <v>1.04907479479458</v>
+        <v>1.047284417614434</v>
       </c>
       <c r="L7">
-        <v>1.047280366039686</v>
+        <v>1.046129875448608</v>
       </c>
       <c r="M7">
-        <v>1.056500551352595</v>
+        <v>1.055286670510232</v>
       </c>
       <c r="N7">
-        <v>1.016597366401738</v>
+        <v>1.017039277368686</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053288675750365</v>
+        <v>1.052327986495817</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045788568576091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04453315445138</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024438625475543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014722952465106</v>
+        <v>1.013783486877164</v>
       </c>
       <c r="D8">
-        <v>1.036242632712964</v>
+        <v>1.034663676125028</v>
       </c>
       <c r="E8">
-        <v>1.033710508599934</v>
+        <v>1.032734810224602</v>
       </c>
       <c r="F8">
-        <v>1.043428857393337</v>
+        <v>1.042375314073151</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05635155842919</v>
+        <v>1.055535198882614</v>
       </c>
       <c r="J8">
-        <v>1.035912525861363</v>
+        <v>1.034999277070634</v>
       </c>
       <c r="K8">
-        <v>1.046953072306897</v>
+        <v>1.045393717414904</v>
       </c>
       <c r="L8">
-        <v>1.04445241894689</v>
+        <v>1.043488898470364</v>
       </c>
       <c r="M8">
-        <v>1.054051016326482</v>
+        <v>1.053010320811905</v>
       </c>
       <c r="N8">
-        <v>1.015769325285391</v>
+        <v>1.016486247027072</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051350064129204</v>
+        <v>1.050526435110236</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044292891404019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04320128876356</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024067861310128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00607000722782</v>
+        <v>1.005465211862206</v>
       </c>
       <c r="D9">
-        <v>1.030409244904498</v>
+        <v>1.029240944582079</v>
       </c>
       <c r="E9">
-        <v>1.026594400862271</v>
+        <v>1.025945073647485</v>
       </c>
       <c r="F9">
-        <v>1.037033796376469</v>
+        <v>1.036285136823954</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054354491789262</v>
+        <v>1.053753167672299</v>
       </c>
       <c r="J9">
-        <v>1.031410223826915</v>
+        <v>1.030826444595776</v>
       </c>
       <c r="K9">
-        <v>1.043027493783969</v>
+        <v>1.041876775945801</v>
       </c>
       <c r="L9">
-        <v>1.039270250325676</v>
+        <v>1.038630781718475</v>
       </c>
       <c r="M9">
-        <v>1.049553300204382</v>
+        <v>1.048815719696899</v>
       </c>
       <c r="N9">
-        <v>1.014244558628306</v>
+        <v>1.015374451408261</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047790467435715</v>
+        <v>1.0472067275137</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041514130249305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040711178376492</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023355414634631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000126924578619</v>
+        <v>0.9997886703553323</v>
       </c>
       <c r="D10">
-        <v>1.026431686597525</v>
+        <v>1.025569670014818</v>
       </c>
       <c r="E10">
-        <v>1.021760002846769</v>
+        <v>1.021366709280136</v>
       </c>
       <c r="F10">
-        <v>1.032719422184504</v>
+        <v>1.032204909362219</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052937638668904</v>
+        <v>1.052496336298953</v>
       </c>
       <c r="J10">
-        <v>1.02833550761043</v>
+        <v>1.028010675406684</v>
       </c>
       <c r="K10">
-        <v>1.040339563162847</v>
+        <v>1.039492109402467</v>
       </c>
       <c r="L10">
-        <v>1.035747182493436</v>
+        <v>1.035360607962541</v>
       </c>
       <c r="M10">
-        <v>1.046522021394673</v>
+        <v>1.046016061153269</v>
       </c>
       <c r="N10">
-        <v>1.013209672081341</v>
+        <v>1.014739976755135</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045442440903531</v>
+        <v>1.045042034466179</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039630327107793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039043479338962</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02286764198707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9979150677369085</v>
+        <v>0.9977068336554161</v>
       </c>
       <c r="D11">
-        <v>1.025061987809976</v>
+        <v>1.02433082914114</v>
       </c>
       <c r="E11">
-        <v>1.020140801613698</v>
+        <v>1.019869461828667</v>
       </c>
       <c r="F11">
-        <v>1.031515877446488</v>
+        <v>1.031109307261857</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05252215396671</v>
+        <v>1.052149691152055</v>
       </c>
       <c r="J11">
-        <v>1.027374840290383</v>
+        <v>1.02717532318091</v>
       </c>
       <c r="K11">
-        <v>1.039526258199553</v>
+        <v>1.038808039505367</v>
       </c>
       <c r="L11">
-        <v>1.034692631295071</v>
+        <v>1.034426151200194</v>
       </c>
       <c r="M11">
-        <v>1.045866957478272</v>
+        <v>1.045467463706228</v>
       </c>
       <c r="N11">
-        <v>1.012936807025225</v>
+        <v>1.014780646206246</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045356808679277</v>
+        <v>1.045040814058216</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039087951950554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038595693760133</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022764840747718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9972287282021283</v>
+        <v>0.9970585819540624</v>
       </c>
       <c r="D12">
-        <v>1.024675801736874</v>
+        <v>1.02398190549483</v>
       </c>
       <c r="E12">
-        <v>1.019709765944636</v>
+        <v>1.019474062066354</v>
       </c>
       <c r="F12">
-        <v>1.031310089570665</v>
+        <v>1.030935506276207</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05243933302209</v>
+        <v>1.052086626956415</v>
       </c>
       <c r="J12">
-        <v>1.027150838076337</v>
+        <v>1.026987951678358</v>
       </c>
       <c r="K12">
-        <v>1.039345044789826</v>
+        <v>1.038663634547107</v>
       </c>
       <c r="L12">
-        <v>1.034468855249274</v>
+        <v>1.034237444077216</v>
       </c>
       <c r="M12">
-        <v>1.045861055104632</v>
+        <v>1.045493097366989</v>
       </c>
       <c r="N12">
-        <v>1.012900599998133</v>
+        <v>1.014858935294777</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045676210458022</v>
+        <v>1.045385257587296</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038959829520545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038493597821537</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022760167298544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9976852645889801</v>
+        <v>0.9974736331943629</v>
       </c>
       <c r="D13">
-        <v>1.025038010419389</v>
+        <v>1.024303984892142</v>
       </c>
       <c r="E13">
-        <v>1.020179656091176</v>
+        <v>1.019905459303596</v>
       </c>
       <c r="F13">
-        <v>1.03187902008633</v>
+        <v>1.031472308989808</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052621788155421</v>
+        <v>1.052248259328459</v>
       </c>
       <c r="J13">
-        <v>1.027494931579994</v>
+        <v>1.027292285879005</v>
       </c>
       <c r="K13">
-        <v>1.039658266148063</v>
+        <v>1.038937393213795</v>
       </c>
       <c r="L13">
-        <v>1.034887423702595</v>
+        <v>1.034618198258603</v>
       </c>
       <c r="M13">
-        <v>1.046377862022113</v>
+        <v>1.045978310834588</v>
       </c>
       <c r="N13">
-        <v>1.013051228402614</v>
+        <v>1.01494070615717</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046359760660383</v>
+        <v>1.046043904567357</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039178806036193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038684427055318</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022835985281532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9985233038075785</v>
+        <v>0.9982475580514739</v>
       </c>
       <c r="D14">
-        <v>1.025631838885607</v>
+        <v>1.024835447246107</v>
       </c>
       <c r="E14">
-        <v>1.020917102402765</v>
+        <v>1.020583259497986</v>
       </c>
       <c r="F14">
-        <v>1.032628823535966</v>
+        <v>1.032171314145639</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052869938043676</v>
+        <v>1.052463857134706</v>
       </c>
       <c r="J14">
-        <v>1.027993386427656</v>
+        <v>1.027729181360955</v>
       </c>
       <c r="K14">
-        <v>1.040102397838476</v>
+        <v>1.039320099851744</v>
       </c>
       <c r="L14">
-        <v>1.035471513407316</v>
+        <v>1.035143646079875</v>
       </c>
       <c r="M14">
-        <v>1.046976767222443</v>
+        <v>1.046527209479286</v>
       </c>
       <c r="N14">
-        <v>1.013241425155885</v>
+        <v>1.015001116017983</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047005541685244</v>
+        <v>1.046650201589052</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039494235117758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038956560383814</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022926062672285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9989814325593958</v>
+        <v>0.9986731415205697</v>
       </c>
       <c r="D15">
-        <v>1.025946627093854</v>
+        <v>1.02511832323097</v>
       </c>
       <c r="E15">
-        <v>1.021301069577507</v>
+        <v>1.020936859278707</v>
       </c>
       <c r="F15">
-        <v>1.032991935684141</v>
+        <v>1.032508307604376</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05299231796498</v>
+        <v>1.052569542098747</v>
       </c>
       <c r="J15">
-        <v>1.028245300820061</v>
+        <v>1.027949800023209</v>
       </c>
       <c r="K15">
-        <v>1.040325967693589</v>
+        <v>1.039512211347449</v>
       </c>
       <c r="L15">
-        <v>1.035762395886869</v>
+        <v>1.035404654172915</v>
       </c>
       <c r="M15">
-        <v>1.047248759050681</v>
+        <v>1.046773472089193</v>
       </c>
       <c r="N15">
-        <v>1.013331287408351</v>
+        <v>1.015021715939612</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047257869274443</v>
+        <v>1.046882202066796</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039658142131941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039098793943723</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022968119847467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001414610655714</v>
+        <v>1.000950819914545</v>
       </c>
       <c r="D16">
-        <v>1.027571144083525</v>
+        <v>1.026586136163879</v>
       </c>
       <c r="E16">
-        <v>1.023266876002615</v>
+        <v>1.022756588830957</v>
       </c>
       <c r="F16">
-        <v>1.034736658480488</v>
+        <v>1.034125390110927</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053580482076679</v>
+        <v>1.053075577668719</v>
       </c>
       <c r="J16">
-        <v>1.029495609399096</v>
+        <v>1.029050099619308</v>
       </c>
       <c r="K16">
-        <v>1.041424548849683</v>
+        <v>1.040456088121894</v>
       </c>
       <c r="L16">
-        <v>1.037192891107418</v>
+        <v>1.036691264477423</v>
       </c>
       <c r="M16">
-        <v>1.048470909348392</v>
+        <v>1.047869722739855</v>
       </c>
       <c r="N16">
-        <v>1.013745861312009</v>
+        <v>1.01510458266131</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048185349064945</v>
+        <v>1.047710157184628</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040438017130829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039769585899905</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023159494192376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002843370487429</v>
+        <v>1.002302106017196</v>
       </c>
       <c r="D17">
-        <v>1.028506814553034</v>
+        <v>1.027439792093223</v>
       </c>
       <c r="E17">
-        <v>1.024389196682632</v>
+        <v>1.023805384131464</v>
       </c>
       <c r="F17">
-        <v>1.035678933063593</v>
+        <v>1.03500193404302</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053897989213473</v>
+        <v>1.053350045829976</v>
       </c>
       <c r="J17">
-        <v>1.030192718972804</v>
+        <v>1.029672104234894</v>
       </c>
       <c r="K17">
-        <v>1.042032819692543</v>
+        <v>1.040983220205067</v>
       </c>
       <c r="L17">
-        <v>1.037982694293843</v>
+        <v>1.037408507640038</v>
       </c>
       <c r="M17">
-        <v>1.049089022366781</v>
+        <v>1.04842287694127</v>
       </c>
       <c r="N17">
-        <v>1.013963900680083</v>
+        <v>1.01516515215415</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048545634480436</v>
+        <v>1.048019045641834</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04087065409039</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040145101757489</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023259314903173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003529671159665</v>
+        <v>1.002961598774539</v>
       </c>
       <c r="D18">
-        <v>1.028917934654906</v>
+        <v>1.027819788751903</v>
       </c>
       <c r="E18">
-        <v>1.024866883273598</v>
+        <v>1.024257069299907</v>
       </c>
       <c r="F18">
-        <v>1.035983484920171</v>
+        <v>1.035281783314903</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.0540034094911</v>
+        <v>1.053439024833309</v>
       </c>
       <c r="J18">
-        <v>1.030459991779405</v>
+        <v>1.029913185493267</v>
       </c>
       <c r="K18">
-        <v>1.042255502410686</v>
+        <v>1.041174994020349</v>
       </c>
       <c r="L18">
-        <v>1.038269756375456</v>
+        <v>1.037669830411522</v>
       </c>
       <c r="M18">
-        <v>1.049208716292978</v>
+        <v>1.048518083365064</v>
       </c>
       <c r="N18">
-        <v>1.01402469939736</v>
+        <v>1.015168356268849</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048404143040447</v>
+        <v>1.04785808433154</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041016531628875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040267990184457</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023281666530885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003548150954413</v>
+        <v>1.002993780351104</v>
       </c>
       <c r="D19">
-        <v>1.028861830780266</v>
+        <v>1.027775567541288</v>
       </c>
       <c r="E19">
-        <v>1.024762117538196</v>
+        <v>1.024164752285961</v>
       </c>
       <c r="F19">
-        <v>1.035712041795904</v>
+        <v>1.035019507201423</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053923188272744</v>
+        <v>1.053364822120088</v>
       </c>
       <c r="J19">
-        <v>1.030343932745351</v>
+        <v>1.029810192582278</v>
       </c>
       <c r="K19">
-        <v>1.042138323037869</v>
+        <v>1.041069415724514</v>
       </c>
       <c r="L19">
-        <v>1.038104360725577</v>
+        <v>1.037516632370872</v>
       </c>
       <c r="M19">
-        <v>1.048880156804329</v>
+        <v>1.048198495400274</v>
       </c>
       <c r="N19">
-        <v>1.013948923481752</v>
+        <v>1.015103947524988</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047821318925471</v>
+        <v>1.04728218008382</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040940038301244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040200323763199</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023236176823364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001689752575373</v>
+        <v>1.001259302200288</v>
       </c>
       <c r="D20">
-        <v>1.027489339873683</v>
+        <v>1.02653221133148</v>
       </c>
       <c r="E20">
-        <v>1.023033321739856</v>
+        <v>1.02255307116946</v>
       </c>
       <c r="F20">
-        <v>1.033857580973114</v>
+        <v>1.033266568978384</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053324111367331</v>
+        <v>1.052832998280034</v>
       </c>
       <c r="J20">
-        <v>1.029155692134502</v>
+        <v>1.028741766021021</v>
       </c>
       <c r="K20">
-        <v>1.041065451650598</v>
+        <v>1.04012403382287</v>
       </c>
       <c r="L20">
-        <v>1.036682898537412</v>
+        <v>1.036210614926016</v>
       </c>
       <c r="M20">
-        <v>1.04733011233876</v>
+        <v>1.046748644250749</v>
       </c>
       <c r="N20">
-        <v>1.013489650203393</v>
+        <v>1.014839325059622</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046071493131676</v>
+        <v>1.045611325926714</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040185383327756</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039536199136587</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022999615915074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9971505971106792</v>
+        <v>0.9970339099372374</v>
       </c>
       <c r="D21">
-        <v>1.024433801754513</v>
+        <v>1.023786726561756</v>
       </c>
       <c r="E21">
-        <v>1.019317939079038</v>
+        <v>1.01913145669886</v>
       </c>
       <c r="F21">
-        <v>1.030494911969007</v>
+        <v>1.030158476288713</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052195059009375</v>
+        <v>1.051866406594959</v>
       </c>
       <c r="J21">
-        <v>1.02676793565588</v>
+        <v>1.026656167743325</v>
       </c>
       <c r="K21">
-        <v>1.038966597131371</v>
+        <v>1.038331043219718</v>
       </c>
       <c r="L21">
-        <v>1.033942342310384</v>
+        <v>1.033759221784664</v>
       </c>
       <c r="M21">
-        <v>1.04492069845808</v>
+        <v>1.044590159779934</v>
       </c>
       <c r="N21">
-        <v>1.012676427348477</v>
+        <v>1.014695287841971</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044124101235388</v>
+        <v>1.043862503293399</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038704641987113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038272044419528</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022628980277682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9942594347960635</v>
+        <v>0.9943413439587849</v>
       </c>
       <c r="D22">
-        <v>1.022493473166401</v>
+        <v>1.022042644264747</v>
       </c>
       <c r="E22">
-        <v>1.016968417128646</v>
+        <v>1.016967485677729</v>
       </c>
       <c r="F22">
-        <v>1.028383795930247</v>
+        <v>1.028208576292809</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051468205506249</v>
+        <v>1.051242212208214</v>
       </c>
       <c r="J22">
-        <v>1.025253671235403</v>
+        <v>1.025331926037128</v>
       </c>
       <c r="K22">
-        <v>1.037632122806054</v>
+        <v>1.037189724301925</v>
       </c>
       <c r="L22">
-        <v>1.032211058016844</v>
+        <v>1.03221014422201</v>
       </c>
       <c r="M22">
-        <v>1.043413182830415</v>
+        <v>1.043241189894953</v>
       </c>
       <c r="N22">
-        <v>1.01216207110519</v>
+        <v>1.014597958253332</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042931008675537</v>
+        <v>1.04279488824323</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037747684434869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037450357190847</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022391755459244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9957890701964849</v>
+        <v>0.9957534975706682</v>
       </c>
       <c r="D23">
-        <v>1.023515398406563</v>
+        <v>1.022952001109596</v>
       </c>
       <c r="E23">
-        <v>1.018209606194677</v>
+        <v>1.018099427359449</v>
       </c>
       <c r="F23">
-        <v>1.029499011616423</v>
+        <v>1.029229841486388</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051850922697724</v>
+        <v>1.051565982232043</v>
       </c>
       <c r="J23">
-        <v>1.026051312087637</v>
+        <v>1.026017279945866</v>
       </c>
       <c r="K23">
-        <v>1.038332604371688</v>
+        <v>1.037779474517543</v>
       </c>
       <c r="L23">
-        <v>1.03312409276404</v>
+        <v>1.033015948042086</v>
       </c>
       <c r="M23">
-        <v>1.044208072132272</v>
+        <v>1.043943731784364</v>
       </c>
       <c r="N23">
-        <v>1.012431636906266</v>
+        <v>1.014604292697966</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043560107877893</v>
+        <v>1.043350901069244</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038233362872415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03785680100164</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022512491630354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001710731216956</v>
+        <v>1.001281171058629</v>
       </c>
       <c r="D24">
-        <v>1.027486219732097</v>
+        <v>1.026529400114913</v>
       </c>
       <c r="E24">
-        <v>1.023031424073348</v>
+        <v>1.022551944160311</v>
       </c>
       <c r="F24">
-        <v>1.033831913426798</v>
+        <v>1.033241257635316</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053312207731675</v>
+        <v>1.052821236051534</v>
       </c>
       <c r="J24">
-        <v>1.02914308660728</v>
+        <v>1.028729992391241</v>
       </c>
       <c r="K24">
-        <v>1.041047248274609</v>
+        <v>1.040106114324953</v>
       </c>
       <c r="L24">
-        <v>1.03666580393622</v>
+        <v>1.036194268039512</v>
       </c>
       <c r="M24">
-        <v>1.047289856513733</v>
+        <v>1.046708727300353</v>
       </c>
       <c r="N24">
-        <v>1.013478838854728</v>
+        <v>1.014827584843419</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045999119222123</v>
+        <v>1.045539197743391</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040145265373794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03949360950945</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022990660825839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008360205218894</v>
+        <v>1.007656391223161</v>
       </c>
       <c r="D25">
-        <v>1.031958638776073</v>
+        <v>1.030674917905898</v>
       </c>
       <c r="E25">
-        <v>1.028474597889094</v>
+        <v>1.027729710985583</v>
       </c>
       <c r="F25">
-        <v>1.0387236914648</v>
+        <v>1.037887384261514</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054899718256102</v>
+        <v>1.054237988356237</v>
       </c>
       <c r="J25">
-        <v>1.032609453958669</v>
+        <v>1.031928806304557</v>
       </c>
       <c r="K25">
-        <v>1.044080298092589</v>
+        <v>1.042815001818493</v>
       </c>
       <c r="L25">
-        <v>1.040646397448444</v>
+        <v>1.039912286423935</v>
       </c>
       <c r="M25">
-        <v>1.050749206229129</v>
+        <v>1.049924698760522</v>
       </c>
       <c r="N25">
-        <v>1.014652849251375</v>
+        <v>1.015639219892702</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048736936819324</v>
+        <v>1.048084401499058</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04228691666449</v>
+        <v>1.04140575470647</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023548958491038</v>
       </c>
     </row>
   </sheetData>
